--- a/Finanse.xlsx
+++ b/Finanse.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-A013-08.CAMPUS.000\Desktop\Arkusze\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-A121-08.CAMPUS.005\Desktop\Arkusz-kalkulacyjny-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9FBC93-50C7-4B8D-A152-CDB3AED5C05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8C40F6-07B3-4D03-9A29-129E31818912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{19EE711A-3283-4873-9107-9C9869A047C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{19EE711A-3283-4873-9107-9C9869A047C7}"/>
   </bookViews>
   <sheets>
     <sheet name="operacje" sheetId="1" r:id="rId1"/>
     <sheet name="kategorie" sheetId="2" r:id="rId2"/>
     <sheet name="styczeń" sheetId="3" r:id="rId3"/>
+    <sheet name="luty" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="55">
   <si>
     <t>Kwota</t>
   </si>
@@ -188,6 +189,42 @@
   <si>
     <t>Suma końcowa</t>
   </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>lipiec</t>
+  </si>
+  <si>
+    <t>sierpień</t>
+  </si>
+  <si>
+    <t>wrzesień</t>
+  </si>
+  <si>
+    <t>październik</t>
+  </si>
+  <si>
+    <t>listopad</t>
+  </si>
+  <si>
+    <t>grudzień</t>
+  </si>
 </sst>
 </file>
 
@@ -196,7 +233,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +252,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -256,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -264,13 +308,30 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="18">
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
     </dxf>
@@ -316,7 +377,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -335,43 +396,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -446,6 +471,42 @@
       </font>
       <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -460,18 +521,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DF00132F-BB2F-4D46-9EC5-1FA40894919A}" name="Operacje" displayName="Operacje" ref="A1:G207" totalsRowShown="0" headerRowDxfId="5" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DF00132F-BB2F-4D46-9EC5-1FA40894919A}" name="Operacje" displayName="Operacje" ref="A1:G207" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:G207" xr:uid="{DF00132F-BB2F-4D46-9EC5-1FA40894919A}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{25A72E87-C4CB-4423-B348-90A35E775FE3}" name="Kwota" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{93BBD57B-3BBB-4ACA-83CE-607F44F5B6A5}" name="Bank" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{2DE6DBCE-4D01-4473-8B14-546B121944E8}" name="Produkt" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{8BDFC9FE-2298-4235-8F5E-F51C51653802}" name="Kategoria" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{637E4BCA-FB13-497F-8BDF-60A0237FB080}" name="Typ" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{25A72E87-C4CB-4423-B348-90A35E775FE3}" name="Kwota" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{93BBD57B-3BBB-4ACA-83CE-607F44F5B6A5}" name="Bank" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{2DE6DBCE-4D01-4473-8B14-546B121944E8}" name="Produkt" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{8BDFC9FE-2298-4235-8F5E-F51C51653802}" name="Kategoria" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{637E4BCA-FB13-497F-8BDF-60A0237FB080}" name="Typ" dataDxfId="11">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Operacje[[#This Row],[Kategoria]],Kategorie[Kategoria],Kategorie[Typ],"",0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0589E3E0-9F77-4230-B360-097D9EB65EAF}" name="Data" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{C2CF5F63-18C9-44B9-A2FF-347ADDC71E9F}" name="Miesiąc" dataDxfId="3">
+    <tableColumn id="6" xr3:uid="{0589E3E0-9F77-4230-B360-097D9EB65EAF}" name="Data" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{C2CF5F63-18C9-44B9-A2FF-347ADDC71E9F}" name="Miesiąc" dataDxfId="9">
       <calculatedColumnFormula>IF(ISBLANK(Operacje[[#This Row],[Data]]),,MONTH(Operacje[[#This Row],[Data]]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -514,12 +575,36 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{BFEDD8C7-6960-450F-8611-D3A2F6177AF7}" name="Bank" totalsRowLabel="Suma"/>
     <tableColumn id="2" xr3:uid="{A8E01AD7-9F44-4056-9A84-61A254742FEA}" name="Produkt"/>
-    <tableColumn id="3" xr3:uid="{518BAC9F-C2D0-47A4-B7DA-CB3D9C9ACB4E}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{CA773A1B-F066-449B-B2FB-42F3C899F422}" name="Operacje" totalsRowFunction="sum" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{518BAC9F-C2D0-47A4-B7DA-CB3D9C9ACB4E}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{CA773A1B-F066-449B-B2FB-42F3C899F422}" name="Operacje" totalsRowFunction="sum" dataDxfId="7">
       <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],styczeń_saldo[[#This Row],[Bank]],Operacje[Produkt],styczeń_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{86417667-0456-4594-B07E-A87A7518B847}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{86417667-0456-4594-B07E-A87A7518B847}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="6">
       <calculatedColumnFormula>styczeń_saldo[[#This Row],[Saldo początkowe]]+styczeń_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D787F17B-C8A7-4517-93AB-478A7D2D2691}" name="styczeń_saldo2" displayName="styczeń_saldo2" ref="A1:E9" totalsRowCount="1">
+  <autoFilter ref="A1:E8" xr:uid="{BC108405-F5A8-4558-8658-63814512375D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
+    <sortCondition ref="A2:A8"/>
+    <sortCondition ref="B2:B8"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{CC14FA96-13DF-44AE-870E-477E801F35A5}" name="Bank" totalsRowLabel="Suma"/>
+    <tableColumn id="2" xr3:uid="{FC93A666-EED2-4E44-9DE1-4F572D4CD117}" name="Produkt"/>
+    <tableColumn id="3" xr3:uid="{402CE5E0-22A5-459F-98A7-1030DD2C059B}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4">
+      <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{E633EEE1-DF88-44A0-9D23-AF634F1B159B}" name="Operacje" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2">
+      <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],styczeń_saldo2[[#This Row],[Bank]],Operacje[Produkt],styczeń_saldo2[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{D1CAE2DA-8429-4E27-8687-10BD31AE92BE}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
+      <calculatedColumnFormula>styczeń_saldo2[[#This Row],[Saldo początkowe]]+styczeń_saldo2[[#This Row],[Operacje]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -825,7 +910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2E07F4-7261-4A7F-9183-17B238414C64}">
   <dimension ref="A1:J207"/>
   <sheetViews>
-    <sheetView topLeftCell="A171" workbookViewId="0">
+    <sheetView topLeftCell="A138" workbookViewId="0">
       <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
@@ -6052,10 +6137,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2DEFD62-4976-48B1-977C-6F0D7DF487D3}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B17"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6064,7 +6149,7 @@
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -6086,8 +6171,14 @@
       <c r="I1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -6109,8 +6200,14 @@
       <c r="I2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -6132,8 +6229,11 @@
       <c r="I3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -6149,8 +6249,11 @@
       <c r="I4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -6163,8 +6266,11 @@
       <c r="I5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -6177,8 +6283,11 @@
       <c r="I6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -6191,8 +6300,11 @@
       <c r="I7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -6205,40 +6317,55 @@
       <c r="I8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -6246,7 +6373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -6254,7 +6381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -6262,7 +6389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -6283,6 +6410,7 @@
     <sortCondition ref="B2:B17"/>
     <sortCondition ref="A2:A17"/>
   </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
@@ -6295,8 +6423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B61AC7-E857-4FF4-8F8A-C0BAB673445B}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -6484,6 +6612,10 @@
       <c r="B11">
         <v>1</v>
       </c>
+      <c r="C11" t="str">
+        <f>TEXT(DATE(2025,B11,1),"mmmm")</f>
+        <v>styczeń</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -6709,29 +6841,483 @@
       </c>
     </row>
     <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32">
         <f>SUBTOTAL(9,C23:C31)</f>
         <v>-4810</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8" t="s">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33">
         <f>SUBTOTAL(9,C14:C31)</f>
         <v>845.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516B3101-C772-42D1-B4F3-499D76FC79D3}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>-175</v>
+      </c>
+      <c r="D2" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],styczeń_saldo2[[#This Row],[Bank]],Operacje[Produkt],styczeń_saldo2[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>175</v>
+      </c>
+      <c r="E2" s="4">
+        <f ca="1">styczeń_saldo2[[#This Row],[Saldo początkowe]]+styczeń_saldo2[[#This Row],[Operacje]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" cm="1">
+        <f t="array" aca="1" ref="C3" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1700</v>
+      </c>
+      <c r="D3" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],styczeń_saldo2[[#This Row],[Bank]],Operacje[Produkt],styczeń_saldo2[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>2039.5</v>
+      </c>
+      <c r="E3" s="4">
+        <f ca="1">styczeń_saldo2[[#This Row],[Saldo początkowe]]+styczeń_saldo2[[#This Row],[Operacje]]</f>
+        <v>3739.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" cm="1">
+        <f t="array" aca="1" ref="C4" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1600</v>
+      </c>
+      <c r="D4" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],styczeń_saldo2[[#This Row],[Bank]],Operacje[Produkt],styczeń_saldo2[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>-400</v>
+      </c>
+      <c r="E4" s="4">
+        <f ca="1">styczeń_saldo2[[#This Row],[Saldo początkowe]]+styczeń_saldo2[[#This Row],[Operacje]]</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" cm="1">
+        <f t="array" aca="1" ref="C5" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>65</v>
+      </c>
+      <c r="D5" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],styczeń_saldo2[[#This Row],[Bank]],Operacje[Produkt],styczeń_saldo2[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>35</v>
+      </c>
+      <c r="E5" s="4">
+        <f ca="1">styczeń_saldo2[[#This Row],[Saldo początkowe]]+styczeń_saldo2[[#This Row],[Operacje]]</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>266</v>
+      </c>
+      <c r="D6" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],styczeń_saldo2[[#This Row],[Bank]],Operacje[Produkt],styczeń_saldo2[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>15</v>
+      </c>
+      <c r="E6" s="4">
+        <f ca="1">styczeń_saldo2[[#This Row],[Saldo początkowe]]+styczeń_saldo2[[#This Row],[Operacje]]</f>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>150</v>
+      </c>
+      <c r="D7" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],styczeń_saldo2[[#This Row],[Bank]],Operacje[Produkt],styczeń_saldo2[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>100</v>
+      </c>
+      <c r="E7" s="4">
+        <f ca="1">styczeń_saldo2[[#This Row],[Saldo początkowe]]+styczeń_saldo2[[#This Row],[Operacje]]</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>180</v>
+      </c>
+      <c r="D8" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],styczeń_saldo2[[#This Row],[Bank]],Operacje[Produkt],styczeń_saldo2[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>500</v>
+      </c>
+      <c r="E8" s="4">
+        <f ca="1">styczeń_saldo2[[#This Row],[Saldo początkowe]]+styczeń_saldo2[[#This Row],[Operacje]]</f>
+        <v>680</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="4">
+        <f ca="1">SUBTOTAL(109,styczeń_saldo2[Saldo początkowe])</f>
+        <v>3786</v>
+      </c>
+      <c r="D9" s="4">
+        <f>SUBTOTAL(109,styczeń_saldo2[Operacje])</f>
+        <v>2464.5</v>
+      </c>
+      <c r="E9" s="4">
+        <f ca="1">SUBTOTAL(109,styczeń_saldo2[Saldo końcowe])</f>
+        <v>6250.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="str">
+        <f>TEXT(DATE(2025,B11,1),"mmmm")</f>
+        <v>luty</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A14,Operacje[Miesiąc],luty!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="5">
+        <f>SUBTOTAL(9,C14:C14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A16,Operacje[Miesiąc],luty!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A17,Operacje[Miesiąc],luty!$B$11)</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A18,Operacje[Miesiąc],luty!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A19,Operacje[Miesiąc],luty!$B$11)</f>
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A20,Operacje[Miesiąc],luty!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A21,Operacje[Miesiąc],luty!$B$11)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="5">
+        <f>SUBTOTAL(9,C16:C21)</f>
+        <v>6565</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A23,Operacje[Miesiąc],luty!$B$11)</f>
+        <v>-405.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A24,Operacje[Miesiąc],luty!$B$11)</f>
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A25,Operacje[Miesiąc],luty!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A26,Operacje[Miesiąc],luty!$B$11)</f>
+        <v>-765</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A27,Operacje[Miesiąc],luty!$B$11)</f>
+        <v>-350</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A28,Operacje[Miesiąc],luty!$B$11)</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A29,Operacje[Miesiąc],luty!$B$11)</f>
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A30,Operacje[Miesiąc],luty!$B$11)</f>
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A31,Operacje[Miesiąc],luty!$B$11)</f>
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32">
+        <f>SUBTOTAL(9,C23:C31)</f>
+        <v>-4100.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33">
+        <f>SUBTOTAL(9,C14:C31)</f>
+        <v>2464.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Finanse.xlsx
+++ b/Finanse.xlsx
@@ -8,15 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-A121-08.CAMPUS.005\Desktop\Arkusz-kalkulacyjny-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8C40F6-07B3-4D03-9A29-129E31818912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D38495-E411-4F16-85F5-CB20DFA4606A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{19EE711A-3283-4873-9107-9C9869A047C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="13" xr2:uid="{19EE711A-3283-4873-9107-9C9869A047C7}"/>
   </bookViews>
   <sheets>
     <sheet name="operacje" sheetId="1" r:id="rId1"/>
     <sheet name="kategorie" sheetId="2" r:id="rId2"/>
     <sheet name="styczeń" sheetId="3" r:id="rId3"/>
     <sheet name="luty" sheetId="6" r:id="rId4"/>
+    <sheet name="marzec" sheetId="7" r:id="rId5"/>
+    <sheet name="kwiecień" sheetId="8" r:id="rId6"/>
+    <sheet name="maj" sheetId="9" r:id="rId7"/>
+    <sheet name="czerwiec" sheetId="10" r:id="rId8"/>
+    <sheet name="lipiec" sheetId="11" r:id="rId9"/>
+    <sheet name="sierpień" sheetId="12" r:id="rId10"/>
+    <sheet name="wrzesień" sheetId="13" r:id="rId11"/>
+    <sheet name="październik" sheetId="14" r:id="rId12"/>
+    <sheet name="listopad" sheetId="15" r:id="rId13"/>
+    <sheet name="grudzień" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="55">
   <si>
     <t>Kwota</t>
   </si>
@@ -313,7 +323,187 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="78">
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
     </dxf>
@@ -521,22 +711,166 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DF00132F-BB2F-4D46-9EC5-1FA40894919A}" name="Operacje" displayName="Operacje" ref="A1:G207" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DF00132F-BB2F-4D46-9EC5-1FA40894919A}" name="Operacje" displayName="Operacje" ref="A1:G207" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
   <autoFilter ref="A1:G207" xr:uid="{DF00132F-BB2F-4D46-9EC5-1FA40894919A}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{25A72E87-C4CB-4423-B348-90A35E775FE3}" name="Kwota" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{93BBD57B-3BBB-4ACA-83CE-607F44F5B6A5}" name="Bank" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{2DE6DBCE-4D01-4473-8B14-546B121944E8}" name="Produkt" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{8BDFC9FE-2298-4235-8F5E-F51C51653802}" name="Kategoria" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{637E4BCA-FB13-497F-8BDF-60A0237FB080}" name="Typ" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{25A72E87-C4CB-4423-B348-90A35E775FE3}" name="Kwota" dataDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{93BBD57B-3BBB-4ACA-83CE-607F44F5B6A5}" name="Bank" dataDxfId="74"/>
+    <tableColumn id="3" xr3:uid="{2DE6DBCE-4D01-4473-8B14-546B121944E8}" name="Produkt" dataDxfId="73"/>
+    <tableColumn id="4" xr3:uid="{8BDFC9FE-2298-4235-8F5E-F51C51653802}" name="Kategoria" dataDxfId="72"/>
+    <tableColumn id="5" xr3:uid="{637E4BCA-FB13-497F-8BDF-60A0237FB080}" name="Typ" dataDxfId="71">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Operacje[[#This Row],[Kategoria]],Kategorie[Kategoria],Kategorie[Typ],"",0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0589E3E0-9F77-4230-B360-097D9EB65EAF}" name="Data" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{C2CF5F63-18C9-44B9-A2FF-347ADDC71E9F}" name="Miesiąc" dataDxfId="9">
+    <tableColumn id="6" xr3:uid="{0589E3E0-9F77-4230-B360-097D9EB65EAF}" name="Data" dataDxfId="70"/>
+    <tableColumn id="7" xr3:uid="{C2CF5F63-18C9-44B9-A2FF-347ADDC71E9F}" name="Miesiąc" dataDxfId="69">
       <calculatedColumnFormula>IF(ISBLANK(Operacje[[#This Row],[Data]]),,MONTH(Operacje[[#This Row],[Data]]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{355952D6-D3AE-4218-AE19-2652FDBC4D63}" name="lipiec_saldo" displayName="lipiec_saldo" ref="A1:E9" totalsRowCount="1">
+  <autoFilter ref="A1:E8" xr:uid="{BC108405-F5A8-4558-8658-63814512375D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
+    <sortCondition ref="A2:A8"/>
+    <sortCondition ref="B2:B8"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{3E7B6A8D-D662-4BFC-9C63-A8D27A7C9CC9}" name="Bank" totalsRowLabel="Suma"/>
+    <tableColumn id="2" xr3:uid="{B89601A0-6A8D-4A85-A28A-ABCC667DC25B}" name="Produkt"/>
+    <tableColumn id="3" xr3:uid="{BD4F6F84-6850-4EC5-B07C-7A564FE65CAC}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="35">
+      <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{A95CB9A5-0B0C-4B17-8710-08FB53B93F07}" name="Operacje" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="33">
+      <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],lipiec_saldo[[#This Row],[Bank]],Operacje[Produkt],lipiec_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{425DF2C6-4FF6-4388-9091-179D3AE81234}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="31">
+      <calculatedColumnFormula>lipiec_saldo[[#This Row],[Saldo początkowe]]+lipiec_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{0D795B29-ECC6-4BB5-8891-1350B0F24837}" name="sierpień_saldo" displayName="sierpień_saldo" ref="A1:E9" totalsRowCount="1">
+  <autoFilter ref="A1:E8" xr:uid="{BC108405-F5A8-4558-8658-63814512375D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
+    <sortCondition ref="A2:A8"/>
+    <sortCondition ref="B2:B8"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{5DB5201B-3E8D-4A6B-BDCA-17E633B8A0AC}" name="Bank" totalsRowLabel="Suma"/>
+    <tableColumn id="2" xr3:uid="{03042651-EB78-4735-B338-F0B5BA056236}" name="Produkt"/>
+    <tableColumn id="3" xr3:uid="{A4521513-3046-4559-B9F8-B99F34FA791C}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="29">
+      <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{E7552EB9-6228-4E6E-8369-141EB1963330}" name="Operacje" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="27">
+      <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],sierpień_saldo[[#This Row],[Bank]],Operacje[Produkt],sierpień_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{87EA4A1C-C080-4DA8-A268-1218FA864F9D}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="25">
+      <calculatedColumnFormula>sierpień_saldo[[#This Row],[Saldo początkowe]]+sierpień_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{4C5DF59B-8412-4C4F-ABA2-8612839CF7DA}" name="wrzesień_saldo" displayName="wrzesień_saldo" ref="A1:E9" totalsRowCount="1">
+  <autoFilter ref="A1:E8" xr:uid="{BC108405-F5A8-4558-8658-63814512375D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
+    <sortCondition ref="A2:A8"/>
+    <sortCondition ref="B2:B8"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{41953830-E4A0-4331-9A4A-853940427EEC}" name="Bank" totalsRowLabel="Suma"/>
+    <tableColumn id="2" xr3:uid="{599FA979-63BA-4A1F-B837-999750C5ABE3}" name="Produkt"/>
+    <tableColumn id="3" xr3:uid="{A6395F16-48E9-4D9A-91FD-A08B6CBC8AF9}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="23">
+      <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{0C509825-7E28-4C19-81DF-BFCC04D5CD86}" name="Operacje" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="21">
+      <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],wrzesień_saldo[[#This Row],[Bank]],Operacje[Produkt],wrzesień_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{103810C1-B9C7-443D-B2FE-FF7C53B037DA}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="19">
+      <calculatedColumnFormula>wrzesień_saldo[[#This Row],[Saldo początkowe]]+wrzesień_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{11FCC2F4-6A3F-45AB-83B7-53027978D045}" name="październik_saldo" displayName="październik_saldo" ref="A1:E9" totalsRowCount="1">
+  <autoFilter ref="A1:E8" xr:uid="{BC108405-F5A8-4558-8658-63814512375D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
+    <sortCondition ref="A2:A8"/>
+    <sortCondition ref="B2:B8"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{184860FA-AC5F-4246-895E-3D7E29DD2732}" name="Bank" totalsRowLabel="Suma"/>
+    <tableColumn id="2" xr3:uid="{2A203464-0A0C-474D-A7F3-E6F40FAD22D4}" name="Produkt"/>
+    <tableColumn id="3" xr3:uid="{E07B8B4C-F974-4701-993A-2F7725F51576}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="17">
+      <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{C2AC896C-4C30-43C2-AD86-223A879219A3}" name="Operacje" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="15">
+      <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],październik_saldo[[#This Row],[Bank]],Operacje[Produkt],październik_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{D308DC67-D499-4C24-A38D-664857DA7868}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="13">
+      <calculatedColumnFormula>październik_saldo[[#This Row],[Saldo początkowe]]+październik_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{84AC0BB3-7F86-45C9-8018-CE695340ED55}" name="listopad_saldo" displayName="listopad_saldo" ref="A1:E9" totalsRowCount="1">
+  <autoFilter ref="A1:E8" xr:uid="{BC108405-F5A8-4558-8658-63814512375D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
+    <sortCondition ref="A2:A8"/>
+    <sortCondition ref="B2:B8"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{506F667E-0081-4765-BA04-8E7B25576640}" name="Bank" totalsRowLabel="Suma"/>
+    <tableColumn id="2" xr3:uid="{EBAFCBEB-BF63-4949-B371-00343AD2CDB9}" name="Produkt"/>
+    <tableColumn id="3" xr3:uid="{D2819467-7F23-457D-B7A9-3DA158F30368}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="11">
+      <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{DD8250EA-F9BD-4881-BEFD-484CF89C827A}" name="Operacje" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="9">
+      <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],listopad_saldo[[#This Row],[Bank]],Operacje[Produkt],listopad_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{65162FAC-88C6-46B5-AB07-9AEE43F1D90C}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="7">
+      <calculatedColumnFormula>listopad_saldo[[#This Row],[Saldo początkowe]]+listopad_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{3201515B-D4F6-46C7-907D-9EB86B079E5D}" name="grudzień_saldo" displayName="grudzień_saldo" ref="A1:E9" totalsRowCount="1">
+  <autoFilter ref="A1:E8" xr:uid="{BC108405-F5A8-4558-8658-63814512375D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
+    <sortCondition ref="A2:A8"/>
+    <sortCondition ref="B2:B8"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{355C4AB4-802F-43E1-9DC4-8867083FAB2F}" name="Bank" totalsRowLabel="Suma"/>
+    <tableColumn id="2" xr3:uid="{60929A0F-DE72-436B-85EA-03F4ED78D282}" name="Produkt"/>
+    <tableColumn id="3" xr3:uid="{32122A68-9D01-48CA-8897-71BF846FD0A4}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="5">
+      <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{2FAEB8DF-97A0-440E-BF10-123BDDDD93B2}" name="Operacje" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="3">
+      <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],grudzień_saldo[[#This Row],[Bank]],Operacje[Produkt],grudzień_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{59392E25-3430-4930-BEE1-6C73EC4858E4}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="1">
+      <calculatedColumnFormula>grudzień_saldo[[#This Row],[Saldo początkowe]]+grudzień_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -575,11 +909,11 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{BFEDD8C7-6960-450F-8611-D3A2F6177AF7}" name="Bank" totalsRowLabel="Suma"/>
     <tableColumn id="2" xr3:uid="{A8E01AD7-9F44-4056-9A84-61A254742FEA}" name="Produkt"/>
-    <tableColumn id="3" xr3:uid="{518BAC9F-C2D0-47A4-B7DA-CB3D9C9ACB4E}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{CA773A1B-F066-449B-B2FB-42F3C899F422}" name="Operacje" totalsRowFunction="sum" dataDxfId="7">
+    <tableColumn id="3" xr3:uid="{518BAC9F-C2D0-47A4-B7DA-CB3D9C9ACB4E}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="68"/>
+    <tableColumn id="4" xr3:uid="{CA773A1B-F066-449B-B2FB-42F3C899F422}" name="Operacje" totalsRowFunction="sum" dataDxfId="67">
       <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],styczeń_saldo[[#This Row],[Bank]],Operacje[Produkt],styczeń_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{86417667-0456-4594-B07E-A87A7518B847}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="6">
+    <tableColumn id="5" xr3:uid="{86417667-0456-4594-B07E-A87A7518B847}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="66">
       <calculatedColumnFormula>styczeń_saldo[[#This Row],[Saldo początkowe]]+styczeń_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -588,7 +922,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D787F17B-C8A7-4517-93AB-478A7D2D2691}" name="styczeń_saldo2" displayName="styczeń_saldo2" ref="A1:E9" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D787F17B-C8A7-4517-93AB-478A7D2D2691}" name="luty_saldo" displayName="luty_saldo" ref="A1:E9" totalsRowCount="1">
   <autoFilter ref="A1:E8" xr:uid="{BC108405-F5A8-4558-8658-63814512375D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
     <sortCondition ref="A2:A8"/>
@@ -597,14 +931,110 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{CC14FA96-13DF-44AE-870E-477E801F35A5}" name="Bank" totalsRowLabel="Suma"/>
     <tableColumn id="2" xr3:uid="{FC93A666-EED2-4E44-9DE1-4F572D4CD117}" name="Produkt"/>
-    <tableColumn id="3" xr3:uid="{402CE5E0-22A5-459F-98A7-1030DD2C059B}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="3" xr3:uid="{402CE5E0-22A5-459F-98A7-1030DD2C059B}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="57">
       <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E633EEE1-DF88-44A0-9D23-AF634F1B159B}" name="Operacje" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2">
-      <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],styczeń_saldo2[[#This Row],[Bank]],Operacje[Produkt],styczeń_saldo2[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{E633EEE1-DF88-44A0-9D23-AF634F1B159B}" name="Operacje" totalsRowFunction="sum" dataDxfId="65" totalsRowDxfId="56">
+      <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],luty_saldo[[#This Row],[Bank]],Operacje[Produkt],luty_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D1CAE2DA-8429-4E27-8687-10BD31AE92BE}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
-      <calculatedColumnFormula>styczeń_saldo2[[#This Row],[Saldo początkowe]]+styczeń_saldo2[[#This Row],[Operacje]]</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{D1CAE2DA-8429-4E27-8687-10BD31AE92BE}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="64" totalsRowDxfId="55">
+      <calculatedColumnFormula>luty_saldo[[#This Row],[Saldo początkowe]]+luty_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9BE39FDF-B98F-4E96-AD19-504162CE28F8}" name="marzec_saldo" displayName="marzec_saldo" ref="A1:E9" totalsRowCount="1">
+  <autoFilter ref="A1:E8" xr:uid="{BC108405-F5A8-4558-8658-63814512375D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
+    <sortCondition ref="A2:A8"/>
+    <sortCondition ref="B2:B8"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{8B1289C6-0B9A-4C3A-B3D6-BCA44DA3F3F9}" name="Bank" totalsRowLabel="Suma"/>
+    <tableColumn id="2" xr3:uid="{E4C8E33F-157B-41D1-B656-74DD09327827}" name="Produkt"/>
+    <tableColumn id="3" xr3:uid="{5824DB4C-50E7-4B56-811D-C35E0474CFD6}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="61">
+      <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{29EF627D-65E3-411E-9134-8F11148AC4C5}" name="Operacje" totalsRowFunction="sum" dataDxfId="63" totalsRowDxfId="60">
+      <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],marzec_saldo[[#This Row],[Bank]],Operacje[Produkt],marzec_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{F85BE29F-2134-4167-82C4-98243EF3116C}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="62" totalsRowDxfId="59">
+      <calculatedColumnFormula>marzec_saldo[[#This Row],[Saldo początkowe]]+marzec_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{96602A3B-931E-40F1-9736-8311608A9C4B}" name="kwiecień_saldo" displayName="kwiecień_saldo" ref="A1:E9" totalsRowCount="1">
+  <autoFilter ref="A1:E8" xr:uid="{BC108405-F5A8-4558-8658-63814512375D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
+    <sortCondition ref="A2:A8"/>
+    <sortCondition ref="B2:B8"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{DCBEBA71-EAAC-4213-A980-6FA0FC4CC6DA}" name="Bank" totalsRowLabel="Suma"/>
+    <tableColumn id="2" xr3:uid="{757B59AC-2B85-4F9B-900B-2F9FE36E685D}" name="Produkt"/>
+    <tableColumn id="3" xr3:uid="{DC2AB836-57E2-4D97-8040-CBA5F7ABE0C0}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="53">
+      <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{DB4462D6-C965-45FC-B837-A2164EFD3B6B}" name="Operacje" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="51">
+      <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],kwiecień_saldo[[#This Row],[Bank]],Operacje[Produkt],kwiecień_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{F49023EB-0981-433A-AE47-BD63A0F5F8DA}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="49">
+      <calculatedColumnFormula>kwiecień_saldo[[#This Row],[Saldo początkowe]]+kwiecień_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{5993384A-E5A1-4DA2-98F2-3F6C67A67B5B}" name="maj_saldo" displayName="maj_saldo" ref="A1:E9" totalsRowCount="1">
+  <autoFilter ref="A1:E8" xr:uid="{BC108405-F5A8-4558-8658-63814512375D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
+    <sortCondition ref="A2:A8"/>
+    <sortCondition ref="B2:B8"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{11F5C0F9-42E0-4930-9A72-9382A8486330}" name="Bank" totalsRowLabel="Suma"/>
+    <tableColumn id="2" xr3:uid="{4C99FE9D-6411-4905-AF1B-89BC09B5F366}" name="Produkt"/>
+    <tableColumn id="3" xr3:uid="{43F50878-52CD-4DF5-A53D-140D0D6C7ED2}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="44">
+      <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{E666B0A2-6251-4951-A91A-BCECDC102225}" name="Operacje" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="43">
+      <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],maj_saldo[[#This Row],[Bank]],Operacje[Produkt],maj_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{40BD0F46-4DB9-4924-A658-EB65580FCF7B}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="42">
+      <calculatedColumnFormula>maj_saldo[[#This Row],[Saldo początkowe]]+maj_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{93882294-EF08-4C00-BC9D-93606202DFCE}" name="czerwiec_saldo" displayName="czerwiec_saldo" ref="A1:E9" totalsRowCount="1">
+  <autoFilter ref="A1:E8" xr:uid="{BC108405-F5A8-4558-8658-63814512375D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
+    <sortCondition ref="A2:A8"/>
+    <sortCondition ref="B2:B8"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{B3FF2B8E-AF2E-4D9A-BFFD-64E2086DE258}" name="Bank" totalsRowLabel="Suma"/>
+    <tableColumn id="2" xr3:uid="{25E3F44D-2BD8-4965-9CBC-801490BD8429}" name="Produkt"/>
+    <tableColumn id="3" xr3:uid="{AB961AE9-02C8-4277-84B4-60C16B26ED0F}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="41">
+      <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{C2F0CAB7-3E28-4413-AF08-2AA1E36AF6E3}" name="Operacje" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="39">
+      <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],czerwiec_saldo[[#This Row],[Bank]],Operacje[Produkt],czerwiec_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{CC76026D-A5E3-4D2F-B959-C422014799FF}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="37">
+      <calculatedColumnFormula>czerwiec_saldo[[#This Row],[Saldo początkowe]]+czerwiec_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6135,6 +6565,2281 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC1A1A1-8866-4592-A69F-8E4C34DC0B7D}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>-135</v>
+      </c>
+      <c r="D2" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],sierpień_saldo[[#This Row],[Bank]],Operacje[Produkt],sierpień_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>33</v>
+      </c>
+      <c r="E2" s="4">
+        <f ca="1">sierpień_saldo[[#This Row],[Saldo początkowe]]+sierpień_saldo[[#This Row],[Operacje]]</f>
+        <v>-102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" cm="1">
+        <f t="array" aca="1" ref="C3" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>9882.44</v>
+      </c>
+      <c r="D3" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],sierpień_saldo[[#This Row],[Bank]],Operacje[Produkt],sierpień_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>1475</v>
+      </c>
+      <c r="E3" s="4">
+        <f ca="1">sierpień_saldo[[#This Row],[Saldo początkowe]]+sierpień_saldo[[#This Row],[Operacje]]</f>
+        <v>11357.44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" cm="1">
+        <f t="array" aca="1" ref="C4" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1020</v>
+      </c>
+      <c r="D4" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],sierpień_saldo[[#This Row],[Bank]],Operacje[Produkt],sierpień_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>-1020</v>
+      </c>
+      <c r="E4" s="4">
+        <f ca="1">sierpień_saldo[[#This Row],[Saldo początkowe]]+sierpień_saldo[[#This Row],[Operacje]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" cm="1">
+        <f t="array" aca="1" ref="C5" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>368.5</v>
+      </c>
+      <c r="D5" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],sierpień_saldo[[#This Row],[Bank]],Operacje[Produkt],sierpień_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>200</v>
+      </c>
+      <c r="E5" s="4">
+        <f ca="1">sierpień_saldo[[#This Row],[Saldo początkowe]]+sierpień_saldo[[#This Row],[Operacje]]</f>
+        <v>568.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1386</v>
+      </c>
+      <c r="D6" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],sierpień_saldo[[#This Row],[Bank]],Operacje[Produkt],sierpień_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>-300</v>
+      </c>
+      <c r="E6" s="4">
+        <f ca="1">sierpień_saldo[[#This Row],[Saldo początkowe]]+sierpień_saldo[[#This Row],[Operacje]]</f>
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>195.51</v>
+      </c>
+      <c r="D7" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],sierpień_saldo[[#This Row],[Bank]],Operacje[Produkt],sierpień_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <f ca="1">sierpień_saldo[[#This Row],[Saldo początkowe]]+sierpień_saldo[[#This Row],[Operacje]]</f>
+        <v>195.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>390.5</v>
+      </c>
+      <c r="D8" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],sierpień_saldo[[#This Row],[Bank]],Operacje[Produkt],sierpień_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>2.5</v>
+      </c>
+      <c r="E8" s="4">
+        <f ca="1">sierpień_saldo[[#This Row],[Saldo początkowe]]+sierpień_saldo[[#This Row],[Operacje]]</f>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="4">
+        <f ca="1">SUBTOTAL(109,sierpień_saldo[Saldo początkowe])</f>
+        <v>13107.95</v>
+      </c>
+      <c r="D9" s="4">
+        <f>SUBTOTAL(109,sierpień_saldo[Operacje])</f>
+        <v>390.5</v>
+      </c>
+      <c r="E9" s="4">
+        <f ca="1">SUBTOTAL(109,sierpień_saldo[Saldo końcowe])</f>
+        <v>13498.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="str">
+        <f>TEXT(DATE(2025,B11,1),"mmmm")</f>
+        <v>sierpień</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A14,Operacje[Miesiąc],sierpień!$B$11)</f>
+        <v>-1020</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="5">
+        <f>SUBTOTAL(9,C14:C14)</f>
+        <v>-1020</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A16,Operacje[Miesiąc],sierpień!$B$11)</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A17,Operacje[Miesiąc],sierpień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A18,Operacje[Miesiąc],sierpień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A19,Operacje[Miesiąc],sierpień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A20,Operacje[Miesiąc],sierpień!$B$11)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A21,Operacje[Miesiąc],sierpień!$B$11)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="5">
+        <f>SUBTOTAL(9,C16:C21)</f>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A23,Operacje[Miesiąc],sierpień!$B$11)</f>
+        <v>-749.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A24,Operacje[Miesiąc],sierpień!$B$11)</f>
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A25,Operacje[Miesiąc],sierpień!$B$11)</f>
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A26,Operacje[Miesiąc],sierpień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A27,Operacje[Miesiąc],sierpień!$B$11)</f>
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A28,Operacje[Miesiąc],sierpień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A29,Operacje[Miesiąc],sierpień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A30,Operacje[Miesiąc],sierpień!$B$11)</f>
+        <v>-290</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A31,Operacje[Miesiąc],sierpień!$B$11)</f>
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32">
+        <f>SUBTOTAL(9,C23:C31)</f>
+        <v>-3989.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33">
+        <f>SUBTOTAL(9,C14:C31)</f>
+        <v>390.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC76701-2710-454C-BC8C-15CA85EB28F5}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>-102</v>
+      </c>
+      <c r="D2" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],wrzesień_saldo[[#This Row],[Bank]],Operacje[Produkt],wrzesień_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>82</v>
+      </c>
+      <c r="E2" s="4">
+        <f ca="1">wrzesień_saldo[[#This Row],[Saldo początkowe]]+wrzesień_saldo[[#This Row],[Operacje]]</f>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" cm="1">
+        <f t="array" aca="1" ref="C3" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>11357.44</v>
+      </c>
+      <c r="D3" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],wrzesień_saldo[[#This Row],[Bank]],Operacje[Produkt],wrzesień_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>1689.5</v>
+      </c>
+      <c r="E3" s="4">
+        <f ca="1">wrzesień_saldo[[#This Row],[Saldo początkowe]]+wrzesień_saldo[[#This Row],[Operacje]]</f>
+        <v>13046.94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" cm="1">
+        <f t="array" aca="1" ref="C4" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],wrzesień_saldo[[#This Row],[Bank]],Operacje[Produkt],wrzesień_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <f ca="1">wrzesień_saldo[[#This Row],[Saldo początkowe]]+wrzesień_saldo[[#This Row],[Operacje]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" cm="1">
+        <f t="array" aca="1" ref="C5" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>568.5</v>
+      </c>
+      <c r="D5" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],wrzesień_saldo[[#This Row],[Bank]],Operacje[Produkt],wrzesień_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>-20</v>
+      </c>
+      <c r="E5" s="4">
+        <f ca="1">wrzesień_saldo[[#This Row],[Saldo początkowe]]+wrzesień_saldo[[#This Row],[Operacje]]</f>
+        <v>548.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1086</v>
+      </c>
+      <c r="D6" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],wrzesień_saldo[[#This Row],[Bank]],Operacje[Produkt],wrzesień_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <f ca="1">wrzesień_saldo[[#This Row],[Saldo początkowe]]+wrzesień_saldo[[#This Row],[Operacje]]</f>
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>195.51</v>
+      </c>
+      <c r="D7" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],wrzesień_saldo[[#This Row],[Bank]],Operacje[Produkt],wrzesień_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <f ca="1">wrzesień_saldo[[#This Row],[Saldo początkowe]]+wrzesień_saldo[[#This Row],[Operacje]]</f>
+        <v>195.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>393</v>
+      </c>
+      <c r="D8" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],wrzesień_saldo[[#This Row],[Bank]],Operacje[Produkt],wrzesień_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <f ca="1">wrzesień_saldo[[#This Row],[Saldo początkowe]]+wrzesień_saldo[[#This Row],[Operacje]]</f>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="4">
+        <f ca="1">SUBTOTAL(109,wrzesień_saldo[Saldo początkowe])</f>
+        <v>13498.45</v>
+      </c>
+      <c r="D9" s="4">
+        <f>SUBTOTAL(109,wrzesień_saldo[Operacje])</f>
+        <v>1751.5</v>
+      </c>
+      <c r="E9" s="4">
+        <f ca="1">SUBTOTAL(109,wrzesień_saldo[Saldo końcowe])</f>
+        <v>15249.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="str">
+        <f>TEXT(DATE(2025,B11,1),"mmmm")</f>
+        <v>wrzesień</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A14,Operacje[Miesiąc],wrzesień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="5">
+        <f>SUBTOTAL(9,C14:C14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A16,Operacje[Miesiąc],wrzesień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A17,Operacje[Miesiąc],wrzesień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A18,Operacje[Miesiąc],wrzesień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A19,Operacje[Miesiąc],wrzesień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A20,Operacje[Miesiąc],wrzesień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A21,Operacje[Miesiąc],wrzesień!$B$11)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="5">
+        <f>SUBTOTAL(9,C16:C21)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A23,Operacje[Miesiąc],wrzesień!$B$11)</f>
+        <v>-538.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A24,Operacje[Miesiąc],wrzesień!$B$11)</f>
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A25,Operacje[Miesiąc],wrzesień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A26,Operacje[Miesiąc],wrzesień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A27,Operacje[Miesiąc],wrzesień!$B$11)</f>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A28,Operacje[Miesiąc],wrzesień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A29,Operacje[Miesiąc],wrzesień!$B$11)</f>
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A30,Operacje[Miesiąc],wrzesień!$B$11)</f>
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A31,Operacje[Miesiąc],wrzesień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32">
+        <f>SUBTOTAL(9,C23:C31)</f>
+        <v>-2748.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33">
+        <f>SUBTOTAL(9,C14:C31)</f>
+        <v>1751.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221EF678-DEB4-412D-A9D6-A2985B0AD3C6}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>-20</v>
+      </c>
+      <c r="D2" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],październik_saldo[[#This Row],[Bank]],Operacje[Produkt],październik_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>-20</v>
+      </c>
+      <c r="E2" s="4">
+        <f ca="1">październik_saldo[[#This Row],[Saldo początkowe]]+październik_saldo[[#This Row],[Operacje]]</f>
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" cm="1">
+        <f t="array" aca="1" ref="C3" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>13046.94</v>
+      </c>
+      <c r="D3" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],październik_saldo[[#This Row],[Bank]],Operacje[Produkt],październik_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>1690</v>
+      </c>
+      <c r="E3" s="4">
+        <f ca="1">październik_saldo[[#This Row],[Saldo początkowe]]+październik_saldo[[#This Row],[Operacje]]</f>
+        <v>14736.94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" cm="1">
+        <f t="array" aca="1" ref="C4" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],październik_saldo[[#This Row],[Bank]],Operacje[Produkt],październik_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <f ca="1">październik_saldo[[#This Row],[Saldo początkowe]]+październik_saldo[[#This Row],[Operacje]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" cm="1">
+        <f t="array" aca="1" ref="C5" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>548.5</v>
+      </c>
+      <c r="D5" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],październik_saldo[[#This Row],[Bank]],Operacje[Produkt],październik_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <f ca="1">październik_saldo[[#This Row],[Saldo początkowe]]+październik_saldo[[#This Row],[Operacje]]</f>
+        <v>548.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1086</v>
+      </c>
+      <c r="D6" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],październik_saldo[[#This Row],[Bank]],Operacje[Produkt],październik_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <f ca="1">październik_saldo[[#This Row],[Saldo początkowe]]+październik_saldo[[#This Row],[Operacje]]</f>
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>195.51</v>
+      </c>
+      <c r="D7" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],październik_saldo[[#This Row],[Bank]],Operacje[Produkt],październik_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <f ca="1">październik_saldo[[#This Row],[Saldo początkowe]]+październik_saldo[[#This Row],[Operacje]]</f>
+        <v>195.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>393</v>
+      </c>
+      <c r="D8" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],październik_saldo[[#This Row],[Bank]],Operacje[Produkt],październik_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <f ca="1">październik_saldo[[#This Row],[Saldo początkowe]]+październik_saldo[[#This Row],[Operacje]]</f>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="4">
+        <f ca="1">SUBTOTAL(109,październik_saldo[Saldo początkowe])</f>
+        <v>15249.95</v>
+      </c>
+      <c r="D9" s="4">
+        <f>SUBTOTAL(109,październik_saldo[Operacje])</f>
+        <v>1670</v>
+      </c>
+      <c r="E9" s="4">
+        <f ca="1">SUBTOTAL(109,październik_saldo[Saldo końcowe])</f>
+        <v>16919.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="str">
+        <f>TEXT(DATE(2025,B11,1),"mmmm")</f>
+        <v>październik</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A14,Operacje[Miesiąc],październik!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="5">
+        <f>SUBTOTAL(9,C14:C14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A16,Operacje[Miesiąc],październik!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A17,Operacje[Miesiąc],październik!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A18,Operacje[Miesiąc],październik!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A19,Operacje[Miesiąc],październik!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A20,Operacje[Miesiąc],październik!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A21,Operacje[Miesiąc],październik!$B$11)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="5">
+        <f>SUBTOTAL(9,C16:C21)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A23,Operacje[Miesiąc],październik!$B$11)</f>
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A24,Operacje[Miesiąc],październik!$B$11)</f>
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A25,Operacje[Miesiąc],październik!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A26,Operacje[Miesiąc],październik!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A27,Operacje[Miesiąc],październik!$B$11)</f>
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A28,Operacje[Miesiąc],październik!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A29,Operacje[Miesiąc],październik!$B$11)</f>
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A30,Operacje[Miesiąc],październik!$B$11)</f>
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A31,Operacje[Miesiąc],październik!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32">
+        <f>SUBTOTAL(9,C23:C31)</f>
+        <v>-2830</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33">
+        <f>SUBTOTAL(9,C14:C31)</f>
+        <v>1670</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED30D99-6D16-42DC-9AD6-4C6377773A8F}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>-40</v>
+      </c>
+      <c r="D2" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],listopad_saldo[[#This Row],[Bank]],Operacje[Produkt],listopad_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>40</v>
+      </c>
+      <c r="E2" s="4">
+        <f ca="1">listopad_saldo[[#This Row],[Saldo początkowe]]+listopad_saldo[[#This Row],[Operacje]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" cm="1">
+        <f t="array" aca="1" ref="C3" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>14736.94</v>
+      </c>
+      <c r="D3" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],listopad_saldo[[#This Row],[Bank]],Operacje[Produkt],listopad_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>960</v>
+      </c>
+      <c r="E3" s="4">
+        <f ca="1">listopad_saldo[[#This Row],[Saldo początkowe]]+listopad_saldo[[#This Row],[Operacje]]</f>
+        <v>15696.94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" cm="1">
+        <f t="array" aca="1" ref="C4" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],listopad_saldo[[#This Row],[Bank]],Operacje[Produkt],listopad_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <f ca="1">listopad_saldo[[#This Row],[Saldo początkowe]]+listopad_saldo[[#This Row],[Operacje]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" cm="1">
+        <f t="array" aca="1" ref="C5" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>548.5</v>
+      </c>
+      <c r="D5" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],listopad_saldo[[#This Row],[Bank]],Operacje[Produkt],listopad_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <f ca="1">listopad_saldo[[#This Row],[Saldo początkowe]]+listopad_saldo[[#This Row],[Operacje]]</f>
+        <v>548.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1086</v>
+      </c>
+      <c r="D6" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],listopad_saldo[[#This Row],[Bank]],Operacje[Produkt],listopad_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <f ca="1">listopad_saldo[[#This Row],[Saldo początkowe]]+listopad_saldo[[#This Row],[Operacje]]</f>
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>195.51</v>
+      </c>
+      <c r="D7" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],listopad_saldo[[#This Row],[Bank]],Operacje[Produkt],listopad_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <f ca="1">listopad_saldo[[#This Row],[Saldo początkowe]]+listopad_saldo[[#This Row],[Operacje]]</f>
+        <v>195.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>393</v>
+      </c>
+      <c r="D8" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],listopad_saldo[[#This Row],[Bank]],Operacje[Produkt],listopad_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>400</v>
+      </c>
+      <c r="E8" s="4">
+        <f ca="1">listopad_saldo[[#This Row],[Saldo początkowe]]+listopad_saldo[[#This Row],[Operacje]]</f>
+        <v>793</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="4">
+        <f ca="1">SUBTOTAL(109,listopad_saldo[Saldo początkowe])</f>
+        <v>16919.95</v>
+      </c>
+      <c r="D9" s="4">
+        <f>SUBTOTAL(109,listopad_saldo[Operacje])</f>
+        <v>1400</v>
+      </c>
+      <c r="E9" s="4">
+        <f ca="1">SUBTOTAL(109,listopad_saldo[Saldo końcowe])</f>
+        <v>18319.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11" t="str">
+        <f>TEXT(DATE(2025,B11,1),"mmmm")</f>
+        <v>listopad</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A14,Operacje[Miesiąc],listopad!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="5">
+        <f>SUBTOTAL(9,C14:C14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A16,Operacje[Miesiąc],listopad!$B$11)</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A17,Operacje[Miesiąc],listopad!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A18,Operacje[Miesiąc],listopad!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A19,Operacje[Miesiąc],listopad!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A20,Operacje[Miesiąc],listopad!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A21,Operacje[Miesiąc],listopad!$B$11)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="5">
+        <f>SUBTOTAL(9,C16:C21)</f>
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A23,Operacje[Miesiąc],listopad!$B$11)</f>
+        <v>-506</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A24,Operacje[Miesiąc],listopad!$B$11)</f>
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A25,Operacje[Miesiąc],listopad!$B$11)</f>
+        <v>-158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A26,Operacje[Miesiąc],listopad!$B$11)</f>
+        <v>-234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A27,Operacje[Miesiąc],listopad!$B$11)</f>
+        <v>-214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A28,Operacje[Miesiąc],listopad!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A29,Operacje[Miesiąc],listopad!$B$11)</f>
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A30,Operacje[Miesiąc],listopad!$B$11)</f>
+        <v>-208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A31,Operacje[Miesiąc],listopad!$B$11)</f>
+        <v>-133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32">
+        <f>SUBTOTAL(9,C23:C31)</f>
+        <v>-3500</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33">
+        <f>SUBTOTAL(9,C14:C31)</f>
+        <v>1400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E97707D-AC43-44A2-A022-39856934F8AB}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],grudzień_saldo[[#This Row],[Bank]],Operacje[Produkt],grudzień_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <f ca="1">grudzień_saldo[[#This Row],[Saldo początkowe]]+grudzień_saldo[[#This Row],[Operacje]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" cm="1">
+        <f t="array" aca="1" ref="C3" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>15696.94</v>
+      </c>
+      <c r="D3" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],grudzień_saldo[[#This Row],[Bank]],Operacje[Produkt],grudzień_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>1320</v>
+      </c>
+      <c r="E3" s="4">
+        <f ca="1">grudzień_saldo[[#This Row],[Saldo początkowe]]+grudzień_saldo[[#This Row],[Operacje]]</f>
+        <v>17016.940000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" cm="1">
+        <f t="array" aca="1" ref="C4" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],grudzień_saldo[[#This Row],[Bank]],Operacje[Produkt],grudzień_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <f ca="1">grudzień_saldo[[#This Row],[Saldo początkowe]]+grudzień_saldo[[#This Row],[Operacje]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" cm="1">
+        <f t="array" aca="1" ref="C5" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>548.5</v>
+      </c>
+      <c r="D5" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],grudzień_saldo[[#This Row],[Bank]],Operacje[Produkt],grudzień_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <f ca="1">grudzień_saldo[[#This Row],[Saldo początkowe]]+grudzień_saldo[[#This Row],[Operacje]]</f>
+        <v>548.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1086</v>
+      </c>
+      <c r="D6" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],grudzień_saldo[[#This Row],[Bank]],Operacje[Produkt],grudzień_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <f ca="1">grudzień_saldo[[#This Row],[Saldo początkowe]]+grudzień_saldo[[#This Row],[Operacje]]</f>
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>195.51</v>
+      </c>
+      <c r="D7" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],grudzień_saldo[[#This Row],[Bank]],Operacje[Produkt],grudzień_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <f ca="1">grudzień_saldo[[#This Row],[Saldo początkowe]]+grudzień_saldo[[#This Row],[Operacje]]</f>
+        <v>195.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>793</v>
+      </c>
+      <c r="D8" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],grudzień_saldo[[#This Row],[Bank]],Operacje[Produkt],grudzień_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>1100</v>
+      </c>
+      <c r="E8" s="4">
+        <f ca="1">grudzień_saldo[[#This Row],[Saldo początkowe]]+grudzień_saldo[[#This Row],[Operacje]]</f>
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="4">
+        <f ca="1">SUBTOTAL(109,grudzień_saldo[Saldo początkowe])</f>
+        <v>18319.95</v>
+      </c>
+      <c r="D9" s="4">
+        <f>SUBTOTAL(109,grudzień_saldo[Operacje])</f>
+        <v>2420</v>
+      </c>
+      <c r="E9" s="4">
+        <f ca="1">SUBTOTAL(109,grudzień_saldo[Saldo końcowe])</f>
+        <v>20739.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11" t="str">
+        <f>TEXT(DATE(2025,B11,1),"mmmm")</f>
+        <v>grudzień</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A14,Operacje[Miesiąc],grudzień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="5">
+        <f>SUBTOTAL(9,C14:C14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A16,Operacje[Miesiąc],grudzień!$B$11)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A17,Operacje[Miesiąc],grudzień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A18,Operacje[Miesiąc],grudzień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A19,Operacje[Miesiąc],grudzień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A20,Operacje[Miesiąc],grudzień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A21,Operacje[Miesiąc],grudzień!$B$11)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="5">
+        <f>SUBTOTAL(9,C16:C21)</f>
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A23,Operacje[Miesiąc],grudzień!$B$11)</f>
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A24,Operacje[Miesiąc],grudzień!$B$11)</f>
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A25,Operacje[Miesiąc],grudzień!$B$11)</f>
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A26,Operacje[Miesiąc],grudzień!$B$11)</f>
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A27,Operacje[Miesiąc],grudzień!$B$11)</f>
+        <v>-450</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A28,Operacje[Miesiąc],grudzień!$B$11)</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A29,Operacje[Miesiąc],grudzień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A30,Operacje[Miesiąc],grudzień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A31,Operacje[Miesiąc],grudzień!$B$11)</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32">
+        <f>SUBTOTAL(9,C23:C31)</f>
+        <v>-4080</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33">
+        <f>SUBTOTAL(9,C14:C31)</f>
+        <v>2420</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2DEFD62-4976-48B1-977C-6F0D7DF487D3}">
   <dimension ref="A1:L17"/>
@@ -6421,6 +9126,1819 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B61AC7-E857-4FF4-8F8A-C0BAB673445B}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],styczeń_saldo[[#This Row],[Bank]],Operacje[Produkt],styczeń_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>-175</v>
+      </c>
+      <c r="E2" s="4">
+        <f>styczeń_saldo[[#This Row],[Saldo początkowe]]+styczeń_saldo[[#This Row],[Operacje]]</f>
+        <v>-175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4">
+        <v>600</v>
+      </c>
+      <c r="D3" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],styczeń_saldo[[#This Row],[Bank]],Operacje[Produkt],styczeń_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>1100</v>
+      </c>
+      <c r="E3" s="4">
+        <f>styczeń_saldo[[#This Row],[Saldo początkowe]]+styczeń_saldo[[#This Row],[Operacje]]</f>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D4" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],styczeń_saldo[[#This Row],[Bank]],Operacje[Produkt],styczeń_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>-400</v>
+      </c>
+      <c r="E4" s="4">
+        <f>styczeń_saldo[[#This Row],[Saldo początkowe]]+styczeń_saldo[[#This Row],[Operacje]]</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4">
+        <v>100</v>
+      </c>
+      <c r="D5" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],styczeń_saldo[[#This Row],[Bank]],Operacje[Produkt],styczeń_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>-35</v>
+      </c>
+      <c r="E5" s="4">
+        <f>styczeń_saldo[[#This Row],[Saldo początkowe]]+styczeń_saldo[[#This Row],[Operacje]]</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="D6" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],styczeń_saldo[[#This Row],[Bank]],Operacje[Produkt],styczeń_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>255.5</v>
+      </c>
+      <c r="E6" s="4">
+        <f>styczeń_saldo[[#This Row],[Saldo początkowe]]+styczeń_saldo[[#This Row],[Operacje]]</f>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4">
+        <v>200</v>
+      </c>
+      <c r="D7" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],styczeń_saldo[[#This Row],[Bank]],Operacje[Produkt],styczeń_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>-50</v>
+      </c>
+      <c r="E7" s="4">
+        <f>styczeń_saldo[[#This Row],[Saldo początkowe]]+styczeń_saldo[[#This Row],[Operacje]]</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4">
+        <v>30</v>
+      </c>
+      <c r="D8" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],styczeń_saldo[[#This Row],[Bank]],Operacje[Produkt],styczeń_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>150</v>
+      </c>
+      <c r="E8" s="4">
+        <f>styczeń_saldo[[#This Row],[Saldo początkowe]]+styczeń_saldo[[#This Row],[Operacje]]</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="4">
+        <f>SUBTOTAL(109,styczeń_saldo[Saldo początkowe])</f>
+        <v>2940.5</v>
+      </c>
+      <c r="D9" s="4">
+        <f>SUBTOTAL(109,styczeń_saldo[Operacje])</f>
+        <v>845.5</v>
+      </c>
+      <c r="E9" s="4">
+        <f>SUBTOTAL(109,styczeń_saldo[Saldo końcowe])</f>
+        <v>3786</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="str">
+        <f>TEXT(DATE(2025,B11,1),"mmmm")</f>
+        <v>styczeń</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A14,Operacje[Miesiąc],styczeń!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="5">
+        <f>SUBTOTAL(9,C14:C14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A16,Operacje[Miesiąc],styczeń!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A17,Operacje[Miesiąc],styczeń!$B$11)</f>
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A18,Operacje[Miesiąc],styczeń!$B$11)</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A19,Operacje[Miesiąc],styczeń!$B$11)</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A20,Operacje[Miesiąc],styczeń!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A21,Operacje[Miesiąc],styczeń!$B$11)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="5">
+        <f>SUBTOTAL(9,C16:C21)</f>
+        <v>5655.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A23,Operacje[Miesiąc],styczeń!$B$11)</f>
+        <v>-1715</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A24,Operacje[Miesiąc],styczeń!$B$11)</f>
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A25,Operacje[Miesiąc],styczeń!$B$11)</f>
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A26,Operacje[Miesiąc],styczeń!$B$11)</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A27,Operacje[Miesiąc],styczeń!$B$11)</f>
+        <v>-85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A28,Operacje[Miesiąc],styczeń!$B$11)</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A29,Operacje[Miesiąc],styczeń!$B$11)</f>
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A30,Operacje[Miesiąc],styczeń!$B$11)</f>
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A31,Operacje[Miesiąc],styczeń!$B$11)</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32">
+        <f>SUBTOTAL(9,C23:C31)</f>
+        <v>-4810</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33">
+        <f>SUBTOTAL(9,C14:C31)</f>
+        <v>845.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516B3101-C772-42D1-B4F3-499D76FC79D3}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>-175</v>
+      </c>
+      <c r="D2" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],luty_saldo[[#This Row],[Bank]],Operacje[Produkt],luty_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>175</v>
+      </c>
+      <c r="E2" s="4">
+        <f ca="1">luty_saldo[[#This Row],[Saldo początkowe]]+luty_saldo[[#This Row],[Operacje]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" cm="1">
+        <f t="array" aca="1" ref="C3" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1700</v>
+      </c>
+      <c r="D3" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],luty_saldo[[#This Row],[Bank]],Operacje[Produkt],luty_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>2039.5</v>
+      </c>
+      <c r="E3" s="4">
+        <f ca="1">luty_saldo[[#This Row],[Saldo początkowe]]+luty_saldo[[#This Row],[Operacje]]</f>
+        <v>3739.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" cm="1">
+        <f t="array" aca="1" ref="C4" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1600</v>
+      </c>
+      <c r="D4" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],luty_saldo[[#This Row],[Bank]],Operacje[Produkt],luty_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>-400</v>
+      </c>
+      <c r="E4" s="4">
+        <f ca="1">luty_saldo[[#This Row],[Saldo początkowe]]+luty_saldo[[#This Row],[Operacje]]</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" cm="1">
+        <f t="array" aca="1" ref="C5" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>65</v>
+      </c>
+      <c r="D5" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],luty_saldo[[#This Row],[Bank]],Operacje[Produkt],luty_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>35</v>
+      </c>
+      <c r="E5" s="4">
+        <f ca="1">luty_saldo[[#This Row],[Saldo początkowe]]+luty_saldo[[#This Row],[Operacje]]</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>266</v>
+      </c>
+      <c r="D6" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],luty_saldo[[#This Row],[Bank]],Operacje[Produkt],luty_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>15</v>
+      </c>
+      <c r="E6" s="4">
+        <f ca="1">luty_saldo[[#This Row],[Saldo początkowe]]+luty_saldo[[#This Row],[Operacje]]</f>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>150</v>
+      </c>
+      <c r="D7" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],luty_saldo[[#This Row],[Bank]],Operacje[Produkt],luty_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>100</v>
+      </c>
+      <c r="E7" s="4">
+        <f ca="1">luty_saldo[[#This Row],[Saldo początkowe]]+luty_saldo[[#This Row],[Operacje]]</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>180</v>
+      </c>
+      <c r="D8" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],luty_saldo[[#This Row],[Bank]],Operacje[Produkt],luty_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>500</v>
+      </c>
+      <c r="E8" s="4">
+        <f ca="1">luty_saldo[[#This Row],[Saldo początkowe]]+luty_saldo[[#This Row],[Operacje]]</f>
+        <v>680</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="4">
+        <f ca="1">SUBTOTAL(109,luty_saldo[Saldo początkowe])</f>
+        <v>3786</v>
+      </c>
+      <c r="D9" s="4">
+        <f>SUBTOTAL(109,luty_saldo[Operacje])</f>
+        <v>2464.5</v>
+      </c>
+      <c r="E9" s="4">
+        <f ca="1">SUBTOTAL(109,luty_saldo[Saldo końcowe])</f>
+        <v>6250.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="str">
+        <f>TEXT(DATE(2025,B11,1),"mmmm")</f>
+        <v>luty</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A14,Operacje[Miesiąc],luty!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="5">
+        <f>SUBTOTAL(9,C14:C14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A16,Operacje[Miesiąc],luty!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A17,Operacje[Miesiąc],luty!$B$11)</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A18,Operacje[Miesiąc],luty!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A19,Operacje[Miesiąc],luty!$B$11)</f>
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A20,Operacje[Miesiąc],luty!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A21,Operacje[Miesiąc],luty!$B$11)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="5">
+        <f>SUBTOTAL(9,C16:C21)</f>
+        <v>6565</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A23,Operacje[Miesiąc],luty!$B$11)</f>
+        <v>-405.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A24,Operacje[Miesiąc],luty!$B$11)</f>
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A25,Operacje[Miesiąc],luty!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A26,Operacje[Miesiąc],luty!$B$11)</f>
+        <v>-765</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A27,Operacje[Miesiąc],luty!$B$11)</f>
+        <v>-350</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A28,Operacje[Miesiąc],luty!$B$11)</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A29,Operacje[Miesiąc],luty!$B$11)</f>
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A30,Operacje[Miesiąc],luty!$B$11)</f>
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A31,Operacje[Miesiąc],luty!$B$11)</f>
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32">
+        <f>SUBTOTAL(9,C23:C31)</f>
+        <v>-4100.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33">
+        <f>SUBTOTAL(9,C14:C31)</f>
+        <v>2464.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DDD9D5D-DD97-4850-BA80-9AD5C0DBF0FC}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],marzec_saldo[[#This Row],[Bank]],Operacje[Produkt],marzec_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>-104.5</v>
+      </c>
+      <c r="E2" s="4">
+        <f ca="1">marzec_saldo[[#This Row],[Saldo początkowe]]+marzec_saldo[[#This Row],[Operacje]]</f>
+        <v>-104.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" cm="1">
+        <f t="array" aca="1" ref="C3" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>3739.5</v>
+      </c>
+      <c r="D3" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],marzec_saldo[[#This Row],[Bank]],Operacje[Produkt],marzec_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>821.59999999999991</v>
+      </c>
+      <c r="E3" s="4">
+        <f ca="1">marzec_saldo[[#This Row],[Saldo początkowe]]+marzec_saldo[[#This Row],[Operacje]]</f>
+        <v>4561.1000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" cm="1">
+        <f t="array" aca="1" ref="C4" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1200</v>
+      </c>
+      <c r="D4" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],marzec_saldo[[#This Row],[Bank]],Operacje[Produkt],marzec_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <f ca="1">marzec_saldo[[#This Row],[Saldo początkowe]]+marzec_saldo[[#This Row],[Operacje]]</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" cm="1">
+        <f t="array" aca="1" ref="C5" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>100</v>
+      </c>
+      <c r="D5" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],marzec_saldo[[#This Row],[Bank]],Operacje[Produkt],marzec_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>67.5</v>
+      </c>
+      <c r="E5" s="4">
+        <f ca="1">marzec_saldo[[#This Row],[Saldo początkowe]]+marzec_saldo[[#This Row],[Operacje]]</f>
+        <v>167.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>281</v>
+      </c>
+      <c r="D6" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],marzec_saldo[[#This Row],[Bank]],Operacje[Produkt],marzec_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>5</v>
+      </c>
+      <c r="E6" s="4">
+        <f ca="1">marzec_saldo[[#This Row],[Saldo początkowe]]+marzec_saldo[[#This Row],[Operacje]]</f>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>250</v>
+      </c>
+      <c r="D7" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],marzec_saldo[[#This Row],[Bank]],Operacje[Produkt],marzec_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>-24.49</v>
+      </c>
+      <c r="E7" s="4">
+        <f ca="1">marzec_saldo[[#This Row],[Saldo początkowe]]+marzec_saldo[[#This Row],[Operacje]]</f>
+        <v>225.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>680</v>
+      </c>
+      <c r="D8" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],marzec_saldo[[#This Row],[Bank]],Operacje[Produkt],marzec_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>-9.5</v>
+      </c>
+      <c r="E8" s="4">
+        <f ca="1">marzec_saldo[[#This Row],[Saldo początkowe]]+marzec_saldo[[#This Row],[Operacje]]</f>
+        <v>670.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="4">
+        <f ca="1">SUBTOTAL(109,marzec_saldo[Saldo początkowe])</f>
+        <v>6250.5</v>
+      </c>
+      <c r="D9" s="4">
+        <f>SUBTOTAL(109,marzec_saldo[Operacje])</f>
+        <v>755.6099999999999</v>
+      </c>
+      <c r="E9" s="4">
+        <f ca="1">SUBTOTAL(109,marzec_saldo[Saldo końcowe])</f>
+        <v>7006.1100000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="str">
+        <f>TEXT(DATE(2025,B11,1),"mmmm")</f>
+        <v>marzec</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A14,Operacje[Miesiąc],marzec!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="5">
+        <f>SUBTOTAL(9,C14:C14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A16,Operacje[Miesiąc],marzec!$B$11)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A17,Operacje[Miesiąc],marzec!$B$11)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A18,Operacje[Miesiąc],marzec!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A19,Operacje[Miesiąc],marzec!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A20,Operacje[Miesiąc],marzec!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A21,Operacje[Miesiąc],marzec!$B$11)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="5">
+        <f>SUBTOTAL(9,C16:C21)</f>
+        <v>4655</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A23,Operacje[Miesiąc],marzec!$B$11)</f>
+        <v>-734.99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A24,Operacje[Miesiąc],marzec!$B$11)</f>
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A25,Operacje[Miesiąc],marzec!$B$11)</f>
+        <v>-469.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A26,Operacje[Miesiąc],marzec!$B$11)</f>
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A27,Operacje[Miesiąc],marzec!$B$11)</f>
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A28,Operacje[Miesiąc],marzec!$B$11)</f>
+        <v>-79.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A29,Operacje[Miesiąc],marzec!$B$11)</f>
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A30,Operacje[Miesiąc],marzec!$B$11)</f>
+        <v>-82.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A31,Operacje[Miesiąc],marzec!$B$11)</f>
+        <v>-9.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32">
+        <f>SUBTOTAL(9,C23:C31)</f>
+        <v>-3899.39</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33">
+        <f>SUBTOTAL(9,C14:C31)</f>
+        <v>755.61000000000013</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D20808-6F4E-4856-BC0F-D36A39F744A1}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>-104.5</v>
+      </c>
+      <c r="D2" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],kwiecień_saldo[[#This Row],[Bank]],Operacje[Produkt],kwiecień_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>13.110000000000007</v>
+      </c>
+      <c r="E2" s="4">
+        <f ca="1">kwiecień_saldo[[#This Row],[Saldo początkowe]]+kwiecień_saldo[[#This Row],[Operacje]]</f>
+        <v>-91.389999999999986</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" cm="1">
+        <f t="array" aca="1" ref="C3" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>4561.1000000000004</v>
+      </c>
+      <c r="D3" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],kwiecień_saldo[[#This Row],[Bank]],Operacje[Produkt],kwiecień_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>562.72999999999968</v>
+      </c>
+      <c r="E3" s="4">
+        <f ca="1">kwiecień_saldo[[#This Row],[Saldo początkowe]]+kwiecień_saldo[[#This Row],[Operacje]]</f>
+        <v>5123.83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" cm="1">
+        <f t="array" aca="1" ref="C4" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1200</v>
+      </c>
+      <c r="D4" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],kwiecień_saldo[[#This Row],[Bank]],Operacje[Produkt],kwiecień_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <f ca="1">kwiecień_saldo[[#This Row],[Saldo początkowe]]+kwiecień_saldo[[#This Row],[Operacje]]</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" cm="1">
+        <f t="array" aca="1" ref="C5" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>167.5</v>
+      </c>
+      <c r="D5" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],kwiecień_saldo[[#This Row],[Bank]],Operacje[Produkt],kwiecień_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>101</v>
+      </c>
+      <c r="E5" s="4">
+        <f ca="1">kwiecień_saldo[[#This Row],[Saldo początkowe]]+kwiecień_saldo[[#This Row],[Operacje]]</f>
+        <v>268.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>286</v>
+      </c>
+      <c r="D6" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],kwiecień_saldo[[#This Row],[Bank]],Operacje[Produkt],kwiecień_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>50</v>
+      </c>
+      <c r="E6" s="4">
+        <f ca="1">kwiecień_saldo[[#This Row],[Saldo początkowe]]+kwiecień_saldo[[#This Row],[Operacje]]</f>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>225.51</v>
+      </c>
+      <c r="D7" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],kwiecień_saldo[[#This Row],[Bank]],Operacje[Produkt],kwiecień_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <f ca="1">kwiecień_saldo[[#This Row],[Saldo początkowe]]+kwiecień_saldo[[#This Row],[Operacje]]</f>
+        <v>225.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>670.5</v>
+      </c>
+      <c r="D8" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],kwiecień_saldo[[#This Row],[Bank]],Operacje[Produkt],kwiecień_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <f ca="1">kwiecień_saldo[[#This Row],[Saldo początkowe]]+kwiecień_saldo[[#This Row],[Operacje]]</f>
+        <v>670.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="4">
+        <f ca="1">SUBTOTAL(109,kwiecień_saldo[Saldo początkowe])</f>
+        <v>7006.1100000000006</v>
+      </c>
+      <c r="D9" s="4">
+        <f>SUBTOTAL(109,kwiecień_saldo[Operacje])</f>
+        <v>726.83999999999969</v>
+      </c>
+      <c r="E9" s="4">
+        <f ca="1">SUBTOTAL(109,kwiecień_saldo[Saldo końcowe])</f>
+        <v>7732.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="str">
+        <f>TEXT(DATE(2025,B11,1),"mmmm")</f>
+        <v>kwiecień</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A14,Operacje[Miesiąc],kwiecień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="5">
+        <f>SUBTOTAL(9,C14:C14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A16,Operacje[Miesiąc],kwiecień!$B$11)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A17,Operacje[Miesiąc],kwiecień!$B$11)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A18,Operacje[Miesiąc],kwiecień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A19,Operacje[Miesiąc],kwiecień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A20,Operacje[Miesiąc],kwiecień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A21,Operacje[Miesiąc],kwiecień!$B$11)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="5">
+        <f>SUBTOTAL(9,C16:C21)</f>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A23,Operacje[Miesiąc],kwiecień!$B$11)</f>
+        <v>-372.26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A24,Operacje[Miesiąc],kwiecień!$B$11)</f>
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A25,Operacje[Miesiąc],kwiecień!$B$11)</f>
+        <v>-149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A26,Operacje[Miesiąc],kwiecień!$B$11)</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A27,Operacje[Miesiąc],kwiecień!$B$11)</f>
+        <v>-1057.9000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A28,Operacje[Miesiąc],kwiecień!$B$11)</f>
+        <v>-139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A29,Operacje[Miesiąc],kwiecień!$B$11)</f>
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A30,Operacje[Miesiąc],kwiecień!$B$11)</f>
+        <v>-82.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A31,Operacje[Miesiąc],kwiecień!$B$11)</f>
+        <v>-23.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32">
+        <f>SUBTOTAL(9,C23:C31)</f>
+        <v>-3973.1600000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33">
+        <f>SUBTOTAL(9,C14:C31)</f>
+        <v>726.83999999999969</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F56CBBA8-8653-44FC-BBAD-C0EDC7BCF232}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -6462,16 +10980,17 @@
       <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4">
-        <v>0</v>
+      <c r="C2" s="4" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>-91.389999999999986</v>
       </c>
       <c r="D2" s="4">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],styczeń_saldo[[#This Row],[Bank]],Operacje[Produkt],styczeń_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
-        <v>-175</v>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],maj_saldo[[#This Row],[Bank]],Operacje[Produkt],maj_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>-908.61</v>
       </c>
       <c r="E2" s="4">
-        <f>styczeń_saldo[[#This Row],[Saldo początkowe]]+styczeń_saldo[[#This Row],[Operacje]]</f>
-        <v>-175</v>
+        <f ca="1">maj_saldo[[#This Row],[Saldo początkowe]]+maj_saldo[[#This Row],[Operacje]]</f>
+        <v>-1000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -6481,16 +11000,17 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4">
-        <v>600</v>
+      <c r="C3" s="4" cm="1">
+        <f t="array" aca="1" ref="C3" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>5123.83</v>
       </c>
       <c r="D3" s="4">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],styczeń_saldo[[#This Row],[Bank]],Operacje[Produkt],styczeń_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
-        <v>1100</v>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],maj_saldo[[#This Row],[Bank]],Operacje[Produkt],maj_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>2328.61</v>
       </c>
       <c r="E3" s="4">
-        <f>styczeń_saldo[[#This Row],[Saldo początkowe]]+styczeń_saldo[[#This Row],[Operacje]]</f>
-        <v>1700</v>
+        <f ca="1">maj_saldo[[#This Row],[Saldo początkowe]]+maj_saldo[[#This Row],[Operacje]]</f>
+        <v>7452.4400000000005</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -6500,16 +11020,17 @@
       <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4">
-        <v>2000</v>
+      <c r="C4" s="4" cm="1">
+        <f t="array" aca="1" ref="C4" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1200</v>
       </c>
       <c r="D4" s="4">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],styczeń_saldo[[#This Row],[Bank]],Operacje[Produkt],styczeń_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
-        <v>-400</v>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],maj_saldo[[#This Row],[Bank]],Operacje[Produkt],maj_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
       </c>
       <c r="E4" s="4">
-        <f>styczeń_saldo[[#This Row],[Saldo początkowe]]+styczeń_saldo[[#This Row],[Operacje]]</f>
-        <v>1600</v>
+        <f ca="1">maj_saldo[[#This Row],[Saldo początkowe]]+maj_saldo[[#This Row],[Operacje]]</f>
+        <v>1200</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -6519,16 +11040,17 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4">
-        <v>100</v>
+      <c r="C5" s="4" cm="1">
+        <f t="array" aca="1" ref="C5" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>268.5</v>
       </c>
       <c r="D5" s="4">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],styczeń_saldo[[#This Row],[Bank]],Operacje[Produkt],styczeń_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
-        <v>-35</v>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],maj_saldo[[#This Row],[Bank]],Operacje[Produkt],maj_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>-50</v>
       </c>
       <c r="E5" s="4">
-        <f>styczeń_saldo[[#This Row],[Saldo początkowe]]+styczeń_saldo[[#This Row],[Operacje]]</f>
-        <v>65</v>
+        <f ca="1">maj_saldo[[#This Row],[Saldo początkowe]]+maj_saldo[[#This Row],[Operacje]]</f>
+        <v>218.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -6538,16 +11060,17 @@
       <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="4">
-        <v>10.5</v>
+      <c r="C6" s="4" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>336</v>
       </c>
       <c r="D6" s="4">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],styczeń_saldo[[#This Row],[Bank]],Operacje[Produkt],styczeń_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
-        <v>255.5</v>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],maj_saldo[[#This Row],[Bank]],Operacje[Produkt],maj_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
       </c>
       <c r="E6" s="4">
-        <f>styczeń_saldo[[#This Row],[Saldo początkowe]]+styczeń_saldo[[#This Row],[Operacje]]</f>
-        <v>266</v>
+        <f ca="1">maj_saldo[[#This Row],[Saldo początkowe]]+maj_saldo[[#This Row],[Operacje]]</f>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -6557,16 +11080,17 @@
       <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="4">
-        <v>200</v>
+      <c r="C7" s="4" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>225.51</v>
       </c>
       <c r="D7" s="4">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],styczeń_saldo[[#This Row],[Bank]],Operacje[Produkt],styczeń_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
-        <v>-50</v>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],maj_saldo[[#This Row],[Bank]],Operacje[Produkt],maj_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
       </c>
       <c r="E7" s="4">
-        <f>styczeń_saldo[[#This Row],[Saldo początkowe]]+styczeń_saldo[[#This Row],[Operacje]]</f>
-        <v>150</v>
+        <f ca="1">maj_saldo[[#This Row],[Saldo początkowe]]+maj_saldo[[#This Row],[Operacje]]</f>
+        <v>225.51</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -6576,16 +11100,17 @@
       <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="4">
-        <v>30</v>
+      <c r="C8" s="4" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>670.5</v>
       </c>
       <c r="D8" s="4">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],styczeń_saldo[[#This Row],[Bank]],Operacje[Produkt],styczeń_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
-        <v>150</v>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],maj_saldo[[#This Row],[Bank]],Operacje[Produkt],maj_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>-80</v>
       </c>
       <c r="E8" s="4">
-        <f>styczeń_saldo[[#This Row],[Saldo początkowe]]+styczeń_saldo[[#This Row],[Operacje]]</f>
-        <v>180</v>
+        <f ca="1">maj_saldo[[#This Row],[Saldo początkowe]]+maj_saldo[[#This Row],[Operacje]]</f>
+        <v>590.5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -6593,16 +11118,16 @@
         <v>38</v>
       </c>
       <c r="C9" s="4">
-        <f>SUBTOTAL(109,styczeń_saldo[Saldo początkowe])</f>
-        <v>2940.5</v>
+        <f ca="1">SUBTOTAL(109,maj_saldo[Saldo początkowe])</f>
+        <v>7732.95</v>
       </c>
       <c r="D9" s="4">
-        <f>SUBTOTAL(109,styczeń_saldo[Operacje])</f>
-        <v>845.5</v>
+        <f>SUBTOTAL(109,maj_saldo[Operacje])</f>
+        <v>1290</v>
       </c>
       <c r="E9" s="4">
-        <f>SUBTOTAL(109,styczeń_saldo[Saldo końcowe])</f>
-        <v>3786</v>
+        <f ca="1">SUBTOTAL(109,maj_saldo[Saldo końcowe])</f>
+        <v>9022.9500000000007</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -6610,11 +11135,11 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" t="str">
         <f>TEXT(DATE(2025,B11,1),"mmmm")</f>
-        <v>styczeń</v>
+        <v>maj</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -6636,7 +11161,7 @@
         <v>34</v>
       </c>
       <c r="C14" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A14,Operacje[Miesiąc],styczeń!$B$11)</f>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A14,Operacje[Miesiąc],maj!$B$11)</f>
         <v>0</v>
       </c>
     </row>
@@ -6658,7 +11183,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A16,Operacje[Miesiąc],styczeń!$B$11)</f>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A16,Operacje[Miesiąc],maj!$B$11)</f>
         <v>0</v>
       </c>
     </row>
@@ -6670,8 +11195,8 @@
         <v>12</v>
       </c>
       <c r="C17" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A17,Operacje[Miesiąc],styczeń!$B$11)</f>
-        <v>105.5</v>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A17,Operacje[Miesiąc],maj!$B$11)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6682,8 +11207,8 @@
         <v>12</v>
       </c>
       <c r="C18" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A18,Operacje[Miesiąc],styczeń!$B$11)</f>
-        <v>250</v>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A18,Operacje[Miesiąc],maj!$B$11)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6694,8 +11219,8 @@
         <v>12</v>
       </c>
       <c r="C19" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A19,Operacje[Miesiąc],styczeń!$B$11)</f>
-        <v>800</v>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A19,Operacje[Miesiąc],maj!$B$11)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6706,7 +11231,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A20,Operacje[Miesiąc],styczeń!$B$11)</f>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A20,Operacje[Miesiąc],maj!$B$11)</f>
         <v>0</v>
       </c>
     </row>
@@ -6718,7 +11243,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A21,Operacje[Miesiąc],styczeń!$B$11)</f>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A21,Operacje[Miesiąc],maj!$B$11)</f>
         <v>4500</v>
       </c>
     </row>
@@ -6729,7 +11254,7 @@
       </c>
       <c r="C22" s="5">
         <f>SUBTOTAL(9,C16:C21)</f>
-        <v>5655.5</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="23" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6740,8 +11265,8 @@
         <v>10</v>
       </c>
       <c r="C23" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A23,Operacje[Miesiąc],styczeń!$B$11)</f>
-        <v>-1715</v>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A23,Operacje[Miesiąc],maj!$B$11)</f>
+        <v>-1000</v>
       </c>
     </row>
     <row r="24" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6752,7 +11277,7 @@
         <v>10</v>
       </c>
       <c r="C24" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A24,Operacje[Miesiąc],styczeń!$B$11)</f>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A24,Operacje[Miesiąc],maj!$B$11)</f>
         <v>-2000</v>
       </c>
     </row>
@@ -6764,8 +11289,8 @@
         <v>10</v>
       </c>
       <c r="C25" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A25,Operacje[Miesiąc],styczeń!$B$11)</f>
-        <v>-80</v>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A25,Operacje[Miesiąc],maj!$B$11)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6776,8 +11301,8 @@
         <v>10</v>
       </c>
       <c r="C26" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A26,Operacje[Miesiąc],styczeń!$B$11)</f>
-        <v>-500</v>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A26,Operacje[Miesiąc],maj!$B$11)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6788,8 +11313,8 @@
         <v>10</v>
       </c>
       <c r="C27" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A27,Operacje[Miesiąc],styczeń!$B$11)</f>
-        <v>-85</v>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A27,Operacje[Miesiąc],maj!$B$11)</f>
+        <v>-80</v>
       </c>
     </row>
     <row r="28" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6800,8 +11325,8 @@
         <v>10</v>
       </c>
       <c r="C28" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A28,Operacje[Miesiąc],styczeń!$B$11)</f>
-        <v>-100</v>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A28,Operacje[Miesiąc],maj!$B$11)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6812,8 +11337,8 @@
         <v>10</v>
       </c>
       <c r="C29" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A29,Operacje[Miesiąc],styczeń!$B$11)</f>
-        <v>-150</v>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A29,Operacje[Miesiąc],maj!$B$11)</f>
+        <v>-50</v>
       </c>
     </row>
     <row r="30" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6824,7 +11349,7 @@
         <v>10</v>
       </c>
       <c r="C30" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A30,Operacje[Miesiąc],styczeń!$B$11)</f>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A30,Operacje[Miesiąc],maj!$B$11)</f>
         <v>-80</v>
       </c>
     </row>
@@ -6836,8 +11361,8 @@
         <v>10</v>
       </c>
       <c r="C31" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A31,Operacje[Miesiąc],styczeń!$B$11)</f>
-        <v>-100</v>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A31,Operacje[Miesiąc],maj!$B$11)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6846,7 +11371,7 @@
       </c>
       <c r="C32">
         <f>SUBTOTAL(9,C23:C31)</f>
-        <v>-4810</v>
+        <v>-3210</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -6855,7 +11380,7 @@
       </c>
       <c r="C33">
         <f>SUBTOTAL(9,C14:C31)</f>
-        <v>845.5</v>
+        <v>1290</v>
       </c>
     </row>
   </sheetData>
@@ -6867,12 +11392,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516B3101-C772-42D1-B4F3-499D76FC79D3}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE6988A7-FB8F-40D0-ABCA-72E49D37E810}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -6912,15 +11437,15 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f t="array" aca="1" ref="C2" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
-        <v>-175</v>
+        <v>-1000</v>
       </c>
       <c r="D2" s="4">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],styczeń_saldo2[[#This Row],[Bank]],Operacje[Produkt],styczeń_saldo2[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
-        <v>175</v>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],czerwiec_saldo[[#This Row],[Bank]],Operacje[Produkt],czerwiec_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>-300</v>
       </c>
       <c r="E2" s="4">
-        <f ca="1">styczeń_saldo2[[#This Row],[Saldo początkowe]]+styczeń_saldo2[[#This Row],[Operacje]]</f>
-        <v>0</v>
+        <f ca="1">czerwiec_saldo[[#This Row],[Saldo początkowe]]+czerwiec_saldo[[#This Row],[Operacje]]</f>
+        <v>-1300</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -6932,15 +11457,15 @@
       </c>
       <c r="C3" s="4" cm="1">
         <f t="array" aca="1" ref="C3" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
-        <v>1700</v>
+        <v>7452.4400000000005</v>
       </c>
       <c r="D3" s="4">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],styczeń_saldo2[[#This Row],[Bank]],Operacje[Produkt],styczeń_saldo2[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
-        <v>2039.5</v>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],czerwiec_saldo[[#This Row],[Bank]],Operacje[Produkt],czerwiec_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>1420</v>
       </c>
       <c r="E3" s="4">
-        <f ca="1">styczeń_saldo2[[#This Row],[Saldo początkowe]]+styczeń_saldo2[[#This Row],[Operacje]]</f>
-        <v>3739.5</v>
+        <f ca="1">czerwiec_saldo[[#This Row],[Saldo początkowe]]+czerwiec_saldo[[#This Row],[Operacje]]</f>
+        <v>8872.44</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -6952,14 +11477,14 @@
       </c>
       <c r="C4" s="4" cm="1">
         <f t="array" aca="1" ref="C4" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="D4" s="4">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],styczeń_saldo2[[#This Row],[Bank]],Operacje[Produkt],styczeń_saldo2[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
-        <v>-400</v>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],czerwiec_saldo[[#This Row],[Bank]],Operacje[Produkt],czerwiec_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
       </c>
       <c r="E4" s="4">
-        <f ca="1">styczeń_saldo2[[#This Row],[Saldo początkowe]]+styczeń_saldo2[[#This Row],[Operacje]]</f>
+        <f ca="1">czerwiec_saldo[[#This Row],[Saldo początkowe]]+czerwiec_saldo[[#This Row],[Operacje]]</f>
         <v>1200</v>
       </c>
     </row>
@@ -6972,15 +11497,15 @@
       </c>
       <c r="C5" s="4" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
-        <v>65</v>
+        <v>218.5</v>
       </c>
       <c r="D5" s="4">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],styczeń_saldo2[[#This Row],[Bank]],Operacje[Produkt],styczeń_saldo2[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
-        <v>35</v>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],czerwiec_saldo[[#This Row],[Bank]],Operacje[Produkt],czerwiec_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>250</v>
       </c>
       <c r="E5" s="4">
-        <f ca="1">styczeń_saldo2[[#This Row],[Saldo początkowe]]+styczeń_saldo2[[#This Row],[Operacje]]</f>
-        <v>100</v>
+        <f ca="1">czerwiec_saldo[[#This Row],[Saldo początkowe]]+czerwiec_saldo[[#This Row],[Operacje]]</f>
+        <v>468.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -6992,15 +11517,15 @@
       </c>
       <c r="C6" s="4" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
-        <v>266</v>
+        <v>336</v>
       </c>
       <c r="D6" s="4">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],styczeń_saldo2[[#This Row],[Bank]],Operacje[Produkt],styczeń_saldo2[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
-        <v>15</v>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],czerwiec_saldo[[#This Row],[Bank]],Operacje[Produkt],czerwiec_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
       </c>
       <c r="E6" s="4">
-        <f ca="1">styczeń_saldo2[[#This Row],[Saldo początkowe]]+styczeń_saldo2[[#This Row],[Operacje]]</f>
-        <v>281</v>
+        <f ca="1">czerwiec_saldo[[#This Row],[Saldo początkowe]]+czerwiec_saldo[[#This Row],[Operacje]]</f>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -7012,15 +11537,15 @@
       </c>
       <c r="C7" s="4" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
-        <v>150</v>
+        <v>225.51</v>
       </c>
       <c r="D7" s="4">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],styczeń_saldo2[[#This Row],[Bank]],Operacje[Produkt],styczeń_saldo2[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
-        <v>100</v>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],czerwiec_saldo[[#This Row],[Bank]],Operacje[Produkt],czerwiec_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
       </c>
       <c r="E7" s="4">
-        <f ca="1">styczeń_saldo2[[#This Row],[Saldo początkowe]]+styczeń_saldo2[[#This Row],[Operacje]]</f>
-        <v>250</v>
+        <f ca="1">czerwiec_saldo[[#This Row],[Saldo początkowe]]+czerwiec_saldo[[#This Row],[Operacje]]</f>
+        <v>225.51</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -7032,15 +11557,15 @@
       </c>
       <c r="C8" s="4" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
-        <v>180</v>
+        <v>590.5</v>
       </c>
       <c r="D8" s="4">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],styczeń_saldo2[[#This Row],[Bank]],Operacje[Produkt],styczeń_saldo2[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
-        <v>500</v>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],czerwiec_saldo[[#This Row],[Bank]],Operacje[Produkt],czerwiec_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>-200</v>
       </c>
       <c r="E8" s="4">
-        <f ca="1">styczeń_saldo2[[#This Row],[Saldo początkowe]]+styczeń_saldo2[[#This Row],[Operacje]]</f>
-        <v>680</v>
+        <f ca="1">czerwiec_saldo[[#This Row],[Saldo początkowe]]+czerwiec_saldo[[#This Row],[Operacje]]</f>
+        <v>390.5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -7048,16 +11573,16 @@
         <v>38</v>
       </c>
       <c r="C9" s="4">
-        <f ca="1">SUBTOTAL(109,styczeń_saldo2[Saldo początkowe])</f>
-        <v>3786</v>
+        <f ca="1">SUBTOTAL(109,czerwiec_saldo[Saldo początkowe])</f>
+        <v>9022.9500000000007</v>
       </c>
       <c r="D9" s="4">
-        <f>SUBTOTAL(109,styczeń_saldo2[Operacje])</f>
-        <v>2464.5</v>
+        <f>SUBTOTAL(109,czerwiec_saldo[Operacje])</f>
+        <v>1170</v>
       </c>
       <c r="E9" s="4">
-        <f ca="1">SUBTOTAL(109,styczeń_saldo2[Saldo końcowe])</f>
-        <v>6250.5</v>
+        <f ca="1">SUBTOTAL(109,czerwiec_saldo[Saldo końcowe])</f>
+        <v>10192.950000000001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -7065,11 +11590,11 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C11" t="str">
         <f>TEXT(DATE(2025,B11,1),"mmmm")</f>
-        <v>luty</v>
+        <v>czerwiec</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -7091,7 +11616,7 @@
         <v>34</v>
       </c>
       <c r="C14" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A14,Operacje[Miesiąc],luty!$B$11)</f>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A14,Operacje[Miesiąc],czerwiec!$B$11)</f>
         <v>0</v>
       </c>
     </row>
@@ -7113,7 +11638,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A16,Operacje[Miesiąc],luty!$B$11)</f>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A16,Operacje[Miesiąc],czerwiec!$B$11)</f>
         <v>0</v>
       </c>
     </row>
@@ -7125,8 +11650,8 @@
         <v>12</v>
       </c>
       <c r="C17" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A17,Operacje[Miesiąc],luty!$B$11)</f>
-        <v>115</v>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A17,Operacje[Miesiąc],czerwiec!$B$11)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7137,8 +11662,8 @@
         <v>12</v>
       </c>
       <c r="C18" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A18,Operacje[Miesiąc],luty!$B$11)</f>
-        <v>0</v>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A18,Operacje[Miesiąc],czerwiec!$B$11)</f>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7149,8 +11674,8 @@
         <v>12</v>
       </c>
       <c r="C19" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A19,Operacje[Miesiąc],luty!$B$11)</f>
-        <v>1950</v>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A19,Operacje[Miesiąc],czerwiec!$B$11)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7161,7 +11686,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A20,Operacje[Miesiąc],luty!$B$11)</f>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A20,Operacje[Miesiąc],czerwiec!$B$11)</f>
         <v>0</v>
       </c>
     </row>
@@ -7173,7 +11698,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A21,Operacje[Miesiąc],luty!$B$11)</f>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A21,Operacje[Miesiąc],czerwiec!$B$11)</f>
         <v>4500</v>
       </c>
     </row>
@@ -7184,7 +11709,7 @@
       </c>
       <c r="C22" s="5">
         <f>SUBTOTAL(9,C16:C21)</f>
-        <v>6565</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="23" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7195,8 +11720,8 @@
         <v>10</v>
       </c>
       <c r="C23" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A23,Operacje[Miesiąc],luty!$B$11)</f>
-        <v>-405.5</v>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A23,Operacje[Miesiąc],czerwiec!$B$11)</f>
+        <v>-1000</v>
       </c>
     </row>
     <row r="24" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7207,7 +11732,7 @@
         <v>10</v>
       </c>
       <c r="C24" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A24,Operacje[Miesiąc],luty!$B$11)</f>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A24,Operacje[Miesiąc],czerwiec!$B$11)</f>
         <v>-2000</v>
       </c>
     </row>
@@ -7219,8 +11744,8 @@
         <v>10</v>
       </c>
       <c r="C25" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A25,Operacje[Miesiąc],luty!$B$11)</f>
-        <v>0</v>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A25,Operacje[Miesiąc],czerwiec!$B$11)</f>
+        <v>-300</v>
       </c>
     </row>
     <row r="26" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7231,8 +11756,8 @@
         <v>10</v>
       </c>
       <c r="C26" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A26,Operacje[Miesiąc],luty!$B$11)</f>
-        <v>-765</v>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A26,Operacje[Miesiąc],czerwiec!$B$11)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7243,8 +11768,8 @@
         <v>10</v>
       </c>
       <c r="C27" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A27,Operacje[Miesiąc],luty!$B$11)</f>
-        <v>-350</v>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A27,Operacje[Miesiąc],czerwiec!$B$11)</f>
+        <v>-200</v>
       </c>
     </row>
     <row r="28" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7255,8 +11780,8 @@
         <v>10</v>
       </c>
       <c r="C28" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A28,Operacje[Miesiąc],luty!$B$11)</f>
-        <v>-100</v>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A28,Operacje[Miesiąc],czerwiec!$B$11)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7267,8 +11792,8 @@
         <v>10</v>
       </c>
       <c r="C29" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A29,Operacje[Miesiąc],luty!$B$11)</f>
-        <v>-150</v>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A29,Operacje[Miesiąc],czerwiec!$B$11)</f>
+        <v>-50</v>
       </c>
     </row>
     <row r="30" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7279,7 +11804,7 @@
         <v>10</v>
       </c>
       <c r="C30" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A30,Operacje[Miesiąc],luty!$B$11)</f>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A30,Operacje[Miesiąc],czerwiec!$B$11)</f>
         <v>-80</v>
       </c>
     </row>
@@ -7291,8 +11816,8 @@
         <v>10</v>
       </c>
       <c r="C31" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A31,Operacje[Miesiąc],luty!$B$11)</f>
-        <v>-250</v>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A31,Operacje[Miesiąc],czerwiec!$B$11)</f>
+        <v>-100</v>
       </c>
     </row>
     <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7301,7 +11826,7 @@
       </c>
       <c r="C32">
         <f>SUBTOTAL(9,C23:C31)</f>
-        <v>-4100.5</v>
+        <v>-3730</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -7310,7 +11835,462 @@
       </c>
       <c r="C33">
         <f>SUBTOTAL(9,C14:C31)</f>
-        <v>2464.5</v>
+        <v>1170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4822675A-A8F9-49E3-8D2F-9C85153E1690}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>-1300</v>
+      </c>
+      <c r="D2" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],lipiec_saldo[[#This Row],[Bank]],Operacje[Produkt],lipiec_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>1165</v>
+      </c>
+      <c r="E2" s="4">
+        <f ca="1">lipiec_saldo[[#This Row],[Saldo początkowe]]+lipiec_saldo[[#This Row],[Operacje]]</f>
+        <v>-135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" cm="1">
+        <f t="array" aca="1" ref="C3" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>8872.44</v>
+      </c>
+      <c r="D3" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],lipiec_saldo[[#This Row],[Bank]],Operacje[Produkt],lipiec_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>1010</v>
+      </c>
+      <c r="E3" s="4">
+        <f ca="1">lipiec_saldo[[#This Row],[Saldo początkowe]]+lipiec_saldo[[#This Row],[Operacje]]</f>
+        <v>9882.44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" cm="1">
+        <f t="array" aca="1" ref="C4" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1200</v>
+      </c>
+      <c r="D4" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],lipiec_saldo[[#This Row],[Bank]],Operacje[Produkt],lipiec_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>-180</v>
+      </c>
+      <c r="E4" s="4">
+        <f ca="1">lipiec_saldo[[#This Row],[Saldo początkowe]]+lipiec_saldo[[#This Row],[Operacje]]</f>
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" cm="1">
+        <f t="array" aca="1" ref="C5" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>468.5</v>
+      </c>
+      <c r="D5" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],lipiec_saldo[[#This Row],[Bank]],Operacje[Produkt],lipiec_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>-100</v>
+      </c>
+      <c r="E5" s="4">
+        <f ca="1">lipiec_saldo[[#This Row],[Saldo początkowe]]+lipiec_saldo[[#This Row],[Operacje]]</f>
+        <v>368.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>336</v>
+      </c>
+      <c r="D6" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],lipiec_saldo[[#This Row],[Bank]],Operacje[Produkt],lipiec_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>1050</v>
+      </c>
+      <c r="E6" s="4">
+        <f ca="1">lipiec_saldo[[#This Row],[Saldo początkowe]]+lipiec_saldo[[#This Row],[Operacje]]</f>
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>225.51</v>
+      </c>
+      <c r="D7" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],lipiec_saldo[[#This Row],[Bank]],Operacje[Produkt],lipiec_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>-30</v>
+      </c>
+      <c r="E7" s="4">
+        <f ca="1">lipiec_saldo[[#This Row],[Saldo początkowe]]+lipiec_saldo[[#This Row],[Operacje]]</f>
+        <v>195.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>390.5</v>
+      </c>
+      <c r="D8" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],lipiec_saldo[[#This Row],[Bank]],Operacje[Produkt],lipiec_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <f ca="1">lipiec_saldo[[#This Row],[Saldo początkowe]]+lipiec_saldo[[#This Row],[Operacje]]</f>
+        <v>390.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="4">
+        <f ca="1">SUBTOTAL(109,lipiec_saldo[Saldo początkowe])</f>
+        <v>10192.950000000001</v>
+      </c>
+      <c r="D9" s="4">
+        <f>SUBTOTAL(109,lipiec_saldo[Operacje])</f>
+        <v>2915</v>
+      </c>
+      <c r="E9" s="4">
+        <f ca="1">SUBTOTAL(109,lipiec_saldo[Saldo końcowe])</f>
+        <v>13107.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" t="str">
+        <f>TEXT(DATE(2025,B11,1),"mmmm")</f>
+        <v>lipiec</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A14,Operacje[Miesiąc],lipiec!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="5">
+        <f>SUBTOTAL(9,C14:C14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A16,Operacje[Miesiąc],lipiec!$B$11)</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A17,Operacje[Miesiąc],lipiec!$B$11)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A18,Operacje[Miesiąc],lipiec!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A19,Operacje[Miesiąc],lipiec!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A20,Operacje[Miesiąc],lipiec!$B$11)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A21,Operacje[Miesiąc],lipiec!$B$11)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="5">
+        <f>SUBTOTAL(9,C16:C21)</f>
+        <v>5920</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A23,Operacje[Miesiąc],lipiec!$B$11)</f>
+        <v>-165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A24,Operacje[Miesiąc],lipiec!$B$11)</f>
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A25,Operacje[Miesiąc],lipiec!$B$11)</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A26,Operacje[Miesiąc],lipiec!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A27,Operacje[Miesiąc],lipiec!$B$11)</f>
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A28,Operacje[Miesiąc],lipiec!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A29,Operacje[Miesiąc],lipiec!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A30,Operacje[Miesiąc],lipiec!$B$11)</f>
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A31,Operacje[Miesiąc],lipiec!$B$11)</f>
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32">
+        <f>SUBTOTAL(9,C23:C31)</f>
+        <v>-3005</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33">
+        <f>SUBTOTAL(9,C14:C31)</f>
+        <v>2915</v>
       </c>
     </row>
   </sheetData>

--- a/Finanse.xlsx
+++ b/Finanse.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-A121-08.CAMPUS.005\Desktop\Arkusz-kalkulacyjny-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D38495-E411-4F16-85F5-CB20DFA4606A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC523516-A583-43C9-A85B-F006775A7F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="13" xr2:uid="{19EE711A-3283-4873-9107-9C9869A047C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{19EE711A-3283-4873-9107-9C9869A047C7}"/>
   </bookViews>
   <sheets>
     <sheet name="operacje" sheetId="1" r:id="rId1"/>
     <sheet name="kategorie" sheetId="2" r:id="rId2"/>
-    <sheet name="styczeń" sheetId="3" r:id="rId3"/>
-    <sheet name="luty" sheetId="6" r:id="rId4"/>
-    <sheet name="marzec" sheetId="7" r:id="rId5"/>
-    <sheet name="kwiecień" sheetId="8" r:id="rId6"/>
-    <sheet name="maj" sheetId="9" r:id="rId7"/>
-    <sheet name="czerwiec" sheetId="10" r:id="rId8"/>
-    <sheet name="lipiec" sheetId="11" r:id="rId9"/>
-    <sheet name="sierpień" sheetId="12" r:id="rId10"/>
-    <sheet name="wrzesień" sheetId="13" r:id="rId11"/>
-    <sheet name="październik" sheetId="14" r:id="rId12"/>
-    <sheet name="listopad" sheetId="15" r:id="rId13"/>
-    <sheet name="grudzień" sheetId="16" r:id="rId14"/>
+    <sheet name="bilans" sheetId="17" r:id="rId3"/>
+    <sheet name="styczeń" sheetId="3" r:id="rId4"/>
+    <sheet name="luty" sheetId="6" r:id="rId5"/>
+    <sheet name="marzec" sheetId="7" r:id="rId6"/>
+    <sheet name="kwiecień" sheetId="8" r:id="rId7"/>
+    <sheet name="maj" sheetId="9" r:id="rId8"/>
+    <sheet name="czerwiec" sheetId="10" r:id="rId9"/>
+    <sheet name="lipiec" sheetId="11" r:id="rId10"/>
+    <sheet name="sierpień" sheetId="12" r:id="rId11"/>
+    <sheet name="wrzesień" sheetId="13" r:id="rId12"/>
+    <sheet name="październik" sheetId="14" r:id="rId13"/>
+    <sheet name="listopad" sheetId="15" r:id="rId14"/>
+    <sheet name="grudzień" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="67">
   <si>
     <t>Kwota</t>
   </si>
@@ -234,6 +235,42 @@
   </si>
   <si>
     <t>grudzień</t>
+  </si>
+  <si>
+    <t>Styczeń</t>
+  </si>
+  <si>
+    <t>Luty</t>
+  </si>
+  <si>
+    <t>Marzec</t>
+  </si>
+  <si>
+    <t>Kwiecień</t>
+  </si>
+  <si>
+    <t>Maj</t>
+  </si>
+  <si>
+    <t>Czerwiec</t>
+  </si>
+  <si>
+    <t>Lipiec</t>
+  </si>
+  <si>
+    <t>Sierpień</t>
+  </si>
+  <si>
+    <t>Wrzesień</t>
+  </si>
+  <si>
+    <t>Październik</t>
+  </si>
+  <si>
+    <t>Listopad</t>
+  </si>
+  <si>
+    <t>Grudzień</t>
   </si>
 </sst>
 </file>
@@ -731,6 +768,30 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{93882294-EF08-4C00-BC9D-93606202DFCE}" name="czerwiec_saldo" displayName="czerwiec_saldo" ref="A1:E9" totalsRowCount="1">
+  <autoFilter ref="A1:E8" xr:uid="{BC108405-F5A8-4558-8658-63814512375D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
+    <sortCondition ref="A2:A8"/>
+    <sortCondition ref="B2:B8"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{B3FF2B8E-AF2E-4D9A-BFFD-64E2086DE258}" name="Bank" totalsRowLabel="Suma"/>
+    <tableColumn id="2" xr3:uid="{25E3F44D-2BD8-4965-9CBC-801490BD8429}" name="Produkt"/>
+    <tableColumn id="3" xr3:uid="{AB961AE9-02C8-4277-84B4-60C16B26ED0F}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="44">
+      <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{C2F0CAB7-3E28-4413-AF08-2AA1E36AF6E3}" name="Operacje" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="42">
+      <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],czerwiec_saldo[[#This Row],[Bank]],Operacje[Produkt],czerwiec_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{CC76026D-A5E3-4D2F-B959-C422014799FF}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="40">
+      <calculatedColumnFormula>czerwiec_saldo[[#This Row],[Saldo początkowe]]+czerwiec_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{355952D6-D3AE-4218-AE19-2652FDBC4D63}" name="lipiec_saldo" displayName="lipiec_saldo" ref="A1:E9" totalsRowCount="1">
   <autoFilter ref="A1:E8" xr:uid="{BC108405-F5A8-4558-8658-63814512375D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
@@ -740,13 +801,13 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{3E7B6A8D-D662-4BFC-9C63-A8D27A7C9CC9}" name="Bank" totalsRowLabel="Suma"/>
     <tableColumn id="2" xr3:uid="{B89601A0-6A8D-4A85-A28A-ABCC667DC25B}" name="Produkt"/>
-    <tableColumn id="3" xr3:uid="{BD4F6F84-6850-4EC5-B07C-7A564FE65CAC}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="35">
+    <tableColumn id="3" xr3:uid="{BD4F6F84-6850-4EC5-B07C-7A564FE65CAC}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="38">
       <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A95CB9A5-0B0C-4B17-8710-08FB53B93F07}" name="Operacje" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="33">
+    <tableColumn id="4" xr3:uid="{A95CB9A5-0B0C-4B17-8710-08FB53B93F07}" name="Operacje" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="36">
       <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],lipiec_saldo[[#This Row],[Bank]],Operacje[Produkt],lipiec_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{425DF2C6-4FF6-4388-9091-179D3AE81234}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="31">
+    <tableColumn id="5" xr3:uid="{425DF2C6-4FF6-4388-9091-179D3AE81234}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="34">
       <calculatedColumnFormula>lipiec_saldo[[#This Row],[Saldo początkowe]]+lipiec_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -754,7 +815,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{0D795B29-ECC6-4BB5-8891-1350B0F24837}" name="sierpień_saldo" displayName="sierpień_saldo" ref="A1:E9" totalsRowCount="1">
   <autoFilter ref="A1:E8" xr:uid="{BC108405-F5A8-4558-8658-63814512375D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
@@ -764,13 +825,13 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5DB5201B-3E8D-4A6B-BDCA-17E633B8A0AC}" name="Bank" totalsRowLabel="Suma"/>
     <tableColumn id="2" xr3:uid="{03042651-EB78-4735-B338-F0B5BA056236}" name="Produkt"/>
-    <tableColumn id="3" xr3:uid="{A4521513-3046-4559-B9F8-B99F34FA791C}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="29">
+    <tableColumn id="3" xr3:uid="{A4521513-3046-4559-B9F8-B99F34FA791C}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="32">
       <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E7552EB9-6228-4E6E-8369-141EB1963330}" name="Operacje" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="27">
+    <tableColumn id="4" xr3:uid="{E7552EB9-6228-4E6E-8369-141EB1963330}" name="Operacje" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="30">
       <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],sierpień_saldo[[#This Row],[Bank]],Operacje[Produkt],sierpień_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{87EA4A1C-C080-4DA8-A268-1218FA864F9D}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="25">
+    <tableColumn id="5" xr3:uid="{87EA4A1C-C080-4DA8-A268-1218FA864F9D}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="28">
       <calculatedColumnFormula>sierpień_saldo[[#This Row],[Saldo początkowe]]+sierpień_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -778,7 +839,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{4C5DF59B-8412-4C4F-ABA2-8612839CF7DA}" name="wrzesień_saldo" displayName="wrzesień_saldo" ref="A1:E9" totalsRowCount="1">
   <autoFilter ref="A1:E8" xr:uid="{BC108405-F5A8-4558-8658-63814512375D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
@@ -788,13 +849,13 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{41953830-E4A0-4331-9A4A-853940427EEC}" name="Bank" totalsRowLabel="Suma"/>
     <tableColumn id="2" xr3:uid="{599FA979-63BA-4A1F-B837-999750C5ABE3}" name="Produkt"/>
-    <tableColumn id="3" xr3:uid="{A6395F16-48E9-4D9A-91FD-A08B6CBC8AF9}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="23">
+    <tableColumn id="3" xr3:uid="{A6395F16-48E9-4D9A-91FD-A08B6CBC8AF9}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="26">
       <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{0C509825-7E28-4C19-81DF-BFCC04D5CD86}" name="Operacje" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="21">
+    <tableColumn id="4" xr3:uid="{0C509825-7E28-4C19-81DF-BFCC04D5CD86}" name="Operacje" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="24">
       <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],wrzesień_saldo[[#This Row],[Bank]],Operacje[Produkt],wrzesień_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{103810C1-B9C7-443D-B2FE-FF7C53B037DA}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="19">
+    <tableColumn id="5" xr3:uid="{103810C1-B9C7-443D-B2FE-FF7C53B037DA}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="22">
       <calculatedColumnFormula>wrzesień_saldo[[#This Row],[Saldo początkowe]]+wrzesień_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -802,7 +863,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{11FCC2F4-6A3F-45AB-83B7-53027978D045}" name="październik_saldo" displayName="październik_saldo" ref="A1:E9" totalsRowCount="1">
   <autoFilter ref="A1:E8" xr:uid="{BC108405-F5A8-4558-8658-63814512375D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
@@ -812,13 +873,13 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{184860FA-AC5F-4246-895E-3D7E29DD2732}" name="Bank" totalsRowLabel="Suma"/>
     <tableColumn id="2" xr3:uid="{2A203464-0A0C-474D-A7F3-E6F40FAD22D4}" name="Produkt"/>
-    <tableColumn id="3" xr3:uid="{E07B8B4C-F974-4701-993A-2F7725F51576}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="17">
+    <tableColumn id="3" xr3:uid="{E07B8B4C-F974-4701-993A-2F7725F51576}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="20">
       <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C2AC896C-4C30-43C2-AD86-223A879219A3}" name="Operacje" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="15">
+    <tableColumn id="4" xr3:uid="{C2AC896C-4C30-43C2-AD86-223A879219A3}" name="Operacje" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="18">
       <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],październik_saldo[[#This Row],[Bank]],Operacje[Produkt],październik_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D308DC67-D499-4C24-A38D-664857DA7868}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="13">
+    <tableColumn id="5" xr3:uid="{D308DC67-D499-4C24-A38D-664857DA7868}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="16">
       <calculatedColumnFormula>październik_saldo[[#This Row],[Saldo początkowe]]+październik_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -826,7 +887,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{84AC0BB3-7F86-45C9-8018-CE695340ED55}" name="listopad_saldo" displayName="listopad_saldo" ref="A1:E9" totalsRowCount="1">
   <autoFilter ref="A1:E8" xr:uid="{BC108405-F5A8-4558-8658-63814512375D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
@@ -836,13 +897,13 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{506F667E-0081-4765-BA04-8E7B25576640}" name="Bank" totalsRowLabel="Suma"/>
     <tableColumn id="2" xr3:uid="{EBAFCBEB-BF63-4949-B371-00343AD2CDB9}" name="Produkt"/>
-    <tableColumn id="3" xr3:uid="{D2819467-7F23-457D-B7A9-3DA158F30368}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="11">
+    <tableColumn id="3" xr3:uid="{D2819467-7F23-457D-B7A9-3DA158F30368}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="14">
       <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{DD8250EA-F9BD-4881-BEFD-484CF89C827A}" name="Operacje" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="9">
+    <tableColumn id="4" xr3:uid="{DD8250EA-F9BD-4881-BEFD-484CF89C827A}" name="Operacje" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="12">
       <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],listopad_saldo[[#This Row],[Bank]],Operacje[Produkt],listopad_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{65162FAC-88C6-46B5-AB07-9AEE43F1D90C}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="7">
+    <tableColumn id="5" xr3:uid="{65162FAC-88C6-46B5-AB07-9AEE43F1D90C}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="10">
       <calculatedColumnFormula>listopad_saldo[[#This Row],[Saldo początkowe]]+listopad_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -850,7 +911,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{3201515B-D4F6-46C7-907D-9EB86B079E5D}" name="grudzień_saldo" displayName="grudzień_saldo" ref="A1:E9" totalsRowCount="1">
   <autoFilter ref="A1:E8" xr:uid="{BC108405-F5A8-4558-8658-63814512375D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
@@ -860,13 +921,13 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{355C4AB4-802F-43E1-9DC4-8867083FAB2F}" name="Bank" totalsRowLabel="Suma"/>
     <tableColumn id="2" xr3:uid="{60929A0F-DE72-436B-85EA-03F4ED78D282}" name="Produkt"/>
-    <tableColumn id="3" xr3:uid="{32122A68-9D01-48CA-8897-71BF846FD0A4}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="5">
+    <tableColumn id="3" xr3:uid="{32122A68-9D01-48CA-8897-71BF846FD0A4}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="8">
       <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2FAEB8DF-97A0-440E-BF10-123BDDDD93B2}" name="Operacje" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="3">
+    <tableColumn id="4" xr3:uid="{2FAEB8DF-97A0-440E-BF10-123BDDDD93B2}" name="Operacje" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="6">
       <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],grudzień_saldo[[#This Row],[Bank]],Operacje[Produkt],grudzień_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{59392E25-3430-4930-BEE1-6C73EC4858E4}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="1">
+    <tableColumn id="5" xr3:uid="{59392E25-3430-4930-BEE1-6C73EC4858E4}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="4">
       <calculatedColumnFormula>grudzień_saldo[[#This Row],[Saldo początkowe]]+grudzień_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -900,6 +961,53 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{7C61FD0F-BFEE-4269-9195-F1B923E860C2}" name="bilans" displayName="bilans" ref="A1:N8" totalsRowShown="0" headerRowCellStyle="Normalny" dataCellStyle="Normalny">
+  <autoFilter ref="A1:N8" xr:uid="{7C61FD0F-BFEE-4269-9195-F1B923E860C2}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{BAD11550-0049-4B63-8885-23F5176E5A06}" name="Bank" dataCellStyle="Normalny"/>
+    <tableColumn id="2" xr3:uid="{F5B8CFCF-E272-461F-8835-D17F2590FC59}" name="Produkt" dataCellStyle="Normalny"/>
+    <tableColumn id="3" xr3:uid="{A0655971-C9F7-4FEB-BA60-39C7B6DD3AAE}" name="Styczeń" dataCellStyle="Normalny">
+      <calculatedColumnFormula array="1">INDIRECT(bilans[[#Headers],[Styczeń]]&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{3FDDCD51-E909-4C6D-AD78-9F38115C4DD1}" name="Luty" dataCellStyle="Normalny">
+      <calculatedColumnFormula array="1">INDIRECT(bilans[[#Headers],[Luty]]&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{EA9C5FB8-80A7-489D-840C-772BF6E117F4}" name="Marzec" dataCellStyle="Normalny">
+      <calculatedColumnFormula array="1">INDIRECT(bilans[[#Headers],[Marzec]]&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{F4752AFE-CA13-419F-BFF2-FE4D44900E71}" name="Kwiecień" dataCellStyle="Normalny">
+      <calculatedColumnFormula array="1">INDIRECT(bilans[[#Headers],[Kwiecień]]&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{60CE3DB7-7270-4FEF-81EA-4B814F3AE8D1}" name="Maj" dataCellStyle="Normalny">
+      <calculatedColumnFormula array="1">INDIRECT(bilans[[#Headers],[Maj]]&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{12E800BD-17EB-4226-A3E6-304A11715294}" name="Czerwiec" dataCellStyle="Normalny">
+      <calculatedColumnFormula array="1">INDIRECT(bilans[[#Headers],[Czerwiec]]&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{08B63490-2E8A-4D1F-8962-698C2C10E08B}" name="Lipiec" dataCellStyle="Normalny">
+      <calculatedColumnFormula array="1">INDIRECT(bilans[[#Headers],[Lipiec]]&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{E28A15CA-505D-42D3-8A83-357FBD6715FA}" name="Sierpień" dataCellStyle="Normalny">
+      <calculatedColumnFormula array="1">INDIRECT(bilans[[#Headers],[Sierpień]]&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{775220C6-EE99-4ED9-9FD6-17B34687F765}" name="Wrzesień" dataCellStyle="Normalny">
+      <calculatedColumnFormula array="1">INDIRECT(bilans[[#Headers],[Wrzesień]]&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{9089D993-10A5-481B-B387-3E3A4A7E92A5}" name="Październik" dataCellStyle="Normalny">
+      <calculatedColumnFormula array="1">INDIRECT(bilans[[#Headers],[Październik]]&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{C31EC1B2-B611-4A07-870F-9F569ADDFE1C}" name="Listopad" dataCellStyle="Normalny">
+      <calculatedColumnFormula array="1">INDIRECT(bilans[[#Headers],[Listopad]]&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{CF1E8269-F584-497C-8A48-8A1BAD77EFF8}" name="Grudzień" dataCellStyle="Normalny">
+      <calculatedColumnFormula array="1">INDIRECT(bilans[[#Headers],[Grudzień]]&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BC108405-F5A8-4558-8658-63814512375D}" name="styczeń_saldo" displayName="styczeń_saldo" ref="A1:E9" totalsRowCount="1">
   <autoFilter ref="A1:E8" xr:uid="{BC108405-F5A8-4558-8658-63814512375D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
@@ -921,7 +1029,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D787F17B-C8A7-4517-93AB-478A7D2D2691}" name="luty_saldo" displayName="luty_saldo" ref="A1:E9" totalsRowCount="1">
   <autoFilter ref="A1:E8" xr:uid="{BC108405-F5A8-4558-8658-63814512375D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
@@ -931,13 +1039,13 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{CC14FA96-13DF-44AE-870E-477E801F35A5}" name="Bank" totalsRowLabel="Suma"/>
     <tableColumn id="2" xr3:uid="{FC93A666-EED2-4E44-9DE1-4F572D4CD117}" name="Produkt"/>
-    <tableColumn id="3" xr3:uid="{402CE5E0-22A5-459F-98A7-1030DD2C059B}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="57">
+    <tableColumn id="3" xr3:uid="{402CE5E0-22A5-459F-98A7-1030DD2C059B}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="2">
       <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E633EEE1-DF88-44A0-9D23-AF634F1B159B}" name="Operacje" totalsRowFunction="sum" dataDxfId="65" totalsRowDxfId="56">
+    <tableColumn id="4" xr3:uid="{E633EEE1-DF88-44A0-9D23-AF634F1B159B}" name="Operacje" totalsRowFunction="sum" dataDxfId="65" totalsRowDxfId="1">
       <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],luty_saldo[[#This Row],[Bank]],Operacje[Produkt],luty_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D1CAE2DA-8429-4E27-8687-10BD31AE92BE}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="64" totalsRowDxfId="55">
+    <tableColumn id="5" xr3:uid="{D1CAE2DA-8429-4E27-8687-10BD31AE92BE}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="64" totalsRowDxfId="0">
       <calculatedColumnFormula>luty_saldo[[#This Row],[Saldo początkowe]]+luty_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -945,7 +1053,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9BE39FDF-B98F-4E96-AD19-504162CE28F8}" name="marzec_saldo" displayName="marzec_saldo" ref="A1:E9" totalsRowCount="1">
   <autoFilter ref="A1:E8" xr:uid="{BC108405-F5A8-4558-8658-63814512375D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
@@ -969,7 +1077,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{96602A3B-931E-40F1-9736-8311608A9C4B}" name="kwiecień_saldo" displayName="kwiecień_saldo" ref="A1:E9" totalsRowCount="1">
   <autoFilter ref="A1:E8" xr:uid="{BC108405-F5A8-4558-8658-63814512375D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
@@ -979,13 +1087,13 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DCBEBA71-EAAC-4213-A980-6FA0FC4CC6DA}" name="Bank" totalsRowLabel="Suma"/>
     <tableColumn id="2" xr3:uid="{757B59AC-2B85-4F9B-900B-2F9FE36E685D}" name="Produkt"/>
-    <tableColumn id="3" xr3:uid="{DC2AB836-57E2-4D97-8040-CBA5F7ABE0C0}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="53">
+    <tableColumn id="3" xr3:uid="{DC2AB836-57E2-4D97-8040-CBA5F7ABE0C0}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="56">
       <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{DB4462D6-C965-45FC-B837-A2164EFD3B6B}" name="Operacje" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="51">
+    <tableColumn id="4" xr3:uid="{DB4462D6-C965-45FC-B837-A2164EFD3B6B}" name="Operacje" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="54">
       <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],kwiecień_saldo[[#This Row],[Bank]],Operacje[Produkt],kwiecień_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F49023EB-0981-433A-AE47-BD63A0F5F8DA}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="49">
+    <tableColumn id="5" xr3:uid="{F49023EB-0981-433A-AE47-BD63A0F5F8DA}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="52">
       <calculatedColumnFormula>kwiecień_saldo[[#This Row],[Saldo początkowe]]+kwiecień_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -993,7 +1101,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{5993384A-E5A1-4DA2-98F2-3F6C67A67B5B}" name="maj_saldo" displayName="maj_saldo" ref="A1:E9" totalsRowCount="1">
   <autoFilter ref="A1:E8" xr:uid="{BC108405-F5A8-4558-8658-63814512375D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
@@ -1003,38 +1111,14 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{11F5C0F9-42E0-4930-9A72-9382A8486330}" name="Bank" totalsRowLabel="Suma"/>
     <tableColumn id="2" xr3:uid="{4C99FE9D-6411-4905-AF1B-89BC09B5F366}" name="Produkt"/>
-    <tableColumn id="3" xr3:uid="{43F50878-52CD-4DF5-A53D-140D0D6C7ED2}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="44">
+    <tableColumn id="3" xr3:uid="{43F50878-52CD-4DF5-A53D-140D0D6C7ED2}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="47">
       <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E666B0A2-6251-4951-A91A-BCECDC102225}" name="Operacje" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="43">
+    <tableColumn id="4" xr3:uid="{E666B0A2-6251-4951-A91A-BCECDC102225}" name="Operacje" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="46">
       <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],maj_saldo[[#This Row],[Bank]],Operacje[Produkt],maj_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{40BD0F46-4DB9-4924-A658-EB65580FCF7B}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="42">
+    <tableColumn id="5" xr3:uid="{40BD0F46-4DB9-4924-A658-EB65580FCF7B}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="45">
       <calculatedColumnFormula>maj_saldo[[#This Row],[Saldo początkowe]]+maj_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{93882294-EF08-4C00-BC9D-93606202DFCE}" name="czerwiec_saldo" displayName="czerwiec_saldo" ref="A1:E9" totalsRowCount="1">
-  <autoFilter ref="A1:E8" xr:uid="{BC108405-F5A8-4558-8658-63814512375D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
-    <sortCondition ref="A2:A8"/>
-    <sortCondition ref="B2:B8"/>
-  </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B3FF2B8E-AF2E-4D9A-BFFD-64E2086DE258}" name="Bank" totalsRowLabel="Suma"/>
-    <tableColumn id="2" xr3:uid="{25E3F44D-2BD8-4965-9CBC-801490BD8429}" name="Produkt"/>
-    <tableColumn id="3" xr3:uid="{AB961AE9-02C8-4277-84B4-60C16B26ED0F}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="41">
-      <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{C2F0CAB7-3E28-4413-AF08-2AA1E36AF6E3}" name="Operacje" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="39">
-      <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],czerwiec_saldo[[#This Row],[Bank]],Operacje[Produkt],czerwiec_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{CC76026D-A5E3-4D2F-B959-C422014799FF}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="37">
-      <calculatedColumnFormula>czerwiec_saldo[[#This Row],[Saldo początkowe]]+czerwiec_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1340,7 +1424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2E07F4-7261-4A7F-9183-17B238414C64}">
   <dimension ref="A1:J207"/>
   <sheetViews>
-    <sheetView topLeftCell="A138" workbookViewId="0">
+    <sheetView topLeftCell="A87" workbookViewId="0">
       <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
@@ -6566,6 +6650,461 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4822675A-A8F9-49E3-8D2F-9C85153E1690}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>-1300</v>
+      </c>
+      <c r="D2" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],lipiec_saldo[[#This Row],[Bank]],Operacje[Produkt],lipiec_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>1165</v>
+      </c>
+      <c r="E2" s="4">
+        <f ca="1">lipiec_saldo[[#This Row],[Saldo początkowe]]+lipiec_saldo[[#This Row],[Operacje]]</f>
+        <v>-135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" cm="1">
+        <f t="array" aca="1" ref="C3" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>8872.44</v>
+      </c>
+      <c r="D3" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],lipiec_saldo[[#This Row],[Bank]],Operacje[Produkt],lipiec_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>1010</v>
+      </c>
+      <c r="E3" s="4">
+        <f ca="1">lipiec_saldo[[#This Row],[Saldo początkowe]]+lipiec_saldo[[#This Row],[Operacje]]</f>
+        <v>9882.44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" cm="1">
+        <f t="array" aca="1" ref="C4" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1200</v>
+      </c>
+      <c r="D4" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],lipiec_saldo[[#This Row],[Bank]],Operacje[Produkt],lipiec_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>-180</v>
+      </c>
+      <c r="E4" s="4">
+        <f ca="1">lipiec_saldo[[#This Row],[Saldo początkowe]]+lipiec_saldo[[#This Row],[Operacje]]</f>
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" cm="1">
+        <f t="array" aca="1" ref="C5" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>468.5</v>
+      </c>
+      <c r="D5" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],lipiec_saldo[[#This Row],[Bank]],Operacje[Produkt],lipiec_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>-100</v>
+      </c>
+      <c r="E5" s="4">
+        <f ca="1">lipiec_saldo[[#This Row],[Saldo początkowe]]+lipiec_saldo[[#This Row],[Operacje]]</f>
+        <v>368.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>336</v>
+      </c>
+      <c r="D6" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],lipiec_saldo[[#This Row],[Bank]],Operacje[Produkt],lipiec_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>1050</v>
+      </c>
+      <c r="E6" s="4">
+        <f ca="1">lipiec_saldo[[#This Row],[Saldo początkowe]]+lipiec_saldo[[#This Row],[Operacje]]</f>
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>225.51</v>
+      </c>
+      <c r="D7" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],lipiec_saldo[[#This Row],[Bank]],Operacje[Produkt],lipiec_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>-30</v>
+      </c>
+      <c r="E7" s="4">
+        <f ca="1">lipiec_saldo[[#This Row],[Saldo początkowe]]+lipiec_saldo[[#This Row],[Operacje]]</f>
+        <v>195.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>390.5</v>
+      </c>
+      <c r="D8" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],lipiec_saldo[[#This Row],[Bank]],Operacje[Produkt],lipiec_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <f ca="1">lipiec_saldo[[#This Row],[Saldo początkowe]]+lipiec_saldo[[#This Row],[Operacje]]</f>
+        <v>390.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="4">
+        <f ca="1">SUBTOTAL(109,lipiec_saldo[Saldo początkowe])</f>
+        <v>10192.950000000001</v>
+      </c>
+      <c r="D9" s="4">
+        <f>SUBTOTAL(109,lipiec_saldo[Operacje])</f>
+        <v>2915</v>
+      </c>
+      <c r="E9" s="4">
+        <f ca="1">SUBTOTAL(109,lipiec_saldo[Saldo końcowe])</f>
+        <v>13107.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" t="str">
+        <f>TEXT(DATE(2025,B11,1),"mmmm")</f>
+        <v>lipiec</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A14,Operacje[Miesiąc],lipiec!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="5">
+        <f>SUBTOTAL(9,C14:C14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A16,Operacje[Miesiąc],lipiec!$B$11)</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A17,Operacje[Miesiąc],lipiec!$B$11)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A18,Operacje[Miesiąc],lipiec!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A19,Operacje[Miesiąc],lipiec!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A20,Operacje[Miesiąc],lipiec!$B$11)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A21,Operacje[Miesiąc],lipiec!$B$11)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="5">
+        <f>SUBTOTAL(9,C16:C21)</f>
+        <v>5920</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A23,Operacje[Miesiąc],lipiec!$B$11)</f>
+        <v>-165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A24,Operacje[Miesiąc],lipiec!$B$11)</f>
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A25,Operacje[Miesiąc],lipiec!$B$11)</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A26,Operacje[Miesiąc],lipiec!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A27,Operacje[Miesiąc],lipiec!$B$11)</f>
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A28,Operacje[Miesiąc],lipiec!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A29,Operacje[Miesiąc],lipiec!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A30,Operacje[Miesiąc],lipiec!$B$11)</f>
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A31,Operacje[Miesiąc],lipiec!$B$11)</f>
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32">
+        <f>SUBTOTAL(9,C23:C31)</f>
+        <v>-3005</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33">
+        <f>SUBTOTAL(9,C14:C31)</f>
+        <v>2915</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC1A1A1-8866-4592-A69F-8E4C34DC0B7D}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -7020,7 +7559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC76701-2710-454C-BC8C-15CA85EB28F5}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -7475,7 +8014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221EF678-DEB4-412D-A9D6-A2985B0AD3C6}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -7930,7 +8469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED30D99-6D16-42DC-9AD6-4C6377773A8F}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -8385,12 +8924,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E97707D-AC43-44A2-A022-39856934F8AB}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -9125,11 +9664,478 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE44691F-75BC-4862-937D-745721B9EA49}">
+  <dimension ref="A1:N8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">INDIRECT(bilans[[#Headers],[Styczeń]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>-175</v>
+      </c>
+      <c r="D2" cm="1">
+        <f t="array" aca="1" ref="D2" ca="1">INDIRECT(bilans[[#Headers],[Luty]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>0</v>
+      </c>
+      <c r="E2" cm="1">
+        <f t="array" aca="1" ref="E2" ca="1">INDIRECT(bilans[[#Headers],[Marzec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>-104.5</v>
+      </c>
+      <c r="F2" cm="1">
+        <f t="array" aca="1" ref="F2" ca="1">INDIRECT(bilans[[#Headers],[Kwiecień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>-91.389999999999986</v>
+      </c>
+      <c r="G2" cm="1">
+        <f t="array" aca="1" ref="G2" ca="1">INDIRECT(bilans[[#Headers],[Maj]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>-1000</v>
+      </c>
+      <c r="H2" cm="1">
+        <f t="array" aca="1" ref="H2" ca="1">INDIRECT(bilans[[#Headers],[Czerwiec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>-1300</v>
+      </c>
+      <c r="I2" cm="1">
+        <f t="array" aca="1" ref="I2" ca="1">INDIRECT(bilans[[#Headers],[Lipiec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>-135</v>
+      </c>
+      <c r="J2" cm="1">
+        <f t="array" aca="1" ref="J2" ca="1">INDIRECT(bilans[[#Headers],[Sierpień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>-102</v>
+      </c>
+      <c r="K2" cm="1">
+        <f t="array" aca="1" ref="K2" ca="1">INDIRECT(bilans[[#Headers],[Wrzesień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>-20</v>
+      </c>
+      <c r="L2" cm="1">
+        <f t="array" aca="1" ref="L2" ca="1">INDIRECT(bilans[[#Headers],[Październik]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>-40</v>
+      </c>
+      <c r="M2" cm="1">
+        <f t="array" aca="1" ref="M2" ca="1">INDIRECT(bilans[[#Headers],[Listopad]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>0</v>
+      </c>
+      <c r="N2" cm="1">
+        <f t="array" aca="1" ref="N2" ca="1">INDIRECT(bilans[[#Headers],[Grudzień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" cm="1">
+        <f t="array" aca="1" ref="C3" ca="1">INDIRECT(bilans[[#Headers],[Styczeń]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1700</v>
+      </c>
+      <c r="D3" cm="1">
+        <f t="array" aca="1" ref="D3" ca="1">INDIRECT(bilans[[#Headers],[Luty]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>3739.5</v>
+      </c>
+      <c r="E3" cm="1">
+        <f t="array" aca="1" ref="E3" ca="1">INDIRECT(bilans[[#Headers],[Marzec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>4561.1000000000004</v>
+      </c>
+      <c r="F3" cm="1">
+        <f t="array" aca="1" ref="F3" ca="1">INDIRECT(bilans[[#Headers],[Kwiecień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>5123.83</v>
+      </c>
+      <c r="G3" cm="1">
+        <f t="array" aca="1" ref="G3" ca="1">INDIRECT(bilans[[#Headers],[Maj]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>7452.4400000000005</v>
+      </c>
+      <c r="H3" cm="1">
+        <f t="array" aca="1" ref="H3" ca="1">INDIRECT(bilans[[#Headers],[Czerwiec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>8872.44</v>
+      </c>
+      <c r="I3" cm="1">
+        <f t="array" aca="1" ref="I3" ca="1">INDIRECT(bilans[[#Headers],[Lipiec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>9882.44</v>
+      </c>
+      <c r="J3" cm="1">
+        <f t="array" aca="1" ref="J3" ca="1">INDIRECT(bilans[[#Headers],[Sierpień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>11357.44</v>
+      </c>
+      <c r="K3" cm="1">
+        <f t="array" aca="1" ref="K3" ca="1">INDIRECT(bilans[[#Headers],[Wrzesień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>13046.94</v>
+      </c>
+      <c r="L3" cm="1">
+        <f t="array" aca="1" ref="L3" ca="1">INDIRECT(bilans[[#Headers],[Październik]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>14736.94</v>
+      </c>
+      <c r="M3" cm="1">
+        <f t="array" aca="1" ref="M3" ca="1">INDIRECT(bilans[[#Headers],[Listopad]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>15696.94</v>
+      </c>
+      <c r="N3" cm="1">
+        <f t="array" aca="1" ref="N3" ca="1">INDIRECT(bilans[[#Headers],[Grudzień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>17016.940000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" cm="1">
+        <f t="array" aca="1" ref="C4" ca="1">INDIRECT(bilans[[#Headers],[Styczeń]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1600</v>
+      </c>
+      <c r="D4" cm="1">
+        <f t="array" aca="1" ref="D4" ca="1">INDIRECT(bilans[[#Headers],[Luty]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1200</v>
+      </c>
+      <c r="E4" cm="1">
+        <f t="array" aca="1" ref="E4" ca="1">INDIRECT(bilans[[#Headers],[Marzec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1200</v>
+      </c>
+      <c r="F4" cm="1">
+        <f t="array" aca="1" ref="F4" ca="1">INDIRECT(bilans[[#Headers],[Kwiecień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1200</v>
+      </c>
+      <c r="G4" cm="1">
+        <f t="array" aca="1" ref="G4" ca="1">INDIRECT(bilans[[#Headers],[Maj]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1200</v>
+      </c>
+      <c r="H4" cm="1">
+        <f t="array" aca="1" ref="H4" ca="1">INDIRECT(bilans[[#Headers],[Czerwiec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1200</v>
+      </c>
+      <c r="I4" cm="1">
+        <f t="array" aca="1" ref="I4" ca="1">INDIRECT(bilans[[#Headers],[Lipiec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1020</v>
+      </c>
+      <c r="J4" cm="1">
+        <f t="array" aca="1" ref="J4" ca="1">INDIRECT(bilans[[#Headers],[Sierpień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>0</v>
+      </c>
+      <c r="K4" cm="1">
+        <f t="array" aca="1" ref="K4" ca="1">INDIRECT(bilans[[#Headers],[Wrzesień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>0</v>
+      </c>
+      <c r="L4" cm="1">
+        <f t="array" aca="1" ref="L4" ca="1">INDIRECT(bilans[[#Headers],[Październik]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>0</v>
+      </c>
+      <c r="M4" cm="1">
+        <f t="array" aca="1" ref="M4" ca="1">INDIRECT(bilans[[#Headers],[Listopad]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>0</v>
+      </c>
+      <c r="N4" cm="1">
+        <f t="array" aca="1" ref="N4" ca="1">INDIRECT(bilans[[#Headers],[Grudzień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" cm="1">
+        <f t="array" aca="1" ref="C5" ca="1">INDIRECT(bilans[[#Headers],[Styczeń]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>65</v>
+      </c>
+      <c r="D5" cm="1">
+        <f t="array" aca="1" ref="D5" ca="1">INDIRECT(bilans[[#Headers],[Luty]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>100</v>
+      </c>
+      <c r="E5" cm="1">
+        <f t="array" aca="1" ref="E5" ca="1">INDIRECT(bilans[[#Headers],[Marzec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>167.5</v>
+      </c>
+      <c r="F5" cm="1">
+        <f t="array" aca="1" ref="F5" ca="1">INDIRECT(bilans[[#Headers],[Kwiecień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>268.5</v>
+      </c>
+      <c r="G5" cm="1">
+        <f t="array" aca="1" ref="G5" ca="1">INDIRECT(bilans[[#Headers],[Maj]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>218.5</v>
+      </c>
+      <c r="H5" cm="1">
+        <f t="array" aca="1" ref="H5" ca="1">INDIRECT(bilans[[#Headers],[Czerwiec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>468.5</v>
+      </c>
+      <c r="I5" cm="1">
+        <f t="array" aca="1" ref="I5" ca="1">INDIRECT(bilans[[#Headers],[Lipiec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>368.5</v>
+      </c>
+      <c r="J5" cm="1">
+        <f t="array" aca="1" ref="J5" ca="1">INDIRECT(bilans[[#Headers],[Sierpień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>568.5</v>
+      </c>
+      <c r="K5" cm="1">
+        <f t="array" aca="1" ref="K5" ca="1">INDIRECT(bilans[[#Headers],[Wrzesień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>548.5</v>
+      </c>
+      <c r="L5" cm="1">
+        <f t="array" aca="1" ref="L5" ca="1">INDIRECT(bilans[[#Headers],[Październik]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>548.5</v>
+      </c>
+      <c r="M5" cm="1">
+        <f t="array" aca="1" ref="M5" ca="1">INDIRECT(bilans[[#Headers],[Listopad]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>548.5</v>
+      </c>
+      <c r="N5" cm="1">
+        <f t="array" aca="1" ref="N5" ca="1">INDIRECT(bilans[[#Headers],[Grudzień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>548.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">INDIRECT(bilans[[#Headers],[Styczeń]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>266</v>
+      </c>
+      <c r="D6" cm="1">
+        <f t="array" aca="1" ref="D6" ca="1">INDIRECT(bilans[[#Headers],[Luty]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>281</v>
+      </c>
+      <c r="E6" cm="1">
+        <f t="array" aca="1" ref="E6" ca="1">INDIRECT(bilans[[#Headers],[Marzec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>286</v>
+      </c>
+      <c r="F6" cm="1">
+        <f t="array" aca="1" ref="F6" ca="1">INDIRECT(bilans[[#Headers],[Kwiecień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>336</v>
+      </c>
+      <c r="G6" cm="1">
+        <f t="array" aca="1" ref="G6" ca="1">INDIRECT(bilans[[#Headers],[Maj]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>336</v>
+      </c>
+      <c r="H6" cm="1">
+        <f t="array" aca="1" ref="H6" ca="1">INDIRECT(bilans[[#Headers],[Czerwiec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>336</v>
+      </c>
+      <c r="I6" cm="1">
+        <f t="array" aca="1" ref="I6" ca="1">INDIRECT(bilans[[#Headers],[Lipiec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1386</v>
+      </c>
+      <c r="J6" cm="1">
+        <f t="array" aca="1" ref="J6" ca="1">INDIRECT(bilans[[#Headers],[Sierpień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1086</v>
+      </c>
+      <c r="K6" cm="1">
+        <f t="array" aca="1" ref="K6" ca="1">INDIRECT(bilans[[#Headers],[Wrzesień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1086</v>
+      </c>
+      <c r="L6" cm="1">
+        <f t="array" aca="1" ref="L6" ca="1">INDIRECT(bilans[[#Headers],[Październik]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1086</v>
+      </c>
+      <c r="M6" cm="1">
+        <f t="array" aca="1" ref="M6" ca="1">INDIRECT(bilans[[#Headers],[Listopad]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1086</v>
+      </c>
+      <c r="N6" cm="1">
+        <f t="array" aca="1" ref="N6" ca="1">INDIRECT(bilans[[#Headers],[Grudzień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">INDIRECT(bilans[[#Headers],[Styczeń]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>150</v>
+      </c>
+      <c r="D7" cm="1">
+        <f t="array" aca="1" ref="D7" ca="1">INDIRECT(bilans[[#Headers],[Luty]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>250</v>
+      </c>
+      <c r="E7" cm="1">
+        <f t="array" aca="1" ref="E7" ca="1">INDIRECT(bilans[[#Headers],[Marzec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>225.51</v>
+      </c>
+      <c r="F7" cm="1">
+        <f t="array" aca="1" ref="F7" ca="1">INDIRECT(bilans[[#Headers],[Kwiecień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>225.51</v>
+      </c>
+      <c r="G7" cm="1">
+        <f t="array" aca="1" ref="G7" ca="1">INDIRECT(bilans[[#Headers],[Maj]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>225.51</v>
+      </c>
+      <c r="H7" cm="1">
+        <f t="array" aca="1" ref="H7" ca="1">INDIRECT(bilans[[#Headers],[Czerwiec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>225.51</v>
+      </c>
+      <c r="I7" cm="1">
+        <f t="array" aca="1" ref="I7" ca="1">INDIRECT(bilans[[#Headers],[Lipiec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>195.51</v>
+      </c>
+      <c r="J7" cm="1">
+        <f t="array" aca="1" ref="J7" ca="1">INDIRECT(bilans[[#Headers],[Sierpień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>195.51</v>
+      </c>
+      <c r="K7" cm="1">
+        <f t="array" aca="1" ref="K7" ca="1">INDIRECT(bilans[[#Headers],[Wrzesień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>195.51</v>
+      </c>
+      <c r="L7" cm="1">
+        <f t="array" aca="1" ref="L7" ca="1">INDIRECT(bilans[[#Headers],[Październik]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>195.51</v>
+      </c>
+      <c r="M7" cm="1">
+        <f t="array" aca="1" ref="M7" ca="1">INDIRECT(bilans[[#Headers],[Listopad]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>195.51</v>
+      </c>
+      <c r="N7" cm="1">
+        <f t="array" aca="1" ref="N7" ca="1">INDIRECT(bilans[[#Headers],[Grudzień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>195.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">INDIRECT(bilans[[#Headers],[Styczeń]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>180</v>
+      </c>
+      <c r="D8" cm="1">
+        <f t="array" aca="1" ref="D8" ca="1">INDIRECT(bilans[[#Headers],[Luty]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>680</v>
+      </c>
+      <c r="E8" cm="1">
+        <f t="array" aca="1" ref="E8" ca="1">INDIRECT(bilans[[#Headers],[Marzec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>670.5</v>
+      </c>
+      <c r="F8" cm="1">
+        <f t="array" aca="1" ref="F8" ca="1">INDIRECT(bilans[[#Headers],[Kwiecień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>670.5</v>
+      </c>
+      <c r="G8" cm="1">
+        <f t="array" aca="1" ref="G8" ca="1">INDIRECT(bilans[[#Headers],[Maj]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>590.5</v>
+      </c>
+      <c r="H8" cm="1">
+        <f t="array" aca="1" ref="H8" ca="1">INDIRECT(bilans[[#Headers],[Czerwiec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>390.5</v>
+      </c>
+      <c r="I8" cm="1">
+        <f t="array" aca="1" ref="I8" ca="1">INDIRECT(bilans[[#Headers],[Lipiec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>390.5</v>
+      </c>
+      <c r="J8" cm="1">
+        <f t="array" aca="1" ref="J8" ca="1">INDIRECT(bilans[[#Headers],[Sierpień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>393</v>
+      </c>
+      <c r="K8" cm="1">
+        <f t="array" aca="1" ref="K8" ca="1">INDIRECT(bilans[[#Headers],[Wrzesień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>393</v>
+      </c>
+      <c r="L8" cm="1">
+        <f t="array" aca="1" ref="L8" ca="1">INDIRECT(bilans[[#Headers],[Październik]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>393</v>
+      </c>
+      <c r="M8" cm="1">
+        <f t="array" aca="1" ref="M8" ca="1">INDIRECT(bilans[[#Headers],[Listopad]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>793</v>
+      </c>
+      <c r="N8" cm="1">
+        <f t="array" aca="1" ref="N8" ca="1">INDIRECT(bilans[[#Headers],[Grudzień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1893</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B61AC7-E857-4FF4-8F8A-C0BAB673445B}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -9572,7 +10578,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516B3101-C772-42D1-B4F3-499D76FC79D3}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -10027,7 +11033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DDD9D5D-DD97-4850-BA80-9AD5C0DBF0FC}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -10482,7 +11488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D20808-6F4E-4856-BC0F-D36A39F744A1}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -10937,7 +11943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F56CBBA8-8653-44FC-BBAD-C0EDC7BCF232}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -11392,7 +12398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE6988A7-FB8F-40D0-ABCA-72E49D37E810}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -11845,459 +12851,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4822675A-A8F9-49E3-8D2F-9C85153E1690}">
-  <dimension ref="A1:E33"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="4" cm="1">
-        <f t="array" aca="1" ref="C2" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
-        <v>-1300</v>
-      </c>
-      <c r="D2" s="4">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],lipiec_saldo[[#This Row],[Bank]],Operacje[Produkt],lipiec_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
-        <v>1165</v>
-      </c>
-      <c r="E2" s="4">
-        <f ca="1">lipiec_saldo[[#This Row],[Saldo początkowe]]+lipiec_saldo[[#This Row],[Operacje]]</f>
-        <v>-135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" cm="1">
-        <f t="array" aca="1" ref="C3" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
-        <v>8872.44</v>
-      </c>
-      <c r="D3" s="4">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],lipiec_saldo[[#This Row],[Bank]],Operacje[Produkt],lipiec_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
-        <v>1010</v>
-      </c>
-      <c r="E3" s="4">
-        <f ca="1">lipiec_saldo[[#This Row],[Saldo początkowe]]+lipiec_saldo[[#This Row],[Operacje]]</f>
-        <v>9882.44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="4" cm="1">
-        <f t="array" aca="1" ref="C4" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
-        <v>1200</v>
-      </c>
-      <c r="D4" s="4">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],lipiec_saldo[[#This Row],[Bank]],Operacje[Produkt],lipiec_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
-        <v>-180</v>
-      </c>
-      <c r="E4" s="4">
-        <f ca="1">lipiec_saldo[[#This Row],[Saldo początkowe]]+lipiec_saldo[[#This Row],[Operacje]]</f>
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4" cm="1">
-        <f t="array" aca="1" ref="C5" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
-        <v>468.5</v>
-      </c>
-      <c r="D5" s="4">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],lipiec_saldo[[#This Row],[Bank]],Operacje[Produkt],lipiec_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
-        <v>-100</v>
-      </c>
-      <c r="E5" s="4">
-        <f ca="1">lipiec_saldo[[#This Row],[Saldo początkowe]]+lipiec_saldo[[#This Row],[Operacje]]</f>
-        <v>368.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="4" cm="1">
-        <f t="array" aca="1" ref="C6" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
-        <v>336</v>
-      </c>
-      <c r="D6" s="4">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],lipiec_saldo[[#This Row],[Bank]],Operacje[Produkt],lipiec_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
-        <v>1050</v>
-      </c>
-      <c r="E6" s="4">
-        <f ca="1">lipiec_saldo[[#This Row],[Saldo początkowe]]+lipiec_saldo[[#This Row],[Operacje]]</f>
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="4" cm="1">
-        <f t="array" aca="1" ref="C7" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
-        <v>225.51</v>
-      </c>
-      <c r="D7" s="4">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],lipiec_saldo[[#This Row],[Bank]],Operacje[Produkt],lipiec_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
-        <v>-30</v>
-      </c>
-      <c r="E7" s="4">
-        <f ca="1">lipiec_saldo[[#This Row],[Saldo początkowe]]+lipiec_saldo[[#This Row],[Operacje]]</f>
-        <v>195.51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="4" cm="1">
-        <f t="array" aca="1" ref="C8" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
-        <v>390.5</v>
-      </c>
-      <c r="D8" s="4">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],lipiec_saldo[[#This Row],[Bank]],Operacje[Produkt],lipiec_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <f ca="1">lipiec_saldo[[#This Row],[Saldo początkowe]]+lipiec_saldo[[#This Row],[Operacje]]</f>
-        <v>390.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="4">
-        <f ca="1">SUBTOTAL(109,lipiec_saldo[Saldo początkowe])</f>
-        <v>10192.950000000001</v>
-      </c>
-      <c r="D9" s="4">
-        <f>SUBTOTAL(109,lipiec_saldo[Operacje])</f>
-        <v>2915</v>
-      </c>
-      <c r="E9" s="4">
-        <f ca="1">SUBTOTAL(109,lipiec_saldo[Saldo końcowe])</f>
-        <v>13107.95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>7</v>
-      </c>
-      <c r="C11" t="str">
-        <f>TEXT(DATE(2025,B11,1),"mmmm")</f>
-        <v>lipiec</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A14,Operacje[Miesiąc],lipiec!$B$11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="5">
-        <f>SUBTOTAL(9,C14:C14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A16,Operacje[Miesiąc],lipiec!$B$11)</f>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A17,Operacje[Miesiąc],lipiec!$B$11)</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A18,Operacje[Miesiąc],lipiec!$B$11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A19,Operacje[Miesiąc],lipiec!$B$11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A20,Operacje[Miesiąc],lipiec!$B$11)</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A21,Operacje[Miesiąc],lipiec!$B$11)</f>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="5">
-        <f>SUBTOTAL(9,C16:C21)</f>
-        <v>5920</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A23,Operacje[Miesiąc],lipiec!$B$11)</f>
-        <v>-165</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A24,Operacje[Miesiąc],lipiec!$B$11)</f>
-        <v>-2000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A25,Operacje[Miesiąc],lipiec!$B$11)</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A26,Operacje[Miesiąc],lipiec!$B$11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A27,Operacje[Miesiąc],lipiec!$B$11)</f>
-        <v>-700</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A28,Operacje[Miesiąc],lipiec!$B$11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A29,Operacje[Miesiąc],lipiec!$B$11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A30,Operacje[Miesiąc],lipiec!$B$11)</f>
-        <v>-90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A31,Operacje[Miesiąc],lipiec!$B$11)</f>
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32">
-        <f>SUBTOTAL(9,C23:C31)</f>
-        <v>-3005</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33">
-        <f>SUBTOTAL(9,C14:C31)</f>
-        <v>2915</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/Finanse.xlsx
+++ b/Finanse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-A121-08.CAMPUS.005\Desktop\Arkusz-kalkulacyjny-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC523516-A583-43C9-A85B-F006775A7F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CAC238-07C0-4710-B5EC-4366CB203DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{19EE711A-3283-4873-9107-9C9869A047C7}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="67">
   <si>
     <t>Kwota</t>
   </si>
@@ -277,10 +277,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,6 +306,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -312,15 +330,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -343,11 +367,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -356,11 +405,121 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Walutowy" xfId="1" builtinId="4"/>
   </cellStyles>
-  <dxfs count="78">
+  <dxfs count="92">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
     </dxf>
@@ -748,18 +907,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DF00132F-BB2F-4D46-9EC5-1FA40894919A}" name="Operacje" displayName="Operacje" ref="A1:G207" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DF00132F-BB2F-4D46-9EC5-1FA40894919A}" name="Operacje" displayName="Operacje" ref="A1:G207" totalsRowShown="0" headerRowDxfId="91" dataDxfId="90">
   <autoFilter ref="A1:G207" xr:uid="{DF00132F-BB2F-4D46-9EC5-1FA40894919A}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{25A72E87-C4CB-4423-B348-90A35E775FE3}" name="Kwota" dataDxfId="75"/>
-    <tableColumn id="2" xr3:uid="{93BBD57B-3BBB-4ACA-83CE-607F44F5B6A5}" name="Bank" dataDxfId="74"/>
-    <tableColumn id="3" xr3:uid="{2DE6DBCE-4D01-4473-8B14-546B121944E8}" name="Produkt" dataDxfId="73"/>
-    <tableColumn id="4" xr3:uid="{8BDFC9FE-2298-4235-8F5E-F51C51653802}" name="Kategoria" dataDxfId="72"/>
-    <tableColumn id="5" xr3:uid="{637E4BCA-FB13-497F-8BDF-60A0237FB080}" name="Typ" dataDxfId="71">
+    <tableColumn id="1" xr3:uid="{25A72E87-C4CB-4423-B348-90A35E775FE3}" name="Kwota" dataDxfId="89"/>
+    <tableColumn id="2" xr3:uid="{93BBD57B-3BBB-4ACA-83CE-607F44F5B6A5}" name="Bank" dataDxfId="88"/>
+    <tableColumn id="3" xr3:uid="{2DE6DBCE-4D01-4473-8B14-546B121944E8}" name="Produkt" dataDxfId="87"/>
+    <tableColumn id="4" xr3:uid="{8BDFC9FE-2298-4235-8F5E-F51C51653802}" name="Kategoria" dataDxfId="86"/>
+    <tableColumn id="5" xr3:uid="{637E4BCA-FB13-497F-8BDF-60A0237FB080}" name="Typ" dataDxfId="85">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Operacje[[#This Row],[Kategoria]],Kategorie[Kategoria],Kategorie[Typ],"",0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0589E3E0-9F77-4230-B360-097D9EB65EAF}" name="Data" dataDxfId="70"/>
-    <tableColumn id="7" xr3:uid="{C2CF5F63-18C9-44B9-A2FF-347ADDC71E9F}" name="Miesiąc" dataDxfId="69">
+    <tableColumn id="6" xr3:uid="{0589E3E0-9F77-4230-B360-097D9EB65EAF}" name="Data" dataDxfId="84"/>
+    <tableColumn id="7" xr3:uid="{C2CF5F63-18C9-44B9-A2FF-347ADDC71E9F}" name="Miesiąc" dataDxfId="83">
       <calculatedColumnFormula>IF(ISBLANK(Operacje[[#This Row],[Data]]),,MONTH(Operacje[[#This Row],[Data]]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -777,13 +936,13 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{B3FF2B8E-AF2E-4D9A-BFFD-64E2086DE258}" name="Bank" totalsRowLabel="Suma"/>
     <tableColumn id="2" xr3:uid="{25E3F44D-2BD8-4965-9CBC-801490BD8429}" name="Produkt"/>
-    <tableColumn id="3" xr3:uid="{AB961AE9-02C8-4277-84B4-60C16B26ED0F}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="44">
+    <tableColumn id="3" xr3:uid="{AB961AE9-02C8-4277-84B4-60C16B26ED0F}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="58">
       <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C2F0CAB7-3E28-4413-AF08-2AA1E36AF6E3}" name="Operacje" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="42">
+    <tableColumn id="4" xr3:uid="{C2F0CAB7-3E28-4413-AF08-2AA1E36AF6E3}" name="Operacje" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="56">
       <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],czerwiec_saldo[[#This Row],[Bank]],Operacje[Produkt],czerwiec_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{CC76026D-A5E3-4D2F-B959-C422014799FF}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="40">
+    <tableColumn id="5" xr3:uid="{CC76026D-A5E3-4D2F-B959-C422014799FF}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="54">
       <calculatedColumnFormula>czerwiec_saldo[[#This Row],[Saldo początkowe]]+czerwiec_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -801,13 +960,13 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{3E7B6A8D-D662-4BFC-9C63-A8D27A7C9CC9}" name="Bank" totalsRowLabel="Suma"/>
     <tableColumn id="2" xr3:uid="{B89601A0-6A8D-4A85-A28A-ABCC667DC25B}" name="Produkt"/>
-    <tableColumn id="3" xr3:uid="{BD4F6F84-6850-4EC5-B07C-7A564FE65CAC}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="38">
+    <tableColumn id="3" xr3:uid="{BD4F6F84-6850-4EC5-B07C-7A564FE65CAC}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="52">
       <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A95CB9A5-0B0C-4B17-8710-08FB53B93F07}" name="Operacje" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="36">
+    <tableColumn id="4" xr3:uid="{A95CB9A5-0B0C-4B17-8710-08FB53B93F07}" name="Operacje" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="50">
       <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],lipiec_saldo[[#This Row],[Bank]],Operacje[Produkt],lipiec_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{425DF2C6-4FF6-4388-9091-179D3AE81234}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="34">
+    <tableColumn id="5" xr3:uid="{425DF2C6-4FF6-4388-9091-179D3AE81234}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="48">
       <calculatedColumnFormula>lipiec_saldo[[#This Row],[Saldo początkowe]]+lipiec_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -825,13 +984,13 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5DB5201B-3E8D-4A6B-BDCA-17E633B8A0AC}" name="Bank" totalsRowLabel="Suma"/>
     <tableColumn id="2" xr3:uid="{03042651-EB78-4735-B338-F0B5BA056236}" name="Produkt"/>
-    <tableColumn id="3" xr3:uid="{A4521513-3046-4559-B9F8-B99F34FA791C}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="32">
+    <tableColumn id="3" xr3:uid="{A4521513-3046-4559-B9F8-B99F34FA791C}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="46">
       <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E7552EB9-6228-4E6E-8369-141EB1963330}" name="Operacje" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="30">
+    <tableColumn id="4" xr3:uid="{E7552EB9-6228-4E6E-8369-141EB1963330}" name="Operacje" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="44">
       <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],sierpień_saldo[[#This Row],[Bank]],Operacje[Produkt],sierpień_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{87EA4A1C-C080-4DA8-A268-1218FA864F9D}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="28">
+    <tableColumn id="5" xr3:uid="{87EA4A1C-C080-4DA8-A268-1218FA864F9D}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="42">
       <calculatedColumnFormula>sierpień_saldo[[#This Row],[Saldo początkowe]]+sierpień_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -849,13 +1008,13 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{41953830-E4A0-4331-9A4A-853940427EEC}" name="Bank" totalsRowLabel="Suma"/>
     <tableColumn id="2" xr3:uid="{599FA979-63BA-4A1F-B837-999750C5ABE3}" name="Produkt"/>
-    <tableColumn id="3" xr3:uid="{A6395F16-48E9-4D9A-91FD-A08B6CBC8AF9}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="26">
+    <tableColumn id="3" xr3:uid="{A6395F16-48E9-4D9A-91FD-A08B6CBC8AF9}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="40">
       <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{0C509825-7E28-4C19-81DF-BFCC04D5CD86}" name="Operacje" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="24">
+    <tableColumn id="4" xr3:uid="{0C509825-7E28-4C19-81DF-BFCC04D5CD86}" name="Operacje" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="38">
       <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],wrzesień_saldo[[#This Row],[Bank]],Operacje[Produkt],wrzesień_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{103810C1-B9C7-443D-B2FE-FF7C53B037DA}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="22">
+    <tableColumn id="5" xr3:uid="{103810C1-B9C7-443D-B2FE-FF7C53B037DA}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="36">
       <calculatedColumnFormula>wrzesień_saldo[[#This Row],[Saldo początkowe]]+wrzesień_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -873,13 +1032,13 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{184860FA-AC5F-4246-895E-3D7E29DD2732}" name="Bank" totalsRowLabel="Suma"/>
     <tableColumn id="2" xr3:uid="{2A203464-0A0C-474D-A7F3-E6F40FAD22D4}" name="Produkt"/>
-    <tableColumn id="3" xr3:uid="{E07B8B4C-F974-4701-993A-2F7725F51576}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="20">
+    <tableColumn id="3" xr3:uid="{E07B8B4C-F974-4701-993A-2F7725F51576}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="34">
       <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C2AC896C-4C30-43C2-AD86-223A879219A3}" name="Operacje" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="18">
+    <tableColumn id="4" xr3:uid="{C2AC896C-4C30-43C2-AD86-223A879219A3}" name="Operacje" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="32">
       <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],październik_saldo[[#This Row],[Bank]],Operacje[Produkt],październik_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D308DC67-D499-4C24-A38D-664857DA7868}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="16">
+    <tableColumn id="5" xr3:uid="{D308DC67-D499-4C24-A38D-664857DA7868}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="30">
       <calculatedColumnFormula>październik_saldo[[#This Row],[Saldo początkowe]]+październik_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -897,13 +1056,13 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{506F667E-0081-4765-BA04-8E7B25576640}" name="Bank" totalsRowLabel="Suma"/>
     <tableColumn id="2" xr3:uid="{EBAFCBEB-BF63-4949-B371-00343AD2CDB9}" name="Produkt"/>
-    <tableColumn id="3" xr3:uid="{D2819467-7F23-457D-B7A9-3DA158F30368}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="14">
+    <tableColumn id="3" xr3:uid="{D2819467-7F23-457D-B7A9-3DA158F30368}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="28">
       <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{DD8250EA-F9BD-4881-BEFD-484CF89C827A}" name="Operacje" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="12">
+    <tableColumn id="4" xr3:uid="{DD8250EA-F9BD-4881-BEFD-484CF89C827A}" name="Operacje" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="26">
       <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],listopad_saldo[[#This Row],[Bank]],Operacje[Produkt],listopad_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{65162FAC-88C6-46B5-AB07-9AEE43F1D90C}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="10">
+    <tableColumn id="5" xr3:uid="{65162FAC-88C6-46B5-AB07-9AEE43F1D90C}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="24">
       <calculatedColumnFormula>listopad_saldo[[#This Row],[Saldo początkowe]]+listopad_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -921,13 +1080,13 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{355C4AB4-802F-43E1-9DC4-8867083FAB2F}" name="Bank" totalsRowLabel="Suma"/>
     <tableColumn id="2" xr3:uid="{60929A0F-DE72-436B-85EA-03F4ED78D282}" name="Produkt"/>
-    <tableColumn id="3" xr3:uid="{32122A68-9D01-48CA-8897-71BF846FD0A4}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="8">
+    <tableColumn id="3" xr3:uid="{32122A68-9D01-48CA-8897-71BF846FD0A4}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="22">
       <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2FAEB8DF-97A0-440E-BF10-123BDDDD93B2}" name="Operacje" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="6">
+    <tableColumn id="4" xr3:uid="{2FAEB8DF-97A0-440E-BF10-123BDDDD93B2}" name="Operacje" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="20">
       <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],grudzień_saldo[[#This Row],[Bank]],Operacje[Produkt],grudzień_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{59392E25-3430-4930-BEE1-6C73EC4858E4}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="4">
+    <tableColumn id="5" xr3:uid="{59392E25-3430-4930-BEE1-6C73EC4858E4}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="18">
       <calculatedColumnFormula>grudzień_saldo[[#This Row],[Saldo początkowe]]+grudzień_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -961,45 +1120,56 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{7C61FD0F-BFEE-4269-9195-F1B923E860C2}" name="bilans" displayName="bilans" ref="A1:N8" totalsRowShown="0" headerRowCellStyle="Normalny" dataCellStyle="Normalny">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{7C61FD0F-BFEE-4269-9195-F1B923E860C2}" name="bilans" displayName="bilans" ref="A1:N9" totalsRowCount="1" headerRowCellStyle="Normalny" dataCellStyle="Normalny">
   <autoFilter ref="A1:N8" xr:uid="{7C61FD0F-BFEE-4269-9195-F1B923E860C2}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{BAD11550-0049-4B63-8885-23F5176E5A06}" name="Bank" dataCellStyle="Normalny"/>
-    <tableColumn id="2" xr3:uid="{F5B8CFCF-E272-461F-8835-D17F2590FC59}" name="Produkt" dataCellStyle="Normalny"/>
-    <tableColumn id="3" xr3:uid="{A0655971-C9F7-4FEB-BA60-39C7B6DD3AAE}" name="Styczeń" dataCellStyle="Normalny">
+    <tableColumn id="1" xr3:uid="{BAD11550-0049-4B63-8885-23F5176E5A06}" name="Bank" totalsRowLabel="Suma" totalsRowDxfId="13" dataCellStyle="Normalny"/>
+    <tableColumn id="2" xr3:uid="{F5B8CFCF-E272-461F-8835-D17F2590FC59}" name="Produkt" totalsRowDxfId="12" dataCellStyle="Normalny"/>
+    <tableColumn id="3" xr3:uid="{A0655971-C9F7-4FEB-BA60-39C7B6DD3AAE}" name="Styczeń" totalsRowFunction="custom" totalsRowDxfId="11" dataCellStyle="Walutowy">
       <calculatedColumnFormula array="1">INDIRECT(bilans[[#Headers],[Styczeń]]&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+      <totalsRowFormula>SUM(bilans[Styczeń])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3FDDCD51-E909-4C6D-AD78-9F38115C4DD1}" name="Luty" dataCellStyle="Normalny">
+    <tableColumn id="4" xr3:uid="{3FDDCD51-E909-4C6D-AD78-9F38115C4DD1}" name="Luty" totalsRowFunction="custom" totalsRowDxfId="10" dataCellStyle="Walutowy">
       <calculatedColumnFormula array="1">INDIRECT(bilans[[#Headers],[Luty]]&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+      <totalsRowFormula>SUM(bilans[Luty])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{EA9C5FB8-80A7-489D-840C-772BF6E117F4}" name="Marzec" dataCellStyle="Normalny">
+    <tableColumn id="5" xr3:uid="{EA9C5FB8-80A7-489D-840C-772BF6E117F4}" name="Marzec" totalsRowFunction="custom" totalsRowDxfId="9" dataCellStyle="Walutowy">
       <calculatedColumnFormula array="1">INDIRECT(bilans[[#Headers],[Marzec]]&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+      <totalsRowFormula>SUM(bilans[Marzec])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F4752AFE-CA13-419F-BFF2-FE4D44900E71}" name="Kwiecień" dataCellStyle="Normalny">
+    <tableColumn id="6" xr3:uid="{F4752AFE-CA13-419F-BFF2-FE4D44900E71}" name="Kwiecień" totalsRowFunction="custom" totalsRowDxfId="8" dataCellStyle="Walutowy">
       <calculatedColumnFormula array="1">INDIRECT(bilans[[#Headers],[Kwiecień]]&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+      <totalsRowFormula>SUM(bilans[Kwiecień])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{60CE3DB7-7270-4FEF-81EA-4B814F3AE8D1}" name="Maj" dataCellStyle="Normalny">
+    <tableColumn id="7" xr3:uid="{60CE3DB7-7270-4FEF-81EA-4B814F3AE8D1}" name="Maj" totalsRowFunction="custom" totalsRowDxfId="7" dataCellStyle="Walutowy">
       <calculatedColumnFormula array="1">INDIRECT(bilans[[#Headers],[Maj]]&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+      <totalsRowFormula>SUM(bilans[Maj])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{12E800BD-17EB-4226-A3E6-304A11715294}" name="Czerwiec" dataCellStyle="Normalny">
+    <tableColumn id="8" xr3:uid="{12E800BD-17EB-4226-A3E6-304A11715294}" name="Czerwiec" totalsRowFunction="custom" totalsRowDxfId="6" dataCellStyle="Walutowy">
       <calculatedColumnFormula array="1">INDIRECT(bilans[[#Headers],[Czerwiec]]&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+      <totalsRowFormula>SUM(bilans[Czerwiec])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{08B63490-2E8A-4D1F-8962-698C2C10E08B}" name="Lipiec" dataCellStyle="Normalny">
+    <tableColumn id="9" xr3:uid="{08B63490-2E8A-4D1F-8962-698C2C10E08B}" name="Lipiec" totalsRowFunction="custom" totalsRowDxfId="5" dataCellStyle="Walutowy">
       <calculatedColumnFormula array="1">INDIRECT(bilans[[#Headers],[Lipiec]]&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+      <totalsRowFormula>SUM(bilans[Lipiec])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E28A15CA-505D-42D3-8A83-357FBD6715FA}" name="Sierpień" dataCellStyle="Normalny">
+    <tableColumn id="10" xr3:uid="{E28A15CA-505D-42D3-8A83-357FBD6715FA}" name="Sierpień" totalsRowFunction="custom" totalsRowDxfId="4" dataCellStyle="Walutowy">
       <calculatedColumnFormula array="1">INDIRECT(bilans[[#Headers],[Sierpień]]&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+      <totalsRowFormula>SUM(bilans[Sierpień])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{775220C6-EE99-4ED9-9FD6-17B34687F765}" name="Wrzesień" dataCellStyle="Normalny">
+    <tableColumn id="11" xr3:uid="{775220C6-EE99-4ED9-9FD6-17B34687F765}" name="Wrzesień" totalsRowFunction="custom" totalsRowDxfId="3" dataCellStyle="Walutowy">
       <calculatedColumnFormula array="1">INDIRECT(bilans[[#Headers],[Wrzesień]]&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+      <totalsRowFormula>SUM(bilans[Wrzesień])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{9089D993-10A5-481B-B387-3E3A4A7E92A5}" name="Październik" dataCellStyle="Normalny">
+    <tableColumn id="12" xr3:uid="{9089D993-10A5-481B-B387-3E3A4A7E92A5}" name="Październik" totalsRowFunction="custom" totalsRowDxfId="2" dataCellStyle="Walutowy">
       <calculatedColumnFormula array="1">INDIRECT(bilans[[#Headers],[Październik]]&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+      <totalsRowFormula>SUM(bilans[Październik])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{C31EC1B2-B611-4A07-870F-9F569ADDFE1C}" name="Listopad" dataCellStyle="Normalny">
+    <tableColumn id="13" xr3:uid="{C31EC1B2-B611-4A07-870F-9F569ADDFE1C}" name="Listopad" totalsRowFunction="custom" totalsRowDxfId="1" dataCellStyle="Walutowy">
       <calculatedColumnFormula array="1">INDIRECT(bilans[[#Headers],[Listopad]]&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+      <totalsRowFormula>SUM(bilans[Listopad])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{CF1E8269-F584-497C-8A48-8A1BAD77EFF8}" name="Grudzień" dataCellStyle="Normalny">
+    <tableColumn id="14" xr3:uid="{CF1E8269-F584-497C-8A48-8A1BAD77EFF8}" name="Grudzień" totalsRowFunction="sum" totalsRowDxfId="0" dataCellStyle="Walutowy">
       <calculatedColumnFormula array="1">INDIRECT(bilans[[#Headers],[Grudzień]]&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1017,11 +1187,11 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{BFEDD8C7-6960-450F-8611-D3A2F6177AF7}" name="Bank" totalsRowLabel="Suma"/>
     <tableColumn id="2" xr3:uid="{A8E01AD7-9F44-4056-9A84-61A254742FEA}" name="Produkt"/>
-    <tableColumn id="3" xr3:uid="{518BAC9F-C2D0-47A4-B7DA-CB3D9C9ACB4E}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="68"/>
-    <tableColumn id="4" xr3:uid="{CA773A1B-F066-449B-B2FB-42F3C899F422}" name="Operacje" totalsRowFunction="sum" dataDxfId="67">
+    <tableColumn id="3" xr3:uid="{518BAC9F-C2D0-47A4-B7DA-CB3D9C9ACB4E}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="82"/>
+    <tableColumn id="4" xr3:uid="{CA773A1B-F066-449B-B2FB-42F3C899F422}" name="Operacje" totalsRowFunction="sum" dataDxfId="81">
       <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],styczeń_saldo[[#This Row],[Bank]],Operacje[Produkt],styczeń_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{86417667-0456-4594-B07E-A87A7518B847}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="66">
+    <tableColumn id="5" xr3:uid="{86417667-0456-4594-B07E-A87A7518B847}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="80">
       <calculatedColumnFormula>styczeń_saldo[[#This Row],[Saldo początkowe]]+styczeń_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1039,13 +1209,13 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{CC14FA96-13DF-44AE-870E-477E801F35A5}" name="Bank" totalsRowLabel="Suma"/>
     <tableColumn id="2" xr3:uid="{FC93A666-EED2-4E44-9DE1-4F572D4CD117}" name="Produkt"/>
-    <tableColumn id="3" xr3:uid="{402CE5E0-22A5-459F-98A7-1030DD2C059B}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="2">
+    <tableColumn id="3" xr3:uid="{402CE5E0-22A5-459F-98A7-1030DD2C059B}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="71" totalsRowDxfId="16">
       <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E633EEE1-DF88-44A0-9D23-AF634F1B159B}" name="Operacje" totalsRowFunction="sum" dataDxfId="65" totalsRowDxfId="1">
+    <tableColumn id="4" xr3:uid="{E633EEE1-DF88-44A0-9D23-AF634F1B159B}" name="Operacje" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="15">
       <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],luty_saldo[[#This Row],[Bank]],Operacje[Produkt],luty_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D1CAE2DA-8429-4E27-8687-10BD31AE92BE}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="64" totalsRowDxfId="0">
+    <tableColumn id="5" xr3:uid="{D1CAE2DA-8429-4E27-8687-10BD31AE92BE}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="78" totalsRowDxfId="14">
       <calculatedColumnFormula>luty_saldo[[#This Row],[Saldo początkowe]]+luty_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1063,13 +1233,13 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8B1289C6-0B9A-4C3A-B3D6-BCA44DA3F3F9}" name="Bank" totalsRowLabel="Suma"/>
     <tableColumn id="2" xr3:uid="{E4C8E33F-157B-41D1-B656-74DD09327827}" name="Produkt"/>
-    <tableColumn id="3" xr3:uid="{5824DB4C-50E7-4B56-811D-C35E0474CFD6}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="61">
+    <tableColumn id="3" xr3:uid="{5824DB4C-50E7-4B56-811D-C35E0474CFD6}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="72" totalsRowDxfId="75">
       <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{29EF627D-65E3-411E-9134-8F11148AC4C5}" name="Operacje" totalsRowFunction="sum" dataDxfId="63" totalsRowDxfId="60">
+    <tableColumn id="4" xr3:uid="{29EF627D-65E3-411E-9134-8F11148AC4C5}" name="Operacje" totalsRowFunction="sum" dataDxfId="77" totalsRowDxfId="74">
       <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],marzec_saldo[[#This Row],[Bank]],Operacje[Produkt],marzec_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F85BE29F-2134-4167-82C4-98243EF3116C}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="62" totalsRowDxfId="59">
+    <tableColumn id="5" xr3:uid="{F85BE29F-2134-4167-82C4-98243EF3116C}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="76" totalsRowDxfId="73">
       <calculatedColumnFormula>marzec_saldo[[#This Row],[Saldo początkowe]]+marzec_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1087,13 +1257,13 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DCBEBA71-EAAC-4213-A980-6FA0FC4CC6DA}" name="Bank" totalsRowLabel="Suma"/>
     <tableColumn id="2" xr3:uid="{757B59AC-2B85-4F9B-900B-2F9FE36E685D}" name="Produkt"/>
-    <tableColumn id="3" xr3:uid="{DC2AB836-57E2-4D97-8040-CBA5F7ABE0C0}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="56">
+    <tableColumn id="3" xr3:uid="{DC2AB836-57E2-4D97-8040-CBA5F7ABE0C0}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="69" totalsRowDxfId="70">
       <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{DB4462D6-C965-45FC-B837-A2164EFD3B6B}" name="Operacje" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="54">
+    <tableColumn id="4" xr3:uid="{DB4462D6-C965-45FC-B837-A2164EFD3B6B}" name="Operacje" totalsRowFunction="sum" dataDxfId="67" totalsRowDxfId="68">
       <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],kwiecień_saldo[[#This Row],[Bank]],Operacje[Produkt],kwiecień_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F49023EB-0981-433A-AE47-BD63A0F5F8DA}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="52">
+    <tableColumn id="5" xr3:uid="{F49023EB-0981-433A-AE47-BD63A0F5F8DA}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="65" totalsRowDxfId="66">
       <calculatedColumnFormula>kwiecień_saldo[[#This Row],[Saldo początkowe]]+kwiecień_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1111,13 +1281,13 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{11F5C0F9-42E0-4930-9A72-9382A8486330}" name="Bank" totalsRowLabel="Suma"/>
     <tableColumn id="2" xr3:uid="{4C99FE9D-6411-4905-AF1B-89BC09B5F366}" name="Produkt"/>
-    <tableColumn id="3" xr3:uid="{43F50878-52CD-4DF5-A53D-140D0D6C7ED2}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="47">
+    <tableColumn id="3" xr3:uid="{43F50878-52CD-4DF5-A53D-140D0D6C7ED2}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="64" totalsRowDxfId="61">
       <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E666B0A2-6251-4951-A91A-BCECDC102225}" name="Operacje" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="46">
+    <tableColumn id="4" xr3:uid="{E666B0A2-6251-4951-A91A-BCECDC102225}" name="Operacje" totalsRowFunction="sum" dataDxfId="63" totalsRowDxfId="60">
       <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],maj_saldo[[#This Row],[Bank]],Operacje[Produkt],maj_saldo[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{40BD0F46-4DB9-4924-A658-EB65580FCF7B}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="45">
+    <tableColumn id="5" xr3:uid="{40BD0F46-4DB9-4924-A658-EB65580FCF7B}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="62" totalsRowDxfId="59">
       <calculatedColumnFormula>maj_saldo[[#This Row],[Saldo początkowe]]+maj_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1424,8 +1594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2E07F4-7261-4A7F-9183-17B238414C64}">
   <dimension ref="A1:J207"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7108,8 +7278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC1A1A1-8866-4592-A69F-8E4C34DC0B7D}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -8018,8 +8188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221EF678-DEB4-412D-A9D6-A2985B0AD3C6}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -9654,7 +9824,7 @@
     <sortCondition ref="B2:B17"/>
     <sortCondition ref="A2:A17"/>
   </sortState>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
@@ -9665,24 +9835,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE44691F-75BC-4862-937D-745721B9EA49}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" customWidth="1"/>
+    <col min="8" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -9736,51 +9904,51 @@
       <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" cm="1">
+      <c r="C2" s="8" cm="1">
         <f t="array" aca="1" ref="C2" ca="1">INDIRECT(bilans[[#Headers],[Styczeń]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>-175</v>
       </c>
-      <c r="D2" cm="1">
+      <c r="D2" s="8" cm="1">
         <f t="array" aca="1" ref="D2" ca="1">INDIRECT(bilans[[#Headers],[Luty]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>0</v>
       </c>
-      <c r="E2" cm="1">
+      <c r="E2" s="8" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">INDIRECT(bilans[[#Headers],[Marzec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>-104.5</v>
       </c>
-      <c r="F2" cm="1">
+      <c r="F2" s="8" cm="1">
         <f t="array" aca="1" ref="F2" ca="1">INDIRECT(bilans[[#Headers],[Kwiecień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>-91.389999999999986</v>
       </c>
-      <c r="G2" cm="1">
+      <c r="G2" s="8" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">INDIRECT(bilans[[#Headers],[Maj]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>-1000</v>
       </c>
-      <c r="H2" cm="1">
+      <c r="H2" s="8" cm="1">
         <f t="array" aca="1" ref="H2" ca="1">INDIRECT(bilans[[#Headers],[Czerwiec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>-1300</v>
       </c>
-      <c r="I2" cm="1">
+      <c r="I2" s="8" cm="1">
         <f t="array" aca="1" ref="I2" ca="1">INDIRECT(bilans[[#Headers],[Lipiec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>-135</v>
       </c>
-      <c r="J2" cm="1">
+      <c r="J2" s="8" cm="1">
         <f t="array" aca="1" ref="J2" ca="1">INDIRECT(bilans[[#Headers],[Sierpień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>-102</v>
       </c>
-      <c r="K2" cm="1">
+      <c r="K2" s="8" cm="1">
         <f t="array" aca="1" ref="K2" ca="1">INDIRECT(bilans[[#Headers],[Wrzesień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>-20</v>
       </c>
-      <c r="L2" cm="1">
+      <c r="L2" s="8" cm="1">
         <f t="array" aca="1" ref="L2" ca="1">INDIRECT(bilans[[#Headers],[Październik]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>-40</v>
       </c>
-      <c r="M2" cm="1">
+      <c r="M2" s="8" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">INDIRECT(bilans[[#Headers],[Listopad]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>0</v>
       </c>
-      <c r="N2" cm="1">
+      <c r="N2" s="8" cm="1">
         <f t="array" aca="1" ref="N2" ca="1">INDIRECT(bilans[[#Headers],[Grudzień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>0</v>
       </c>
@@ -9792,51 +9960,51 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" cm="1">
+      <c r="C3" s="8" cm="1">
         <f t="array" aca="1" ref="C3" ca="1">INDIRECT(bilans[[#Headers],[Styczeń]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>1700</v>
       </c>
-      <c r="D3" cm="1">
+      <c r="D3" s="8" cm="1">
         <f t="array" aca="1" ref="D3" ca="1">INDIRECT(bilans[[#Headers],[Luty]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>3739.5</v>
       </c>
-      <c r="E3" cm="1">
+      <c r="E3" s="8" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">INDIRECT(bilans[[#Headers],[Marzec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>4561.1000000000004</v>
       </c>
-      <c r="F3" cm="1">
+      <c r="F3" s="8" cm="1">
         <f t="array" aca="1" ref="F3" ca="1">INDIRECT(bilans[[#Headers],[Kwiecień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>5123.83</v>
       </c>
-      <c r="G3" cm="1">
+      <c r="G3" s="8" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">INDIRECT(bilans[[#Headers],[Maj]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>7452.4400000000005</v>
       </c>
-      <c r="H3" cm="1">
+      <c r="H3" s="8" cm="1">
         <f t="array" aca="1" ref="H3" ca="1">INDIRECT(bilans[[#Headers],[Czerwiec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>8872.44</v>
       </c>
-      <c r="I3" cm="1">
+      <c r="I3" s="8" cm="1">
         <f t="array" aca="1" ref="I3" ca="1">INDIRECT(bilans[[#Headers],[Lipiec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>9882.44</v>
       </c>
-      <c r="J3" cm="1">
+      <c r="J3" s="8" cm="1">
         <f t="array" aca="1" ref="J3" ca="1">INDIRECT(bilans[[#Headers],[Sierpień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>11357.44</v>
       </c>
-      <c r="K3" cm="1">
+      <c r="K3" s="8" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">INDIRECT(bilans[[#Headers],[Wrzesień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>13046.94</v>
       </c>
-      <c r="L3" cm="1">
+      <c r="L3" s="8" cm="1">
         <f t="array" aca="1" ref="L3" ca="1">INDIRECT(bilans[[#Headers],[Październik]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>14736.94</v>
       </c>
-      <c r="M3" cm="1">
+      <c r="M3" s="8" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">INDIRECT(bilans[[#Headers],[Listopad]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>15696.94</v>
       </c>
-      <c r="N3" cm="1">
+      <c r="N3" s="8" cm="1">
         <f t="array" aca="1" ref="N3" ca="1">INDIRECT(bilans[[#Headers],[Grudzień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>17016.940000000002</v>
       </c>
@@ -9848,51 +10016,51 @@
       <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" cm="1">
+      <c r="C4" s="8" cm="1">
         <f t="array" aca="1" ref="C4" ca="1">INDIRECT(bilans[[#Headers],[Styczeń]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>1600</v>
       </c>
-      <c r="D4" cm="1">
+      <c r="D4" s="8" cm="1">
         <f t="array" aca="1" ref="D4" ca="1">INDIRECT(bilans[[#Headers],[Luty]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>1200</v>
       </c>
-      <c r="E4" cm="1">
+      <c r="E4" s="8" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">INDIRECT(bilans[[#Headers],[Marzec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>1200</v>
       </c>
-      <c r="F4" cm="1">
+      <c r="F4" s="8" cm="1">
         <f t="array" aca="1" ref="F4" ca="1">INDIRECT(bilans[[#Headers],[Kwiecień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>1200</v>
       </c>
-      <c r="G4" cm="1">
+      <c r="G4" s="8" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">INDIRECT(bilans[[#Headers],[Maj]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>1200</v>
       </c>
-      <c r="H4" cm="1">
+      <c r="H4" s="8" cm="1">
         <f t="array" aca="1" ref="H4" ca="1">INDIRECT(bilans[[#Headers],[Czerwiec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>1200</v>
       </c>
-      <c r="I4" cm="1">
+      <c r="I4" s="8" cm="1">
         <f t="array" aca="1" ref="I4" ca="1">INDIRECT(bilans[[#Headers],[Lipiec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>1020</v>
       </c>
-      <c r="J4" cm="1">
+      <c r="J4" s="8" cm="1">
         <f t="array" aca="1" ref="J4" ca="1">INDIRECT(bilans[[#Headers],[Sierpień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>0</v>
       </c>
-      <c r="K4" cm="1">
+      <c r="K4" s="8" cm="1">
         <f t="array" aca="1" ref="K4" ca="1">INDIRECT(bilans[[#Headers],[Wrzesień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>0</v>
       </c>
-      <c r="L4" cm="1">
+      <c r="L4" s="8" cm="1">
         <f t="array" aca="1" ref="L4" ca="1">INDIRECT(bilans[[#Headers],[Październik]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>0</v>
       </c>
-      <c r="M4" cm="1">
+      <c r="M4" s="8" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">INDIRECT(bilans[[#Headers],[Listopad]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>0</v>
       </c>
-      <c r="N4" cm="1">
+      <c r="N4" s="8" cm="1">
         <f t="array" aca="1" ref="N4" ca="1">INDIRECT(bilans[[#Headers],[Grudzień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>0</v>
       </c>
@@ -9904,51 +10072,51 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" cm="1">
+      <c r="C5" s="8" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">INDIRECT(bilans[[#Headers],[Styczeń]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>65</v>
       </c>
-      <c r="D5" cm="1">
+      <c r="D5" s="8" cm="1">
         <f t="array" aca="1" ref="D5" ca="1">INDIRECT(bilans[[#Headers],[Luty]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>100</v>
       </c>
-      <c r="E5" cm="1">
+      <c r="E5" s="8" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">INDIRECT(bilans[[#Headers],[Marzec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>167.5</v>
       </c>
-      <c r="F5" cm="1">
+      <c r="F5" s="8" cm="1">
         <f t="array" aca="1" ref="F5" ca="1">INDIRECT(bilans[[#Headers],[Kwiecień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>268.5</v>
       </c>
-      <c r="G5" cm="1">
+      <c r="G5" s="8" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">INDIRECT(bilans[[#Headers],[Maj]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>218.5</v>
       </c>
-      <c r="H5" cm="1">
+      <c r="H5" s="8" cm="1">
         <f t="array" aca="1" ref="H5" ca="1">INDIRECT(bilans[[#Headers],[Czerwiec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>468.5</v>
       </c>
-      <c r="I5" cm="1">
+      <c r="I5" s="8" cm="1">
         <f t="array" aca="1" ref="I5" ca="1">INDIRECT(bilans[[#Headers],[Lipiec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>368.5</v>
       </c>
-      <c r="J5" cm="1">
+      <c r="J5" s="8" cm="1">
         <f t="array" aca="1" ref="J5" ca="1">INDIRECT(bilans[[#Headers],[Sierpień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>568.5</v>
       </c>
-      <c r="K5" cm="1">
+      <c r="K5" s="8" cm="1">
         <f t="array" aca="1" ref="K5" ca="1">INDIRECT(bilans[[#Headers],[Wrzesień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>548.5</v>
       </c>
-      <c r="L5" cm="1">
+      <c r="L5" s="8" cm="1">
         <f t="array" aca="1" ref="L5" ca="1">INDIRECT(bilans[[#Headers],[Październik]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>548.5</v>
       </c>
-      <c r="M5" cm="1">
+      <c r="M5" s="8" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">INDIRECT(bilans[[#Headers],[Listopad]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>548.5</v>
       </c>
-      <c r="N5" cm="1">
+      <c r="N5" s="8" cm="1">
         <f t="array" aca="1" ref="N5" ca="1">INDIRECT(bilans[[#Headers],[Grudzień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>548.5</v>
       </c>
@@ -9960,51 +10128,51 @@
       <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" cm="1">
+      <c r="C6" s="8" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">INDIRECT(bilans[[#Headers],[Styczeń]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>266</v>
       </c>
-      <c r="D6" cm="1">
+      <c r="D6" s="8" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">INDIRECT(bilans[[#Headers],[Luty]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>281</v>
       </c>
-      <c r="E6" cm="1">
+      <c r="E6" s="8" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">INDIRECT(bilans[[#Headers],[Marzec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>286</v>
       </c>
-      <c r="F6" cm="1">
+      <c r="F6" s="8" cm="1">
         <f t="array" aca="1" ref="F6" ca="1">INDIRECT(bilans[[#Headers],[Kwiecień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>336</v>
       </c>
-      <c r="G6" cm="1">
+      <c r="G6" s="8" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">INDIRECT(bilans[[#Headers],[Maj]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>336</v>
       </c>
-      <c r="H6" cm="1">
+      <c r="H6" s="8" cm="1">
         <f t="array" aca="1" ref="H6" ca="1">INDIRECT(bilans[[#Headers],[Czerwiec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>336</v>
       </c>
-      <c r="I6" cm="1">
+      <c r="I6" s="8" cm="1">
         <f t="array" aca="1" ref="I6" ca="1">INDIRECT(bilans[[#Headers],[Lipiec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>1386</v>
       </c>
-      <c r="J6" cm="1">
+      <c r="J6" s="8" cm="1">
         <f t="array" aca="1" ref="J6" ca="1">INDIRECT(bilans[[#Headers],[Sierpień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>1086</v>
       </c>
-      <c r="K6" cm="1">
+      <c r="K6" s="8" cm="1">
         <f t="array" aca="1" ref="K6" ca="1">INDIRECT(bilans[[#Headers],[Wrzesień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>1086</v>
       </c>
-      <c r="L6" cm="1">
+      <c r="L6" s="8" cm="1">
         <f t="array" aca="1" ref="L6" ca="1">INDIRECT(bilans[[#Headers],[Październik]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>1086</v>
       </c>
-      <c r="M6" cm="1">
+      <c r="M6" s="8" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">INDIRECT(bilans[[#Headers],[Listopad]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>1086</v>
       </c>
-      <c r="N6" cm="1">
+      <c r="N6" s="8" cm="1">
         <f t="array" aca="1" ref="N6" ca="1">INDIRECT(bilans[[#Headers],[Grudzień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>1086</v>
       </c>
@@ -10016,51 +10184,51 @@
       <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" cm="1">
+      <c r="C7" s="8" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">INDIRECT(bilans[[#Headers],[Styczeń]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>150</v>
       </c>
-      <c r="D7" cm="1">
+      <c r="D7" s="8" cm="1">
         <f t="array" aca="1" ref="D7" ca="1">INDIRECT(bilans[[#Headers],[Luty]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>250</v>
       </c>
-      <c r="E7" cm="1">
+      <c r="E7" s="8" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">INDIRECT(bilans[[#Headers],[Marzec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>225.51</v>
       </c>
-      <c r="F7" cm="1">
+      <c r="F7" s="8" cm="1">
         <f t="array" aca="1" ref="F7" ca="1">INDIRECT(bilans[[#Headers],[Kwiecień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>225.51</v>
       </c>
-      <c r="G7" cm="1">
+      <c r="G7" s="8" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">INDIRECT(bilans[[#Headers],[Maj]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>225.51</v>
       </c>
-      <c r="H7" cm="1">
+      <c r="H7" s="8" cm="1">
         <f t="array" aca="1" ref="H7" ca="1">INDIRECT(bilans[[#Headers],[Czerwiec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>225.51</v>
       </c>
-      <c r="I7" cm="1">
+      <c r="I7" s="8" cm="1">
         <f t="array" aca="1" ref="I7" ca="1">INDIRECT(bilans[[#Headers],[Lipiec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>195.51</v>
       </c>
-      <c r="J7" cm="1">
+      <c r="J7" s="8" cm="1">
         <f t="array" aca="1" ref="J7" ca="1">INDIRECT(bilans[[#Headers],[Sierpień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>195.51</v>
       </c>
-      <c r="K7" cm="1">
+      <c r="K7" s="8" cm="1">
         <f t="array" aca="1" ref="K7" ca="1">INDIRECT(bilans[[#Headers],[Wrzesień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>195.51</v>
       </c>
-      <c r="L7" cm="1">
+      <c r="L7" s="8" cm="1">
         <f t="array" aca="1" ref="L7" ca="1">INDIRECT(bilans[[#Headers],[Październik]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>195.51</v>
       </c>
-      <c r="M7" cm="1">
+      <c r="M7" s="8" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">INDIRECT(bilans[[#Headers],[Listopad]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>195.51</v>
       </c>
-      <c r="N7" cm="1">
+      <c r="N7" s="8" cm="1">
         <f t="array" aca="1" ref="N7" ca="1">INDIRECT(bilans[[#Headers],[Grudzień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>195.51</v>
       </c>
@@ -10072,57 +10240,309 @@
       <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" cm="1">
+      <c r="C8" s="8" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">INDIRECT(bilans[[#Headers],[Styczeń]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>180</v>
       </c>
-      <c r="D8" cm="1">
+      <c r="D8" s="8" cm="1">
         <f t="array" aca="1" ref="D8" ca="1">INDIRECT(bilans[[#Headers],[Luty]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>680</v>
       </c>
-      <c r="E8" cm="1">
+      <c r="E8" s="8" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">INDIRECT(bilans[[#Headers],[Marzec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>670.5</v>
       </c>
-      <c r="F8" cm="1">
+      <c r="F8" s="8" cm="1">
         <f t="array" aca="1" ref="F8" ca="1">INDIRECT(bilans[[#Headers],[Kwiecień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>670.5</v>
       </c>
-      <c r="G8" cm="1">
+      <c r="G8" s="8" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">INDIRECT(bilans[[#Headers],[Maj]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>590.5</v>
       </c>
-      <c r="H8" cm="1">
+      <c r="H8" s="8" cm="1">
         <f t="array" aca="1" ref="H8" ca="1">INDIRECT(bilans[[#Headers],[Czerwiec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>390.5</v>
       </c>
-      <c r="I8" cm="1">
+      <c r="I8" s="8" cm="1">
         <f t="array" aca="1" ref="I8" ca="1">INDIRECT(bilans[[#Headers],[Lipiec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>390.5</v>
       </c>
-      <c r="J8" cm="1">
+      <c r="J8" s="8" cm="1">
         <f t="array" aca="1" ref="J8" ca="1">INDIRECT(bilans[[#Headers],[Sierpień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>393</v>
       </c>
-      <c r="K8" cm="1">
+      <c r="K8" s="8" cm="1">
         <f t="array" aca="1" ref="K8" ca="1">INDIRECT(bilans[[#Headers],[Wrzesień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>393</v>
       </c>
-      <c r="L8" cm="1">
+      <c r="L8" s="8" cm="1">
         <f t="array" aca="1" ref="L8" ca="1">INDIRECT(bilans[[#Headers],[Październik]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>393</v>
       </c>
-      <c r="M8" cm="1">
+      <c r="M8" s="8" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">INDIRECT(bilans[[#Headers],[Listopad]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>793</v>
       </c>
-      <c r="N8" cm="1">
+      <c r="N8" s="8" cm="1">
         <f t="array" aca="1" ref="N8" ca="1">INDIRECT(bilans[[#Headers],[Grudzień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
         <v>1893</v>
       </c>
     </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12">
+        <f ca="1">SUM(bilans[Styczeń])</f>
+        <v>3786</v>
+      </c>
+      <c r="D9" s="12">
+        <f ca="1">SUM(bilans[Luty])</f>
+        <v>6250.5</v>
+      </c>
+      <c r="E9" s="12">
+        <f ca="1">SUM(bilans[Marzec])</f>
+        <v>7006.1100000000006</v>
+      </c>
+      <c r="F9" s="12">
+        <f ca="1">SUM(bilans[Kwiecień])</f>
+        <v>7732.95</v>
+      </c>
+      <c r="G9" s="12">
+        <f ca="1">SUM(bilans[Maj])</f>
+        <v>9022.9500000000007</v>
+      </c>
+      <c r="H9" s="12">
+        <f ca="1">SUM(bilans[Czerwiec])</f>
+        <v>10192.950000000001</v>
+      </c>
+      <c r="I9" s="12">
+        <f ca="1">SUM(bilans[Lipiec])</f>
+        <v>13107.95</v>
+      </c>
+      <c r="J9" s="12">
+        <f ca="1">SUM(bilans[Sierpień])</f>
+        <v>13498.45</v>
+      </c>
+      <c r="K9" s="12">
+        <f ca="1">SUM(bilans[Wrzesień])</f>
+        <v>15249.95</v>
+      </c>
+      <c r="L9" s="12">
+        <f ca="1">SUM(bilans[Październik])</f>
+        <v>16919.95</v>
+      </c>
+      <c r="M9" s="12">
+        <f ca="1">SUM(bilans[Listopad])</f>
+        <v>18319.95</v>
+      </c>
+      <c r="N9" s="12">
+        <f ca="1">SUBTOTAL(109,bilans[Grudzień])</f>
+        <v>20739.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" t="str" cm="1">
+        <f t="array" ref="B12:B14">_xlfn.UNIQUE(Kategorie[Typ])</f>
+        <v>Transfer</v>
+      </c>
+      <c r="C12" s="8" cm="1">
+        <f t="array" aca="1" ref="C12" ca="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(C$11&amp;"!$B$14:$B$32"),INDIRECT(C$11&amp;"!$C$14:$C$32"))</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="8" cm="1">
+        <f t="array" aca="1" ref="D12" ca="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(D$11&amp;"!$B$14:$B$32"),INDIRECT(D$11&amp;"!$C$14:$C$32"))</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="8" cm="1">
+        <f t="array" aca="1" ref="E12" ca="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(E$11&amp;"!$B$14:$B$32"),INDIRECT(E$11&amp;"!$C$14:$C$32"))</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="8" cm="1">
+        <f t="array" aca="1" ref="F12" ca="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(F$11&amp;"!$B$14:$B$32"),INDIRECT(F$11&amp;"!$C$14:$C$32"))</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="8" cm="1">
+        <f t="array" aca="1" ref="G12" ca="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(G$11&amp;"!$B$14:$B$32"),INDIRECT(G$11&amp;"!$C$14:$C$32"))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="8" cm="1">
+        <f t="array" aca="1" ref="H12" ca="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(H$11&amp;"!$B$14:$B$32"),INDIRECT(H$11&amp;"!$C$14:$C$32"))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="8" cm="1">
+        <f t="array" aca="1" ref="I12" ca="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(I$11&amp;"!$B$14:$B$32"),INDIRECT(I$11&amp;"!$C$14:$C$32"))</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="8" cm="1">
+        <f t="array" aca="1" ref="J12" ca="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(J$11&amp;"!$B$14:$B$32"),INDIRECT(J$11&amp;"!$C$14:$C$32"))</f>
+        <v>-1020</v>
+      </c>
+      <c r="K12" s="8" cm="1">
+        <f t="array" aca="1" ref="K12" ca="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(K$11&amp;"!$B$14:$B$32"),INDIRECT(K$11&amp;"!$C$14:$C$32"))</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="8" cm="1">
+        <f t="array" aca="1" ref="L12" ca="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(L$11&amp;"!$B$14:$B$32"),INDIRECT(L$11&amp;"!$C$14:$C$32"))</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="8" cm="1">
+        <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(M$11&amp;"!$B$14:$B$32"),INDIRECT(M$11&amp;"!$C$14:$C$32"))</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="8" cm="1">
+        <f t="array" aca="1" ref="N12" ca="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(N$11&amp;"!$B$14:$B$32"),INDIRECT(N$11&amp;"!$C$14:$C$32"))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" t="str">
+        <v>Wpływy</v>
+      </c>
+      <c r="C13" s="8" cm="1">
+        <f t="array" aca="1" ref="C13" ca="1">_xlfn.XLOOKUP($B13&amp;" Suma",INDIRECT(C$11&amp;"!$B$14:$B$32"),INDIRECT(C$11&amp;"!$C$14:$C$32"))</f>
+        <v>5655.5</v>
+      </c>
+      <c r="D13" s="8" cm="1">
+        <f t="array" aca="1" ref="D13" ca="1">_xlfn.XLOOKUP($B13&amp;" Suma",INDIRECT(D$11&amp;"!$B$14:$B$32"),INDIRECT(D$11&amp;"!$C$14:$C$32"))</f>
+        <v>6565</v>
+      </c>
+      <c r="E13" s="8" cm="1">
+        <f t="array" aca="1" ref="E13" ca="1">_xlfn.XLOOKUP($B13&amp;" Suma",INDIRECT(E$11&amp;"!$B$14:$B$32"),INDIRECT(E$11&amp;"!$C$14:$C$32"))</f>
+        <v>4655</v>
+      </c>
+      <c r="F13" s="8" cm="1">
+        <f t="array" aca="1" ref="F13" ca="1">_xlfn.XLOOKUP($B13&amp;" Suma",INDIRECT(F$11&amp;"!$B$14:$B$32"),INDIRECT(F$11&amp;"!$C$14:$C$32"))</f>
+        <v>4700</v>
+      </c>
+      <c r="G13" s="8" cm="1">
+        <f t="array" aca="1" ref="G13" ca="1">_xlfn.XLOOKUP($B13&amp;" Suma",INDIRECT(G$11&amp;"!$B$14:$B$32"),INDIRECT(G$11&amp;"!$C$14:$C$32"))</f>
+        <v>4500</v>
+      </c>
+      <c r="H13" s="8" cm="1">
+        <f t="array" aca="1" ref="H13" ca="1">_xlfn.XLOOKUP($B13&amp;" Suma",INDIRECT(H$11&amp;"!$B$14:$B$32"),INDIRECT(H$11&amp;"!$C$14:$C$32"))</f>
+        <v>4900</v>
+      </c>
+      <c r="I13" s="8" cm="1">
+        <f t="array" aca="1" ref="I13" ca="1">_xlfn.XLOOKUP($B13&amp;" Suma",INDIRECT(I$11&amp;"!$B$14:$B$32"),INDIRECT(I$11&amp;"!$C$14:$C$32"))</f>
+        <v>5920</v>
+      </c>
+      <c r="J13" s="8" cm="1">
+        <f t="array" aca="1" ref="J13" ca="1">_xlfn.XLOOKUP($B13&amp;" Suma",INDIRECT(J$11&amp;"!$B$14:$B$32"),INDIRECT(J$11&amp;"!$C$14:$C$32"))</f>
+        <v>5400</v>
+      </c>
+      <c r="K13" s="8" cm="1">
+        <f t="array" aca="1" ref="K13" ca="1">_xlfn.XLOOKUP($B13&amp;" Suma",INDIRECT(K$11&amp;"!$B$14:$B$32"),INDIRECT(K$11&amp;"!$C$14:$C$32"))</f>
+        <v>4500</v>
+      </c>
+      <c r="L13" s="8" cm="1">
+        <f t="array" aca="1" ref="L13" ca="1">_xlfn.XLOOKUP($B13&amp;" Suma",INDIRECT(L$11&amp;"!$B$14:$B$32"),INDIRECT(L$11&amp;"!$C$14:$C$32"))</f>
+        <v>4500</v>
+      </c>
+      <c r="M13" s="8" cm="1">
+        <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP($B13&amp;" Suma",INDIRECT(M$11&amp;"!$B$14:$B$32"),INDIRECT(M$11&amp;"!$C$14:$C$32"))</f>
+        <v>4900</v>
+      </c>
+      <c r="N13" s="8" cm="1">
+        <f t="array" aca="1" ref="N13" ca="1">_xlfn.XLOOKUP($B13&amp;" Suma",INDIRECT(N$11&amp;"!$B$14:$B$32"),INDIRECT(N$11&amp;"!$C$14:$C$32"))</f>
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" t="str">
+        <v>Wydatki</v>
+      </c>
+      <c r="C14" s="8" cm="1">
+        <f t="array" aca="1" ref="C14" ca="1">_xlfn.XLOOKUP($B14&amp;" Suma",INDIRECT(C$11&amp;"!$B$14:$B$32"),INDIRECT(C$11&amp;"!$C$14:$C$32"))</f>
+        <v>-4810</v>
+      </c>
+      <c r="D14" s="8" cm="1">
+        <f t="array" aca="1" ref="D14" ca="1">_xlfn.XLOOKUP($B14&amp;" Suma",INDIRECT(D$11&amp;"!$B$14:$B$32"),INDIRECT(D$11&amp;"!$C$14:$C$32"))</f>
+        <v>-4100.5</v>
+      </c>
+      <c r="E14" s="8" cm="1">
+        <f t="array" aca="1" ref="E14" ca="1">_xlfn.XLOOKUP($B14&amp;" Suma",INDIRECT(E$11&amp;"!$B$14:$B$32"),INDIRECT(E$11&amp;"!$C$14:$C$32"))</f>
+        <v>-3899.39</v>
+      </c>
+      <c r="F14" s="8" cm="1">
+        <f t="array" aca="1" ref="F14" ca="1">_xlfn.XLOOKUP($B14&amp;" Suma",INDIRECT(F$11&amp;"!$B$14:$B$32"),INDIRECT(F$11&amp;"!$C$14:$C$32"))</f>
+        <v>-3973.1600000000003</v>
+      </c>
+      <c r="G14" s="8" cm="1">
+        <f t="array" aca="1" ref="G14" ca="1">_xlfn.XLOOKUP($B14&amp;" Suma",INDIRECT(G$11&amp;"!$B$14:$B$32"),INDIRECT(G$11&amp;"!$C$14:$C$32"))</f>
+        <v>-3210</v>
+      </c>
+      <c r="H14" s="8" cm="1">
+        <f t="array" aca="1" ref="H14" ca="1">_xlfn.XLOOKUP($B14&amp;" Suma",INDIRECT(H$11&amp;"!$B$14:$B$32"),INDIRECT(H$11&amp;"!$C$14:$C$32"))</f>
+        <v>-3730</v>
+      </c>
+      <c r="I14" s="8" cm="1">
+        <f t="array" aca="1" ref="I14" ca="1">_xlfn.XLOOKUP($B14&amp;" Suma",INDIRECT(I$11&amp;"!$B$14:$B$32"),INDIRECT(I$11&amp;"!$C$14:$C$32"))</f>
+        <v>-3005</v>
+      </c>
+      <c r="J14" s="8" cm="1">
+        <f t="array" aca="1" ref="J14" ca="1">_xlfn.XLOOKUP($B14&amp;" Suma",INDIRECT(J$11&amp;"!$B$14:$B$32"),INDIRECT(J$11&amp;"!$C$14:$C$32"))</f>
+        <v>-3989.5</v>
+      </c>
+      <c r="K14" s="8" cm="1">
+        <f t="array" aca="1" ref="K14" ca="1">_xlfn.XLOOKUP($B14&amp;" Suma",INDIRECT(K$11&amp;"!$B$14:$B$32"),INDIRECT(K$11&amp;"!$C$14:$C$32"))</f>
+        <v>-2748.5</v>
+      </c>
+      <c r="L14" s="8" cm="1">
+        <f t="array" aca="1" ref="L14" ca="1">_xlfn.XLOOKUP($B14&amp;" Suma",INDIRECT(L$11&amp;"!$B$14:$B$32"),INDIRECT(L$11&amp;"!$C$14:$C$32"))</f>
+        <v>-2830</v>
+      </c>
+      <c r="M14" s="8" cm="1">
+        <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP($B14&amp;" Suma",INDIRECT(M$11&amp;"!$B$14:$B$32"),INDIRECT(M$11&amp;"!$C$14:$C$32"))</f>
+        <v>-3500</v>
+      </c>
+      <c r="N14" s="8" cm="1">
+        <f t="array" aca="1" ref="N14" ca="1">_xlfn.XLOOKUP($B14&amp;" Suma",INDIRECT(N$11&amp;"!$B$14:$B$32"),INDIRECT(N$11&amp;"!$C$14:$C$32"))</f>
+        <v>-4080</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -10134,8 +10554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B61AC7-E857-4FF4-8F8A-C0BAB673445B}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>

--- a/Finanse.xlsx
+++ b/Finanse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-A121-08.CAMPUS.005\Desktop\Arkusz-kalkulacyjny-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CAC238-07C0-4710-B5EC-4366CB203DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3515D5-9A38-4D47-8E00-D02216A356BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{19EE711A-3283-4873-9107-9C9869A047C7}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="67">
   <si>
     <t>Kwota</t>
   </si>
@@ -9835,10 +9835,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE44691F-75BC-4862-937D-745721B9EA49}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10539,6 +10539,59 @@
       <c r="N14" s="8" cm="1">
         <f t="array" aca="1" ref="N14" ca="1">_xlfn.XLOOKUP($B14&amp;" Suma",INDIRECT(N$11&amp;"!$B$14:$B$32"),INDIRECT(N$11&amp;"!$C$14:$C$32"))</f>
         <v>-4080</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="12">
+        <f ca="1">SUM(C12:C14)</f>
+        <v>845.5</v>
+      </c>
+      <c r="D15" s="12">
+        <f t="shared" ref="D15:N15" ca="1" si="0">SUM(D12:D14)</f>
+        <v>2464.5</v>
+      </c>
+      <c r="E15" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>755.61000000000013</v>
+      </c>
+      <c r="F15" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>726.83999999999969</v>
+      </c>
+      <c r="G15" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>1290</v>
+      </c>
+      <c r="H15" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>1170</v>
+      </c>
+      <c r="I15" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>2915</v>
+      </c>
+      <c r="J15" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>390.5</v>
+      </c>
+      <c r="K15" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>1751.5</v>
+      </c>
+      <c r="L15" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>1670</v>
+      </c>
+      <c r="M15" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="N15" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>2420</v>
       </c>
     </row>
   </sheetData>
